--- a/[3] Test Input/RESULTS_MTT_MERGED_DATE.xlsx
+++ b/[3] Test Input/RESULTS_MTT_MERGED_DATE.xlsx
@@ -512,31 +512,31 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>11.56666666666667</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>30.46666666666667</v>
+        <v>26.6</v>
       </c>
       <c r="F2" t="n">
-        <v>18.9</v>
+        <v>24.6</v>
       </c>
       <c r="G2" t="n">
-        <v>71.36666666666666</v>
+        <v>31.13333333333334</v>
       </c>
       <c r="H2" t="n">
-        <v>71.62599999999999</v>
+        <v>30.29275272247831</v>
       </c>
       <c r="I2" t="n">
-        <v>64.70216666666666</v>
+        <v>28.43195225688973</v>
       </c>
       <c r="J2" t="n">
-        <v>28.59833333333333</v>
+        <v>10.02266666666667</v>
       </c>
       <c r="K2" t="n">
-        <v>164.5958333333333</v>
+        <v>23.60016666666667</v>
       </c>
       <c r="L2" t="n">
-        <v>8015.784666666666</v>
+        <v>1245.02</v>
       </c>
     </row>
     <row r="3">
@@ -556,31 +556,31 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>10.8</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>29.64444444444445</v>
+        <v>29.15555555555556</v>
       </c>
       <c r="F3" t="n">
-        <v>18.84444444444444</v>
+        <v>27.15555555555556</v>
       </c>
       <c r="G3" t="n">
-        <v>76.66666666666667</v>
+        <v>31.71111111111111</v>
       </c>
       <c r="H3" t="n">
-        <v>77.03400000000001</v>
+        <v>31.19623534062059</v>
       </c>
       <c r="I3" t="n">
-        <v>69.62777777777778</v>
+        <v>29.3445666322599</v>
       </c>
       <c r="J3" t="n">
-        <v>31.57444444444444</v>
+        <v>10.28555555555556</v>
       </c>
       <c r="K3" t="n">
-        <v>166.4468888888889</v>
+        <v>25.45911111111111</v>
       </c>
       <c r="L3" t="n">
-        <v>8970.806666666665</v>
+        <v>1210.07</v>
       </c>
     </row>
     <row r="4">
@@ -600,31 +600,31 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>11.2</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>30</v>
+        <v>28.66666666666667</v>
       </c>
       <c r="F4" t="n">
-        <v>18.8</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="G4" t="n">
-        <v>81.26666666666667</v>
+        <v>33.33333333333334</v>
       </c>
       <c r="H4" t="n">
-        <v>81.69333333333333</v>
+        <v>32.03999476587148</v>
       </c>
       <c r="I4" t="n">
-        <v>73.51133333333333</v>
+        <v>29.60943792949716</v>
       </c>
       <c r="J4" t="n">
-        <v>33.306</v>
+        <v>10.94666666666667</v>
       </c>
       <c r="K4" t="n">
-        <v>177.5133333333333</v>
+        <v>26.254</v>
       </c>
       <c r="L4" t="n">
-        <v>9596.530000000001</v>
+        <v>1233.417333333333</v>
       </c>
     </row>
     <row r="5">
@@ -644,31 +644,31 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>11.2</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>30.13333333333334</v>
+        <v>29.46666666666667</v>
       </c>
       <c r="F5" t="n">
-        <v>18.93333333333333</v>
+        <v>27.46666666666667</v>
       </c>
       <c r="G5" t="n">
-        <v>80.5</v>
+        <v>33.46666666666667</v>
       </c>
       <c r="H5" t="n">
-        <v>80.71300000000001</v>
+        <v>32.4307029330715</v>
       </c>
       <c r="I5" t="n">
-        <v>72.27549999999999</v>
+        <v>29.81742175491021</v>
       </c>
       <c r="J5" t="n">
-        <v>33.0435</v>
+        <v>10.99533333333333</v>
       </c>
       <c r="K5" t="n">
-        <v>162.7735</v>
+        <v>28.0975</v>
       </c>
       <c r="L5" t="n">
-        <v>9212.772500000001</v>
+        <v>1246.010666666667</v>
       </c>
     </row>
     <row r="6">
@@ -688,31 +688,31 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>11.6</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>30.13333333333334</v>
+        <v>30.53333333333333</v>
       </c>
       <c r="F6" t="n">
-        <v>18.53333333333333</v>
+        <v>28.53333333333333</v>
       </c>
       <c r="G6" t="n">
-        <v>79.86666666666666</v>
+        <v>32.73333333333333</v>
       </c>
       <c r="H6" t="n">
-        <v>80.14866666666666</v>
+        <v>32.57028225084435</v>
       </c>
       <c r="I6" t="n">
-        <v>72.81733333333331</v>
+        <v>30.15209737976659</v>
       </c>
       <c r="J6" t="n">
-        <v>32.58000000000001</v>
+        <v>10.34533333333333</v>
       </c>
       <c r="K6" t="n">
-        <v>164.188</v>
+        <v>22.80333333333333</v>
       </c>
       <c r="L6" t="n">
-        <v>9241.831333333334</v>
+        <v>1119.82</v>
       </c>
     </row>
     <row r="7">
@@ -732,31 +732,31 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>11.36666666666667</v>
+        <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>30.46666666666667</v>
+        <v>25.7</v>
       </c>
       <c r="F7" t="n">
-        <v>19.1</v>
+        <v>23.7</v>
       </c>
       <c r="G7" t="n">
-        <v>75.66666666666667</v>
+        <v>31.58333333333333</v>
       </c>
       <c r="H7" t="n">
-        <v>76.08033333333333</v>
+        <v>30.35581527075303</v>
       </c>
       <c r="I7" t="n">
-        <v>69.0005</v>
+        <v>28.70739790948832</v>
       </c>
       <c r="J7" t="n">
-        <v>31.45133333333333</v>
+        <v>10.37483333333333</v>
       </c>
       <c r="K7" t="n">
-        <v>174.8841666666667</v>
+        <v>28.0915</v>
       </c>
       <c r="L7" t="n">
-        <v>9320.332166666667</v>
+        <v>1244.103666666667</v>
       </c>
     </row>
     <row r="8">
@@ -776,31 +776,31 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>11.46666666666667</v>
+        <v>2</v>
       </c>
       <c r="E8" t="n">
-        <v>30.26666666666667</v>
+        <v>32</v>
       </c>
       <c r="F8" t="n">
-        <v>18.8</v>
+        <v>30</v>
       </c>
       <c r="G8" t="n">
-        <v>65.51666666666667</v>
+        <v>27.25</v>
       </c>
       <c r="H8" t="n">
-        <v>65.97449999999999</v>
+        <v>26.34290385835919</v>
       </c>
       <c r="I8" t="n">
-        <v>58.9385</v>
+        <v>24.08797963996862</v>
       </c>
       <c r="J8" t="n">
-        <v>26.07083333333334</v>
+        <v>8.530833333333334</v>
       </c>
       <c r="K8" t="n">
-        <v>168.6416666666667</v>
+        <v>18.01583333333333</v>
       </c>
       <c r="L8" t="n">
-        <v>7461.972500000001</v>
+        <v>903.7288333333332</v>
       </c>
     </row>
     <row r="9">
@@ -820,31 +820,31 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>11.06666666666667</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
-        <v>32.26666666666667</v>
+        <v>32.16666666666666</v>
       </c>
       <c r="F9" t="n">
-        <v>21.2</v>
+        <v>30.16666666666667</v>
       </c>
       <c r="G9" t="n">
-        <v>52.93333333333334</v>
+        <v>23.66666666666667</v>
       </c>
       <c r="H9" t="n">
-        <v>53.02933333333333</v>
+        <v>23.13080513976111</v>
       </c>
       <c r="I9" t="n">
-        <v>46.50266666666666</v>
+        <v>22.01720956758423</v>
       </c>
       <c r="J9" t="n">
-        <v>21.02266666666667</v>
+        <v>7.192333333333333</v>
       </c>
       <c r="K9" t="n">
-        <v>219.4486666666667</v>
+        <v>16.016</v>
       </c>
       <c r="L9" t="n">
-        <v>6408.418000000001</v>
+        <v>879.5341666666667</v>
       </c>
     </row>
     <row r="10">
@@ -864,31 +864,31 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>12.13333333333333</v>
+        <v>2</v>
       </c>
       <c r="E10" t="n">
-        <v>30.26666666666667</v>
+        <v>29.6</v>
       </c>
       <c r="F10" t="n">
-        <v>18.13333333333334</v>
+        <v>27.6</v>
       </c>
       <c r="G10" t="n">
-        <v>56.26666666666666</v>
+        <v>24</v>
       </c>
       <c r="H10" t="n">
-        <v>56.69666666666667</v>
+        <v>23.77836461955152</v>
       </c>
       <c r="I10" t="n">
-        <v>51.17599999999999</v>
+        <v>22.05022289311534</v>
       </c>
       <c r="J10" t="n">
-        <v>22.646</v>
+        <v>7.442</v>
       </c>
       <c r="K10" t="n">
-        <v>176.0066666666667</v>
+        <v>20.17666666666667</v>
       </c>
       <c r="L10" t="n">
-        <v>6578.642</v>
+        <v>909.1833333333333</v>
       </c>
     </row>
     <row r="11">
@@ -908,31 +908,31 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>11.16666666666667</v>
+        <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>30.13333333333334</v>
+        <v>30.66666666666667</v>
       </c>
       <c r="F11" t="n">
-        <v>18.96666666666667</v>
+        <v>28.66666666666667</v>
       </c>
       <c r="G11" t="n">
-        <v>61.73333333333333</v>
+        <v>26.63333333333334</v>
       </c>
       <c r="H11" t="n">
-        <v>62.05216666666666</v>
+        <v>26.5457361772733</v>
       </c>
       <c r="I11" t="n">
-        <v>54.56316666666666</v>
+        <v>25.15741190664255</v>
       </c>
       <c r="J11" t="n">
-        <v>24.27</v>
+        <v>8.1975</v>
       </c>
       <c r="K11" t="n">
-        <v>158.9271666666667</v>
+        <v>19.76316666666667</v>
       </c>
       <c r="L11" t="n">
-        <v>6936.520666666666</v>
+        <v>913.1138333333333</v>
       </c>
     </row>
     <row r="12">
@@ -952,31 +952,31 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>10.97777777777778</v>
+        <v>2.133333333333333</v>
       </c>
       <c r="E12" t="n">
-        <v>30.66666666666667</v>
+        <v>30.93333333333333</v>
       </c>
       <c r="F12" t="n">
-        <v>19.68888888888889</v>
+        <v>28.8</v>
       </c>
       <c r="G12" t="n">
-        <v>58.68888888888889</v>
+        <v>25.08888888888889</v>
       </c>
       <c r="H12" t="n">
-        <v>58.95355555555555</v>
+        <v>24.4352139609091</v>
       </c>
       <c r="I12" t="n">
-        <v>53.88733333333332</v>
+        <v>22.70899258399875</v>
       </c>
       <c r="J12" t="n">
-        <v>23.00666666666666</v>
+        <v>7.663999999999999</v>
       </c>
       <c r="K12" t="n">
-        <v>158.7895555555556</v>
+        <v>20.35622222222223</v>
       </c>
       <c r="L12" t="n">
-        <v>6388.380888888889</v>
+        <v>909.2613333333334</v>
       </c>
     </row>
     <row r="13">
@@ -996,31 +996,31 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>12.31111111111111</v>
+        <v>2</v>
       </c>
       <c r="E13" t="n">
-        <v>31.06666666666667</v>
+        <v>32.53333333333333</v>
       </c>
       <c r="F13" t="n">
-        <v>18.75555555555556</v>
+        <v>30.53333333333333</v>
       </c>
       <c r="G13" t="n">
-        <v>56.4</v>
+        <v>24.04444444444444</v>
       </c>
       <c r="H13" t="n">
-        <v>56.906</v>
+        <v>23.80324147033262</v>
       </c>
       <c r="I13" t="n">
-        <v>50.70688888888889</v>
+        <v>21.94543985825279</v>
       </c>
       <c r="J13" t="n">
-        <v>22.63733333333333</v>
+        <v>7.567777777777778</v>
       </c>
       <c r="K13" t="n">
-        <v>171.7182222222222</v>
+        <v>18.46711111111111</v>
       </c>
       <c r="L13" t="n">
-        <v>6441.018666666667</v>
+        <v>884.1873333333333</v>
       </c>
     </row>
     <row r="14">
@@ -1040,31 +1040,31 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E14" t="n">
+        <v>32</v>
+      </c>
+      <c r="F14" t="n">
         <v>30</v>
       </c>
-      <c r="F14" t="n">
-        <v>18</v>
-      </c>
       <c r="G14" t="n">
-        <v>69.45</v>
+        <v>29.21666666666667</v>
       </c>
       <c r="H14" t="n">
-        <v>69.93599999999999</v>
+        <v>28.41784236690033</v>
       </c>
       <c r="I14" t="n">
-        <v>59.4415</v>
+        <v>24.94757445555236</v>
       </c>
       <c r="J14" t="n">
-        <v>28.69316666666667</v>
+        <v>9.283333333333333</v>
       </c>
       <c r="K14" t="n">
-        <v>171.9538333333333</v>
+        <v>21.27966666666667</v>
       </c>
       <c r="L14" t="n">
-        <v>8513.187333333333</v>
+        <v>969.1013333333334</v>
       </c>
     </row>
     <row r="15">
@@ -1084,31 +1084,31 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>11.76666666666667</v>
+        <v>2</v>
       </c>
       <c r="E15" t="n">
-        <v>30.74444444444444</v>
+        <v>29.9</v>
       </c>
       <c r="F15" t="n">
-        <v>18.97777777777778</v>
+        <v>27.9</v>
       </c>
       <c r="G15" t="n">
-        <v>70.27777777777777</v>
+        <v>30.9</v>
       </c>
       <c r="H15" t="n">
-        <v>70.69961111111111</v>
+        <v>29.61478887794275</v>
       </c>
       <c r="I15" t="n">
-        <v>64.52177777777777</v>
+        <v>27.61222533723567</v>
       </c>
       <c r="J15" t="n">
-        <v>28.19344444444444</v>
+        <v>9.690222222222223</v>
       </c>
       <c r="K15" t="n">
-        <v>165.8025555555555</v>
+        <v>22.10605555555556</v>
       </c>
       <c r="L15" t="n">
-        <v>8220.671444444444</v>
+        <v>1132.255111111111</v>
       </c>
     </row>
     <row r="16">
@@ -1128,31 +1128,31 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>12.5</v>
+        <v>2</v>
       </c>
       <c r="E16" t="n">
-        <v>29.16666666666667</v>
+        <v>30.04444444444444</v>
       </c>
       <c r="F16" t="n">
-        <v>16.66666666666667</v>
+        <v>28.04444444444444</v>
       </c>
       <c r="G16" t="n">
-        <v>54.6</v>
+        <v>24.42777777777778</v>
       </c>
       <c r="H16" t="n">
-        <v>54.87933333333333</v>
+        <v>24.06418201606895</v>
       </c>
       <c r="I16" t="n">
-        <v>48.8615</v>
+        <v>22.1030256950372</v>
       </c>
       <c r="J16" t="n">
-        <v>21.907</v>
+        <v>7.70011111111111</v>
       </c>
       <c r="K16" t="n">
-        <v>184.6796666666667</v>
+        <v>22.42383333333333</v>
       </c>
       <c r="L16" t="n">
-        <v>6480.5925</v>
+        <v>993.8810555555556</v>
       </c>
     </row>
     <row r="17">
@@ -1172,31 +1172,31 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>11.76666666666667</v>
+        <v>2</v>
       </c>
       <c r="E17" t="n">
-        <v>30.7</v>
+        <v>31.06666666666667</v>
       </c>
       <c r="F17" t="n">
-        <v>18.93333333333333</v>
+        <v>29.06666666666667</v>
       </c>
       <c r="G17" t="n">
-        <v>57.26666666666667</v>
+        <v>26.4</v>
       </c>
       <c r="H17" t="n">
-        <v>57.39116666666666</v>
+        <v>25.91287969036331</v>
       </c>
       <c r="I17" t="n">
-        <v>50.45666666666667</v>
+        <v>24.00365140276805</v>
       </c>
       <c r="J17" t="n">
-        <v>22.84183333333333</v>
+        <v>8.07</v>
       </c>
       <c r="K17" t="n">
-        <v>163.2651666666667</v>
+        <v>20.28466666666667</v>
       </c>
       <c r="L17" t="n">
-        <v>6965.030833333333</v>
+        <v>934.4475555555556</v>
       </c>
     </row>
     <row r="18">
@@ -1216,31 +1216,31 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>12.33333333333333</v>
+        <v>2</v>
       </c>
       <c r="E18" t="n">
-        <v>30</v>
+        <v>31.86666666666666</v>
       </c>
       <c r="F18" t="n">
-        <v>17.66666666666667</v>
+        <v>29.86666666666666</v>
       </c>
       <c r="G18" t="n">
-        <v>53.33333333333334</v>
+        <v>22.26666666666667</v>
       </c>
       <c r="H18" t="n">
-        <v>53.62333333333333</v>
+        <v>22.23605250362956</v>
       </c>
       <c r="I18" t="n">
-        <v>47.64333333333334</v>
+        <v>21.47328918608059</v>
       </c>
       <c r="J18" t="n">
-        <v>21.02233333333333</v>
+        <v>6.507666666666666</v>
       </c>
       <c r="K18" t="n">
-        <v>170.3006666666667</v>
+        <v>13.46833333333333</v>
       </c>
       <c r="L18" t="n">
-        <v>6240.318666666666</v>
+        <v>666.3136666666666</v>
       </c>
     </row>
     <row r="19">
@@ -1260,31 +1260,31 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>9.333333333333334</v>
+        <v>2</v>
       </c>
       <c r="E19" t="n">
-        <v>30.26666666666667</v>
+        <v>28.53333333333333</v>
       </c>
       <c r="F19" t="n">
-        <v>20.93333333333333</v>
+        <v>26.53333333333333</v>
       </c>
       <c r="G19" t="n">
-        <v>100.2666666666667</v>
+        <v>41.33333333333334</v>
       </c>
       <c r="H19" t="n">
-        <v>100.54</v>
+        <v>40.87845291321089</v>
       </c>
       <c r="I19" t="n">
-        <v>89.63200000000001</v>
+        <v>39.58613619825278</v>
       </c>
       <c r="J19" t="n">
-        <v>40.788</v>
+        <v>13.40466666666667</v>
       </c>
       <c r="K19" t="n">
-        <v>141.2246666666666</v>
+        <v>27.402</v>
       </c>
       <c r="L19" t="n">
-        <v>10966.63866666667</v>
+        <v>1477.728666666667</v>
       </c>
     </row>
     <row r="20">
@@ -1304,31 +1304,31 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>10.2</v>
+        <v>2</v>
       </c>
       <c r="E20" t="n">
-        <v>30.33333333333333</v>
+        <v>26.9</v>
       </c>
       <c r="F20" t="n">
-        <v>20.13333333333333</v>
+        <v>24.9</v>
       </c>
       <c r="G20" t="n">
-        <v>102.4166666666667</v>
+        <v>41.16666666666666</v>
       </c>
       <c r="H20" t="n">
-        <v>102.7733333333333</v>
+        <v>40.49305352136972</v>
       </c>
       <c r="I20" t="n">
-        <v>95.81066666666668</v>
+        <v>38.59022420787371</v>
       </c>
       <c r="J20" t="n">
-        <v>43.43066666666667</v>
+        <v>13.67116666666666</v>
       </c>
       <c r="K20" t="n">
-        <v>164.6141666666667</v>
+        <v>30.0005</v>
       </c>
       <c r="L20" t="n">
-        <v>12267.88216666667</v>
+        <v>1609.039833333333</v>
       </c>
     </row>
     <row r="21">
@@ -1348,31 +1348,31 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>9.833333333333334</v>
+        <v>2</v>
       </c>
       <c r="E21" t="n">
-        <v>30.16666666666667</v>
+        <v>28.16666666666667</v>
       </c>
       <c r="F21" t="n">
-        <v>20.33333333333333</v>
+        <v>26.16666666666667</v>
       </c>
       <c r="G21" t="n">
-        <v>101.75</v>
+        <v>42.16666666666666</v>
       </c>
       <c r="H21" t="n">
-        <v>102.1441666666667</v>
+        <v>41.12356858856445</v>
       </c>
       <c r="I21" t="n">
-        <v>89.45583333333333</v>
+        <v>38.62876351869128</v>
       </c>
       <c r="J21" t="n">
-        <v>43.44416666666666</v>
+        <v>14.1775</v>
       </c>
       <c r="K21" t="n">
-        <v>169.2933333333333</v>
+        <v>29.5075</v>
       </c>
       <c r="L21" t="n">
-        <v>12476.80916666667</v>
+        <v>1634.346666666667</v>
       </c>
     </row>
     <row r="22">
@@ -1392,31 +1392,31 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>10.6</v>
+        <v>2</v>
       </c>
       <c r="E22" t="n">
-        <v>31.5</v>
+        <v>28.4</v>
       </c>
       <c r="F22" t="n">
-        <v>20.9</v>
+        <v>26.4</v>
       </c>
       <c r="G22" t="n">
-        <v>118.4333333333333</v>
+        <v>48.03333333333333</v>
       </c>
       <c r="H22" t="n">
-        <v>118.771</v>
+        <v>47.22016812870672</v>
       </c>
       <c r="I22" t="n">
-        <v>104.7885</v>
+        <v>46.25966507258651</v>
       </c>
       <c r="J22" t="n">
-        <v>49.96216666666666</v>
+        <v>15.85883333333333</v>
       </c>
       <c r="K22" t="n">
-        <v>160.4406666666667</v>
+        <v>30.23233333333333</v>
       </c>
       <c r="L22" t="n">
-        <v>14075.31883333333</v>
+        <v>1921.428</v>
       </c>
     </row>
     <row r="23">
@@ -1436,31 +1436,31 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>10.13333333333333</v>
+        <v>2</v>
       </c>
       <c r="E23" t="n">
-        <v>33.2</v>
+        <v>26.53333333333333</v>
       </c>
       <c r="F23" t="n">
-        <v>23.06666666666667</v>
+        <v>24.53333333333333</v>
       </c>
       <c r="G23" t="n">
-        <v>104.6</v>
+        <v>41.93333333333333</v>
       </c>
       <c r="H23" t="n">
-        <v>103.8933333333333</v>
+        <v>41.47726651542062</v>
       </c>
       <c r="I23" t="n">
-        <v>92.51400000000001</v>
+        <v>39.89162267020546</v>
       </c>
       <c r="J23" t="n">
-        <v>45.454</v>
+        <v>14.38</v>
       </c>
       <c r="K23" t="n">
-        <v>167.894</v>
+        <v>31.94933333333333</v>
       </c>
       <c r="L23" t="n">
-        <v>12932.40866666667</v>
+        <v>1806.83</v>
       </c>
     </row>
     <row r="24">
@@ -1480,31 +1480,31 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E24" t="n">
-        <v>30.93333333333333</v>
+        <v>30.26666666666667</v>
       </c>
       <c r="F24" t="n">
-        <v>20.93333333333333</v>
+        <v>28.26666666666667</v>
       </c>
       <c r="G24" t="n">
-        <v>82.8</v>
+        <v>34.8</v>
       </c>
       <c r="H24" t="n">
-        <v>83.16666666666667</v>
+        <v>33.97252702246527</v>
       </c>
       <c r="I24" t="n">
-        <v>73.86866666666667</v>
+        <v>32.82711268287716</v>
       </c>
       <c r="J24" t="n">
-        <v>33.92266666666666</v>
+        <v>11.28</v>
       </c>
       <c r="K24" t="n">
-        <v>162.964</v>
+        <v>29.66333333333333</v>
       </c>
       <c r="L24" t="n">
-        <v>9685.138666666668</v>
+        <v>1329.719333333333</v>
       </c>
     </row>
     <row r="25">
@@ -1524,31 +1524,31 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E25" t="n">
-        <v>30.3</v>
+        <v>29.06666666666667</v>
       </c>
       <c r="F25" t="n">
-        <v>19.3</v>
+        <v>27.06666666666667</v>
       </c>
       <c r="G25" t="n">
-        <v>91.05</v>
+        <v>37.33333333333334</v>
       </c>
       <c r="H25" t="n">
-        <v>91.27766666666666</v>
+        <v>37.07532744961493</v>
       </c>
       <c r="I25" t="n">
-        <v>77.4575</v>
+        <v>35.94921066307917</v>
       </c>
       <c r="J25" t="n">
-        <v>37.73383333333333</v>
+        <v>12.00233333333333</v>
       </c>
       <c r="K25" t="n">
-        <v>170.4485</v>
+        <v>27.32083333333334</v>
       </c>
       <c r="L25" t="n">
-        <v>10788.2825</v>
+        <v>1316.207333333333</v>
       </c>
     </row>
     <row r="26">
@@ -1568,31 +1568,31 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>10.16666666666667</v>
+        <v>2</v>
       </c>
       <c r="E26" t="n">
-        <v>30.56666666666667</v>
+        <v>29.9</v>
       </c>
       <c r="F26" t="n">
-        <v>20.4</v>
+        <v>27.9</v>
       </c>
       <c r="G26" t="n">
-        <v>95.63333333333333</v>
+        <v>39.75</v>
       </c>
       <c r="H26" t="n">
-        <v>95.94350000000001</v>
+        <v>39.3967775281548</v>
       </c>
       <c r="I26" t="n">
-        <v>84.30816666666668</v>
+        <v>37.33235087777216</v>
       </c>
       <c r="J26" t="n">
-        <v>39.47600000000001</v>
+        <v>12.67116666666667</v>
       </c>
       <c r="K26" t="n">
-        <v>165.5626666666667</v>
+        <v>25.7315</v>
       </c>
       <c r="L26" t="n">
-        <v>11256.62216666667</v>
+        <v>1424.270666666667</v>
       </c>
     </row>
     <row r="27">
@@ -1612,31 +1612,31 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>10.73333333333333</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="E27" t="n">
-        <v>30.9</v>
+        <v>29.46666666666667</v>
       </c>
       <c r="F27" t="n">
-        <v>20.16666666666667</v>
+        <v>26.8</v>
       </c>
       <c r="G27" t="n">
-        <v>92.06666666666666</v>
+        <v>37.28333333333333</v>
       </c>
       <c r="H27" t="n">
-        <v>92.20983333333334</v>
+        <v>36.50913015204793</v>
       </c>
       <c r="I27" t="n">
-        <v>81.65416666666665</v>
+        <v>35.18310468415702</v>
       </c>
       <c r="J27" t="n">
-        <v>38.19066666666667</v>
+        <v>12.36816666666667</v>
       </c>
       <c r="K27" t="n">
-        <v>153.5388333333333</v>
+        <v>27.4535</v>
       </c>
       <c r="L27" t="n">
-        <v>10656.50133333333</v>
+        <v>1522.314</v>
       </c>
     </row>
     <row r="28">
@@ -1656,31 +1656,31 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>10.9</v>
+        <v>2</v>
       </c>
       <c r="E28" t="n">
-        <v>30.3</v>
+        <v>31.36666666666666</v>
       </c>
       <c r="F28" t="n">
-        <v>19.4</v>
+        <v>29.36666666666666</v>
       </c>
       <c r="G28" t="n">
-        <v>84.96666666666667</v>
+        <v>35.7</v>
       </c>
       <c r="H28" t="n">
-        <v>85.21283333333334</v>
+        <v>35.59741948614823</v>
       </c>
       <c r="I28" t="n">
-        <v>74.23733333333332</v>
+        <v>34.72901612068031</v>
       </c>
       <c r="J28" t="n">
-        <v>34.28233333333333</v>
+        <v>11.00716666666666</v>
       </c>
       <c r="K28" t="n">
-        <v>155.7995</v>
+        <v>19.55333333333333</v>
       </c>
       <c r="L28" t="n">
-        <v>9703.857833333333</v>
+        <v>1163.5565</v>
       </c>
     </row>
     <row r="29">
@@ -1700,31 +1700,31 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>9.866666666666667</v>
+        <v>2</v>
       </c>
       <c r="E29" t="n">
-        <v>30</v>
+        <v>28.6</v>
       </c>
       <c r="F29" t="n">
-        <v>20.13333333333333</v>
+        <v>26.6</v>
       </c>
       <c r="G29" t="n">
-        <v>100.45</v>
+        <v>41.5</v>
       </c>
       <c r="H29" t="n">
-        <v>100.6725</v>
+        <v>41.09868748203535</v>
       </c>
       <c r="I29" t="n">
-        <v>89.99416666666666</v>
+        <v>38.3087284838719</v>
       </c>
       <c r="J29" t="n">
-        <v>41.51116666666667</v>
+        <v>13.255</v>
       </c>
       <c r="K29" t="n">
-        <v>164.8906666666667</v>
+        <v>30.94766666666666</v>
       </c>
       <c r="L29" t="n">
-        <v>11646.63833333333</v>
+        <v>1593.982</v>
       </c>
     </row>
     <row r="30">
@@ -1744,31 +1744,31 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>10.8</v>
+        <v>2</v>
       </c>
       <c r="E30" t="n">
-        <v>30.93333333333333</v>
+        <v>28.53333333333333</v>
       </c>
       <c r="F30" t="n">
-        <v>20.13333333333334</v>
+        <v>26.53333333333333</v>
       </c>
       <c r="G30" t="n">
-        <v>85.66666666666667</v>
+        <v>36.06666666666667</v>
       </c>
       <c r="H30" t="n">
-        <v>86.074</v>
+        <v>34.77574752491721</v>
       </c>
       <c r="I30" t="n">
-        <v>79.34400000000001</v>
+        <v>32.80832522446712</v>
       </c>
       <c r="J30" t="n">
-        <v>35.74666666666666</v>
+        <v>11.71933333333333</v>
       </c>
       <c r="K30" t="n">
-        <v>178.01</v>
+        <v>27.99666666666667</v>
       </c>
       <c r="L30" t="n">
-        <v>10191.37066666667</v>
+        <v>1418.318666666667</v>
       </c>
     </row>
     <row r="31">
@@ -1788,31 +1788,31 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>10.88888888888889</v>
+        <v>2</v>
       </c>
       <c r="E31" t="n">
-        <v>30.66666666666667</v>
+        <v>29.11111111111111</v>
       </c>
       <c r="F31" t="n">
-        <v>19.77777777777778</v>
+        <v>27.11111111111111</v>
       </c>
       <c r="G31" t="n">
-        <v>91.16666666666667</v>
+        <v>37.75</v>
       </c>
       <c r="H31" t="n">
-        <v>91.35416666666667</v>
+        <v>37.15524325595333</v>
       </c>
       <c r="I31" t="n">
-        <v>82.10555555555555</v>
+        <v>36.20114692113864</v>
       </c>
       <c r="J31" t="n">
-        <v>37.25694444444445</v>
+        <v>12.33361111111111</v>
       </c>
       <c r="K31" t="n">
-        <v>156.8086111111111</v>
+        <v>30.00416666666667</v>
       </c>
       <c r="L31" t="n">
-        <v>10455.46388888889</v>
+        <v>1413.636111111111</v>
       </c>
     </row>
     <row r="32">
@@ -1832,31 +1832,31 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>10.8</v>
+        <v>2</v>
       </c>
       <c r="E32" t="n">
         <v>30.83333333333333</v>
       </c>
       <c r="F32" t="n">
-        <v>20.03333333333333</v>
+        <v>28.83333333333333</v>
       </c>
       <c r="G32" t="n">
-        <v>94.16666666666667</v>
+        <v>39.86666666666667</v>
       </c>
       <c r="H32" t="n">
-        <v>94.58183333333334</v>
+        <v>39.05661896652227</v>
       </c>
       <c r="I32" t="n">
-        <v>81.72516666666667</v>
+        <v>36.81559220257041</v>
       </c>
       <c r="J32" t="n">
-        <v>38.33233333333333</v>
+        <v>13.138</v>
       </c>
       <c r="K32" t="n">
-        <v>150.8651666666667</v>
+        <v>26.49916666666667</v>
       </c>
       <c r="L32" t="n">
-        <v>10608.5025</v>
+        <v>1459.802</v>
       </c>
     </row>
     <row r="33">
@@ -1876,31 +1876,31 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>11.24444444444445</v>
+        <v>2</v>
       </c>
       <c r="E33" t="n">
-        <v>30.57777777777778</v>
+        <v>28.97777777777778</v>
       </c>
       <c r="F33" t="n">
-        <v>19.33333333333333</v>
+        <v>26.97777777777778</v>
       </c>
       <c r="G33" t="n">
-        <v>83.25555555555555</v>
+        <v>35.98888888888889</v>
       </c>
       <c r="H33" t="n">
-        <v>83.59288888888888</v>
+        <v>35.39068938418899</v>
       </c>
       <c r="I33" t="n">
-        <v>71.71177777777778</v>
+        <v>33.58654720368305</v>
       </c>
       <c r="J33" t="n">
-        <v>33.78244444444444</v>
+        <v>11.47266666666667</v>
       </c>
       <c r="K33" t="n">
-        <v>153.9723333333334</v>
+        <v>24.58011111111111</v>
       </c>
       <c r="L33" t="n">
-        <v>9882.199666666667</v>
+        <v>1290.746666666667</v>
       </c>
     </row>
     <row r="34">
@@ -1920,31 +1920,31 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>11.33333333333333</v>
+        <v>2</v>
       </c>
       <c r="E34" t="n">
-        <v>32.33333333333334</v>
+        <v>29.83333333333333</v>
       </c>
       <c r="F34" t="n">
-        <v>21</v>
+        <v>27.83333333333333</v>
       </c>
       <c r="G34" t="n">
-        <v>86.25</v>
+        <v>36.91666666666666</v>
       </c>
       <c r="H34" t="n">
-        <v>86.54916666666666</v>
+        <v>36.1832999372674</v>
       </c>
       <c r="I34" t="n">
-        <v>74.36583333333333</v>
+        <v>35.14950421690934</v>
       </c>
       <c r="J34" t="n">
-        <v>35.95083333333333</v>
+        <v>11.64333333333333</v>
       </c>
       <c r="K34" t="n">
-        <v>166.6575</v>
+        <v>25.9875</v>
       </c>
       <c r="L34" t="n">
-        <v>10308.43083333333</v>
+        <v>1291.9225</v>
       </c>
     </row>
     <row r="35">
@@ -1964,31 +1964,31 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>7.966666666666666</v>
+        <v>2</v>
       </c>
       <c r="E35" t="n">
-        <v>30.63333333333334</v>
+        <v>30.5</v>
       </c>
       <c r="F35" t="n">
-        <v>22.66666666666667</v>
+        <v>28.5</v>
       </c>
       <c r="G35" t="n">
-        <v>69.56666666666666</v>
+        <v>29.06666666666667</v>
       </c>
       <c r="H35" t="n">
-        <v>69.75716666666666</v>
+        <v>28.78553146717693</v>
       </c>
       <c r="I35" t="n">
-        <v>60.73249999999999</v>
+        <v>28.17586142493009</v>
       </c>
       <c r="J35" t="n">
-        <v>28.36433333333333</v>
+        <v>8.880333333333333</v>
       </c>
       <c r="K35" t="n">
-        <v>165.8465</v>
+        <v>18.57283333333333</v>
       </c>
       <c r="L35" t="n">
-        <v>8054.064833333334</v>
+        <v>963.4423333333333</v>
       </c>
     </row>
     <row r="36">
@@ -2008,31 +2008,31 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>9.799999999999999</v>
+        <v>2.133333333333333</v>
       </c>
       <c r="E36" t="n">
-        <v>31.43333333333333</v>
+        <v>22.93333333333333</v>
       </c>
       <c r="F36" t="n">
-        <v>21.63333333333334</v>
+        <v>20.8</v>
       </c>
       <c r="G36" t="n">
-        <v>201.6166666666666</v>
+        <v>97.45</v>
       </c>
       <c r="H36" t="n">
-        <v>200.4538333333333</v>
+        <v>95.68463194852977</v>
       </c>
       <c r="I36" t="n">
-        <v>190.0153333333334</v>
+        <v>90.85468445941832</v>
       </c>
       <c r="J36" t="n">
-        <v>84.77916666666665</v>
+        <v>31.63633333333333</v>
       </c>
       <c r="K36" t="n">
-        <v>142.4715</v>
+        <v>37.29683333333333</v>
       </c>
       <c r="L36" t="n">
-        <v>22304.24533333334</v>
+        <v>4436.382833333333</v>
       </c>
     </row>
     <row r="37">
@@ -2052,31 +2052,31 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>10.9</v>
+        <v>2</v>
       </c>
       <c r="E37" t="n">
-        <v>32.43333333333333</v>
+        <v>24.86666666666666</v>
       </c>
       <c r="F37" t="n">
-        <v>21.53333333333333</v>
+        <v>22.86666666666666</v>
       </c>
       <c r="G37" t="n">
-        <v>184.45</v>
+        <v>84.78333333333333</v>
       </c>
       <c r="H37" t="n">
-        <v>183.8313333333333</v>
+        <v>80.41468571904333</v>
       </c>
       <c r="I37" t="n">
-        <v>172.5796666666667</v>
+        <v>74.41630058127164</v>
       </c>
       <c r="J37" t="n">
-        <v>73.24083333333334</v>
+        <v>27.66933333333334</v>
       </c>
       <c r="K37" t="n">
-        <v>138.0918333333333</v>
+        <v>30.86133333333333</v>
       </c>
       <c r="L37" t="n">
-        <v>18479.82416666667</v>
+        <v>3439.843833333333</v>
       </c>
     </row>
     <row r="38">
@@ -2096,31 +2096,31 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>10.17777777777778</v>
+        <v>2</v>
       </c>
       <c r="E38" t="n">
-        <v>30.26666666666667</v>
+        <v>23.03333333333333</v>
       </c>
       <c r="F38" t="n">
-        <v>20.08888888888889</v>
+        <v>21.03333333333333</v>
       </c>
       <c r="G38" t="n">
-        <v>167.15</v>
+        <v>78.38888888888889</v>
       </c>
       <c r="H38" t="n">
-        <v>167.2286666666667</v>
+        <v>74.42953504376288</v>
       </c>
       <c r="I38" t="n">
-        <v>153.5757222222222</v>
+        <v>70.16694540254235</v>
       </c>
       <c r="J38" t="n">
-        <v>65.23661111111112</v>
+        <v>25.24494444444445</v>
       </c>
       <c r="K38" t="n">
-        <v>152.1657777777778</v>
+        <v>31.40683333333333</v>
       </c>
       <c r="L38" t="n">
-        <v>17169.45155555556</v>
+        <v>3503.658388888889</v>
       </c>
     </row>
     <row r="39">
@@ -2140,31 +2140,31 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>10.53333333333333</v>
+        <v>2.8</v>
       </c>
       <c r="E39" t="n">
-        <v>32.33333333333334</v>
+        <v>25.7</v>
       </c>
       <c r="F39" t="n">
-        <v>21.8</v>
+        <v>22.9</v>
       </c>
       <c r="G39" t="n">
-        <v>184.85</v>
+        <v>83</v>
       </c>
       <c r="H39" t="n">
-        <v>182.1318333333334</v>
+        <v>79.20192992067423</v>
       </c>
       <c r="I39" t="n">
-        <v>172.3191666666667</v>
+        <v>77.64824869455431</v>
       </c>
       <c r="J39" t="n">
-        <v>73.10333333333332</v>
+        <v>27.27483333333333</v>
       </c>
       <c r="K39" t="n">
-        <v>128.6311666666667</v>
+        <v>33.35366666666667</v>
       </c>
       <c r="L39" t="n">
-        <v>19140.04683333333</v>
+        <v>3812.379666666666</v>
       </c>
     </row>
     <row r="40">
@@ -2184,31 +2184,31 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>10.76666666666667</v>
+        <v>2</v>
       </c>
       <c r="E40" t="n">
-        <v>30.13333333333334</v>
+        <v>23.4</v>
       </c>
       <c r="F40" t="n">
-        <v>19.36666666666667</v>
+        <v>21.4</v>
       </c>
       <c r="G40" t="n">
-        <v>192.7333333333333</v>
+        <v>88.45</v>
       </c>
       <c r="H40" t="n">
-        <v>192.8383333333333</v>
+        <v>85.61435936496696</v>
       </c>
       <c r="I40" t="n">
-        <v>178.5888333333333</v>
+        <v>79.60626106957503</v>
       </c>
       <c r="J40" t="n">
-        <v>76.26733333333333</v>
+        <v>28.86333333333333</v>
       </c>
       <c r="K40" t="n">
-        <v>136.685</v>
+        <v>35.79816666666667</v>
       </c>
       <c r="L40" t="n">
-        <v>19258.72233333333</v>
+        <v>3811.084333333334</v>
       </c>
     </row>
     <row r="41">
@@ -2228,31 +2228,31 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>11.33333333333333</v>
+        <v>2</v>
       </c>
       <c r="E41" t="n">
-        <v>32.46666666666667</v>
+        <v>21.76666666666667</v>
       </c>
       <c r="F41" t="n">
-        <v>21.13333333333334</v>
+        <v>19.76666666666667</v>
       </c>
       <c r="G41" t="n">
-        <v>190.6333333333334</v>
+        <v>91.64999999999999</v>
       </c>
       <c r="H41" t="n">
-        <v>188.717</v>
+        <v>88.63128484647042</v>
       </c>
       <c r="I41" t="n">
-        <v>175.2486666666667</v>
+        <v>85.88371164316588</v>
       </c>
       <c r="J41" t="n">
-        <v>77.50333333333334</v>
+        <v>30.09633333333333</v>
       </c>
       <c r="K41" t="n">
-        <v>139.3898333333333</v>
+        <v>40.09416666666667</v>
       </c>
       <c r="L41" t="n">
-        <v>19894.96166666667</v>
+        <v>4366.657</v>
       </c>
     </row>
     <row r="42">
@@ -2272,31 +2272,31 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>8.6</v>
+        <v>2</v>
       </c>
       <c r="E42" t="n">
-        <v>30.93333333333333</v>
+        <v>29.8</v>
       </c>
       <c r="F42" t="n">
-        <v>22.33333333333333</v>
+        <v>27.8</v>
       </c>
       <c r="G42" t="n">
-        <v>144.6888888888889</v>
+        <v>63.58333333333334</v>
       </c>
       <c r="H42" t="n">
-        <v>144.5423333333333</v>
+        <v>62.05620849565557</v>
       </c>
       <c r="I42" t="n">
-        <v>132.3872222222222</v>
+        <v>57.32807691594338</v>
       </c>
       <c r="J42" t="n">
-        <v>56.25</v>
+        <v>21.11383333333334</v>
       </c>
       <c r="K42" t="n">
-        <v>137.9854444444444</v>
+        <v>35.7765</v>
       </c>
       <c r="L42" t="n">
-        <v>14144.708</v>
+        <v>2876.293666666667</v>
       </c>
     </row>
     <row r="43">
@@ -2316,31 +2316,31 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>10.76666666666667</v>
+        <v>2</v>
       </c>
       <c r="E43" t="n">
-        <v>29.66666666666667</v>
+        <v>28.76666666666667</v>
       </c>
       <c r="F43" t="n">
-        <v>18.9</v>
+        <v>26.76666666666667</v>
       </c>
       <c r="G43" t="n">
-        <v>155.2166666666667</v>
+        <v>67.5</v>
       </c>
       <c r="H43" t="n">
-        <v>155.2191666666667</v>
+        <v>65.00381755274279</v>
       </c>
       <c r="I43" t="n">
-        <v>142.9741666666667</v>
+        <v>62.25805444217852</v>
       </c>
       <c r="J43" t="n">
-        <v>62.26433333333333</v>
+        <v>22.2685</v>
       </c>
       <c r="K43" t="n">
-        <v>141.0355</v>
+        <v>28.74866666666667</v>
       </c>
       <c r="L43" t="n">
-        <v>16637.5825</v>
+        <v>2832.712333333333</v>
       </c>
     </row>
     <row r="44">
@@ -2360,31 +2360,31 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>10.66666666666667</v>
+        <v>2</v>
       </c>
       <c r="E44" t="n">
-        <v>30.53333333333333</v>
+        <v>27.33333333333333</v>
       </c>
       <c r="F44" t="n">
-        <v>19.86666666666667</v>
+        <v>25.33333333333333</v>
       </c>
       <c r="G44" t="n">
-        <v>161.3333333333333</v>
+        <v>70.60000000000001</v>
       </c>
       <c r="H44" t="n">
-        <v>161.6193333333333</v>
+        <v>68.58956146112423</v>
       </c>
       <c r="I44" t="n">
-        <v>145.0973333333334</v>
+        <v>64.03754441900804</v>
       </c>
       <c r="J44" t="n">
-        <v>64.928</v>
+        <v>23.18866666666667</v>
       </c>
       <c r="K44" t="n">
-        <v>141.0446666666666</v>
+        <v>30.72933333333333</v>
       </c>
       <c r="L44" t="n">
-        <v>16972.12866666667</v>
+        <v>3030.095333333333</v>
       </c>
     </row>
     <row r="45">
@@ -2404,31 +2404,31 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>11.16666666666667</v>
+        <v>2.266666666666667</v>
       </c>
       <c r="E45" t="n">
-        <v>30</v>
+        <v>24.13333333333334</v>
       </c>
       <c r="F45" t="n">
-        <v>18.83333333333333</v>
+        <v>21.86666666666666</v>
       </c>
       <c r="G45" t="n">
-        <v>168.25</v>
+        <v>75.35000000000001</v>
       </c>
       <c r="H45" t="n">
-        <v>168.4875</v>
+        <v>73.48879803214156</v>
       </c>
       <c r="I45" t="n">
-        <v>151.1908333333334</v>
+        <v>67.88043579982315</v>
       </c>
       <c r="J45" t="n">
-        <v>67.10583333333334</v>
+        <v>24.18333333333334</v>
       </c>
       <c r="K45" t="n">
-        <v>138.3283333333333</v>
+        <v>384803.8405</v>
       </c>
       <c r="L45" t="n">
-        <v>17854.01333333333</v>
+        <v>3464.701</v>
       </c>
     </row>
     <row r="46">
@@ -2448,31 +2448,31 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>9.888888888888888</v>
+        <v>2</v>
       </c>
       <c r="E46" t="n">
-        <v>30</v>
+        <v>27.88888888888889</v>
       </c>
       <c r="F46" t="n">
-        <v>20.11111111111111</v>
+        <v>25.88888888888889</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9444444444444</v>
+        <v>78.27777777777779</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9861111111111</v>
+        <v>75.47044673871167</v>
       </c>
       <c r="I46" t="n">
-        <v>155.365</v>
+        <v>71.41330525786113</v>
       </c>
       <c r="J46" t="n">
-        <v>70.0488888888889</v>
+        <v>25.43944444444444</v>
       </c>
       <c r="K46" t="n">
-        <v>134.8227777777778</v>
+        <v>28.87</v>
       </c>
       <c r="L46" t="n">
-        <v>18744.25333333333</v>
+        <v>3154.207222222222</v>
       </c>
     </row>
     <row r="47">
@@ -2492,31 +2492,31 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>11.5</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="E47" t="n">
-        <v>30.13333333333334</v>
+        <v>23.76666666666667</v>
       </c>
       <c r="F47" t="n">
-        <v>18.63333333333333</v>
+        <v>21.43333333333333</v>
       </c>
       <c r="G47" t="n">
-        <v>150.1166666666667</v>
+        <v>68.28333333333333</v>
       </c>
       <c r="H47" t="n">
-        <v>150.3356666666667</v>
+        <v>66.20071390092795</v>
       </c>
       <c r="I47" t="n">
-        <v>135.9326666666667</v>
+        <v>64.61021778624438</v>
       </c>
       <c r="J47" t="n">
-        <v>61.84733333333333</v>
+        <v>22.19683333333333</v>
       </c>
       <c r="K47" t="n">
-        <v>166.8758333333333</v>
+        <v>33.84466666666667</v>
       </c>
       <c r="L47" t="n">
-        <v>16509.1255</v>
+        <v>3184.694666666666</v>
       </c>
     </row>
     <row r="48">
@@ -2536,31 +2536,31 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>10.93333333333333</v>
+        <v>2.266666666666667</v>
       </c>
       <c r="E48" t="n">
-        <v>32.23333333333333</v>
+        <v>27.13333333333334</v>
       </c>
       <c r="F48" t="n">
-        <v>21.3</v>
+        <v>24.86666666666666</v>
       </c>
       <c r="G48" t="n">
-        <v>159.75</v>
+        <v>75.53333333333333</v>
       </c>
       <c r="H48" t="n">
-        <v>159.5951666666667</v>
+        <v>73.28149075286022</v>
       </c>
       <c r="I48" t="n">
-        <v>146.7683333333333</v>
+        <v>66.56392042677477</v>
       </c>
       <c r="J48" t="n">
-        <v>60.934</v>
+        <v>23.46866666666667</v>
       </c>
       <c r="K48" t="n">
-        <v>122.4906666666667</v>
+        <v>28.968</v>
       </c>
       <c r="L48" t="n">
-        <v>14771.67483333333</v>
+        <v>3098.326666666666</v>
       </c>
     </row>
     <row r="49">
@@ -2580,31 +2580,31 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>10.53333333333333</v>
+        <v>2</v>
       </c>
       <c r="E49" t="n">
-        <v>30.35555555555555</v>
+        <v>26.26666666666667</v>
       </c>
       <c r="F49" t="n">
-        <v>19.82222222222222</v>
+        <v>24.26666666666667</v>
       </c>
       <c r="G49" t="n">
-        <v>161.7555555555556</v>
+        <v>73.71111111111112</v>
       </c>
       <c r="H49" t="n">
-        <v>161.7424444444445</v>
+        <v>72.25816875611567</v>
       </c>
       <c r="I49" t="n">
-        <v>143.8757777777778</v>
+        <v>66.665087923828</v>
       </c>
       <c r="J49" t="n">
-        <v>64.29177777777778</v>
+        <v>23.92688888888889</v>
       </c>
       <c r="K49" t="n">
-        <v>145.2344444444444</v>
+        <v>27.448</v>
       </c>
       <c r="L49" t="n">
-        <v>17347.48088888889</v>
+        <v>3089.345777777778</v>
       </c>
     </row>
     <row r="50">
@@ -2624,31 +2624,31 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>11.9</v>
+        <v>2.266666666666667</v>
       </c>
       <c r="E50" t="n">
-        <v>30</v>
+        <v>26.76666666666667</v>
       </c>
       <c r="F50" t="n">
-        <v>18.1</v>
+        <v>24.5</v>
       </c>
       <c r="G50" t="n">
-        <v>167.05</v>
+        <v>76.83333333333333</v>
       </c>
       <c r="H50" t="n">
-        <v>167.413</v>
+        <v>73.51336328892212</v>
       </c>
       <c r="I50" t="n">
-        <v>154.3688333333334</v>
+        <v>68.66128402564367</v>
       </c>
       <c r="J50" t="n">
-        <v>66.22799999999999</v>
+        <v>25.013</v>
       </c>
       <c r="K50" t="n">
-        <v>114.6476666666667</v>
+        <v>53.28300000000001</v>
       </c>
       <c r="L50" t="n">
-        <v>18196.44783333334</v>
+        <v>3560.214833333333</v>
       </c>
     </row>
     <row r="51">
@@ -2668,31 +2668,31 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>11.33333333333333</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="E51" t="n">
-        <v>33.83333333333334</v>
+        <v>21.5</v>
       </c>
       <c r="F51" t="n">
-        <v>22.5</v>
+        <v>19.33333333333333</v>
       </c>
       <c r="G51" t="n">
-        <v>171.5</v>
+        <v>74.5</v>
       </c>
       <c r="H51" t="n">
-        <v>169.2433333333333</v>
+        <v>71.25363106462747</v>
       </c>
       <c r="I51" t="n">
-        <v>157.3108333333333</v>
+        <v>67.90288030742759</v>
       </c>
       <c r="J51" t="n">
-        <v>72.57166666666667</v>
+        <v>24.90333333333334</v>
       </c>
       <c r="K51" t="n">
-        <v>149.7075</v>
+        <v>35.88833333333334</v>
       </c>
       <c r="L51" t="n">
-        <v>18712.48416666667</v>
+        <v>3602.333333333333</v>
       </c>
     </row>
     <row r="52">
@@ -2712,31 +2712,31 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>9.933333333333334</v>
+        <v>2</v>
       </c>
       <c r="E52" t="n">
-        <v>29.33333333333333</v>
+        <v>22.65555555555556</v>
       </c>
       <c r="F52" t="n">
-        <v>19.4</v>
+        <v>20.65555555555556</v>
       </c>
       <c r="G52" t="n">
-        <v>168.2222222222222</v>
+        <v>76.28888888888889</v>
       </c>
       <c r="H52" t="n">
-        <v>167.9736111111111</v>
+        <v>74.8658606152989</v>
       </c>
       <c r="I52" t="n">
-        <v>153.9831666666667</v>
+        <v>68.75061373911301</v>
       </c>
       <c r="J52" t="n">
-        <v>66.65438888888889</v>
+        <v>25.0705</v>
       </c>
       <c r="K52" t="n">
-        <v>132.9725</v>
+        <v>34.41661111111111</v>
       </c>
       <c r="L52" t="n">
-        <v>17167.09255555556</v>
+        <v>3118.456388888888</v>
       </c>
     </row>
     <row r="53">
@@ -2756,31 +2756,31 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E53" t="n">
-        <v>31</v>
+        <v>20.33333333333333</v>
       </c>
       <c r="F53" t="n">
-        <v>21</v>
+        <v>18.33333333333333</v>
       </c>
       <c r="G53" t="n">
-        <v>188.8888888888889</v>
+        <v>85.91666666666667</v>
       </c>
       <c r="H53" t="n">
-        <v>188.0122222222222</v>
+        <v>82.1412081036876</v>
       </c>
       <c r="I53" t="n">
-        <v>163.9722222222222</v>
+        <v>75.94681134175984</v>
       </c>
       <c r="J53" t="n">
-        <v>72.92611111111111</v>
+        <v>28.51138888888889</v>
       </c>
       <c r="K53" t="n">
-        <v>115.7983333333333</v>
+        <v>39.38166666666667</v>
       </c>
       <c r="L53" t="n">
-        <v>17011.55166666667</v>
+        <v>3833.923888888889</v>
       </c>
     </row>
     <row r="54">
@@ -2800,31 +2800,31 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E54" t="n">
-        <v>34.9</v>
+        <v>20.66666666666667</v>
       </c>
       <c r="F54" t="n">
-        <v>24.9</v>
+        <v>18.66666666666667</v>
       </c>
       <c r="G54" t="n">
-        <v>188.9166666666667</v>
+        <v>83.39999999999999</v>
       </c>
       <c r="H54" t="n">
-        <v>185.4108333333333</v>
+        <v>80.13674174796149</v>
       </c>
       <c r="I54" t="n">
-        <v>175.9505</v>
+        <v>74.48754570551556</v>
       </c>
       <c r="J54" t="n">
-        <v>76.09283333333333</v>
+        <v>28.23866666666667</v>
       </c>
       <c r="K54" t="n">
-        <v>135.9198333333333</v>
+        <v>45.90816666666667</v>
       </c>
       <c r="L54" t="n">
-        <v>17646.813</v>
+        <v>4114.227</v>
       </c>
     </row>
     <row r="55">
@@ -2844,31 +2844,31 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E55" t="n">
-        <v>29.42222222222222</v>
+        <v>22.13333333333334</v>
       </c>
       <c r="F55" t="n">
-        <v>19.42222222222222</v>
+        <v>20.13333333333333</v>
       </c>
       <c r="G55" t="n">
-        <v>175.4777777777778</v>
+        <v>84.21111111111111</v>
       </c>
       <c r="H55" t="n">
-        <v>175.8385555555556</v>
+        <v>79.95610749567169</v>
       </c>
       <c r="I55" t="n">
-        <v>161.0102222222222</v>
+        <v>73.04941295567585</v>
       </c>
       <c r="J55" t="n">
-        <v>66.747</v>
+        <v>27.27555555555556</v>
       </c>
       <c r="K55" t="n">
-        <v>109.4637777777778</v>
+        <v>33.61644444444445</v>
       </c>
       <c r="L55" t="n">
-        <v>15475.89277777778</v>
+        <v>3517.207555555556</v>
       </c>
     </row>
     <row r="56">
@@ -2888,31 +2888,31 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E56" t="n">
-        <v>29.46666666666667</v>
+        <v>22.13333333333334</v>
       </c>
       <c r="F56" t="n">
-        <v>19.46666666666667</v>
+        <v>20.13333333333334</v>
       </c>
       <c r="G56" t="n">
-        <v>194.7666666666667</v>
+        <v>87.5</v>
       </c>
       <c r="H56" t="n">
-        <v>192.1516666666666</v>
+        <v>84.30952800062131</v>
       </c>
       <c r="I56" t="n">
-        <v>168.0301666666667</v>
+        <v>74.99820485822273</v>
       </c>
       <c r="J56" t="n">
-        <v>76.99133333333334</v>
+        <v>29.66033333333333</v>
       </c>
       <c r="K56" t="n">
-        <v>121.224</v>
+        <v>40.5705</v>
       </c>
       <c r="L56" t="n">
-        <v>18551.19733333333</v>
+        <v>4040.397333333333</v>
       </c>
     </row>
     <row r="57">
@@ -2932,31 +2932,31 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E57" t="n">
-        <v>36.66666666666666</v>
+        <v>18.8</v>
       </c>
       <c r="F57" t="n">
-        <v>26.66666666666667</v>
+        <v>16.8</v>
       </c>
       <c r="G57" t="n">
-        <v>187.65</v>
+        <v>80.78333333333333</v>
       </c>
       <c r="H57" t="n">
-        <v>187.0491666666667</v>
+        <v>78.33786751170642</v>
       </c>
       <c r="I57" t="n">
-        <v>172.1726666666667</v>
+        <v>71.64922545405928</v>
       </c>
       <c r="J57" t="n">
-        <v>77.06150000000001</v>
+        <v>27.91066666666667</v>
       </c>
       <c r="K57" t="n">
-        <v>132.0563333333333</v>
+        <v>44.62933333333334</v>
       </c>
       <c r="L57" t="n">
-        <v>17953.9655</v>
+        <v>3994.671166666667</v>
       </c>
     </row>
     <row r="58">
@@ -2976,31 +2976,31 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E58" t="n">
-        <v>31.46666666666667</v>
+        <v>22.83333333333333</v>
       </c>
       <c r="F58" t="n">
-        <v>21.46666666666667</v>
+        <v>20.83333333333333</v>
       </c>
       <c r="G58" t="n">
-        <v>195.9666666666667</v>
+        <v>90.48333333333333</v>
       </c>
       <c r="H58" t="n">
-        <v>196.2221666666667</v>
+        <v>86.09464444706852</v>
       </c>
       <c r="I58" t="n">
-        <v>177.5323333333333</v>
+        <v>82.31950813146027</v>
       </c>
       <c r="J58" t="n">
-        <v>73.90116666666667</v>
+        <v>29.818</v>
       </c>
       <c r="K58" t="n">
-        <v>127.9168333333333</v>
+        <v>34.10283333333333</v>
       </c>
       <c r="L58" t="n">
-        <v>17297.31716666666</v>
+        <v>3700.337333333333</v>
       </c>
     </row>
     <row r="59">
@@ -3020,31 +3020,31 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>10.16666666666667</v>
+        <v>2</v>
       </c>
       <c r="E59" t="n">
-        <v>30.86666666666666</v>
+        <v>20.8</v>
       </c>
       <c r="F59" t="n">
-        <v>20.7</v>
+        <v>18.8</v>
       </c>
       <c r="G59" t="n">
-        <v>176.7333333333333</v>
+        <v>79.75</v>
       </c>
       <c r="H59" t="n">
-        <v>177.0505</v>
+        <v>76.59891241199078</v>
       </c>
       <c r="I59" t="n">
-        <v>155.4723333333333</v>
+        <v>71.81820459905536</v>
       </c>
       <c r="J59" t="n">
-        <v>68.62066666666665</v>
+        <v>26.655</v>
       </c>
       <c r="K59" t="n">
-        <v>124.8978333333333</v>
+        <v>37.254</v>
       </c>
       <c r="L59" t="n">
-        <v>16211.46766666667</v>
+        <v>3512.362</v>
       </c>
     </row>
     <row r="60">
@@ -3064,31 +3064,31 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>10.33333333333333</v>
+        <v>2</v>
       </c>
       <c r="E60" t="n">
-        <v>30.33333333333333</v>
+        <v>18.8</v>
       </c>
       <c r="F60" t="n">
-        <v>20</v>
+        <v>16.8</v>
       </c>
       <c r="G60" t="n">
-        <v>179.1666666666667</v>
+        <v>80.18333333333334</v>
       </c>
       <c r="H60" t="n">
-        <v>179.181</v>
+        <v>76.83931588122198</v>
       </c>
       <c r="I60" t="n">
-        <v>153.898</v>
+        <v>69.04325251487468</v>
       </c>
       <c r="J60" t="n">
-        <v>70.22883333333333</v>
+        <v>26.96233333333333</v>
       </c>
       <c r="K60" t="n">
-        <v>127.776</v>
+        <v>40.87833333333333</v>
       </c>
       <c r="L60" t="n">
-        <v>17069.2175</v>
+        <v>3776.039166666667</v>
       </c>
     </row>
     <row r="61">
@@ -3108,31 +3108,31 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>10.26666666666667</v>
+        <v>2</v>
       </c>
       <c r="E61" t="n">
-        <v>31.9</v>
+        <v>22.53333333333333</v>
       </c>
       <c r="F61" t="n">
-        <v>21.63333333333334</v>
+        <v>20.53333333333333</v>
       </c>
       <c r="G61" t="n">
-        <v>185.15</v>
+        <v>79.63333333333333</v>
       </c>
       <c r="H61" t="n">
-        <v>181.8023333333333</v>
+        <v>76.90545061748166</v>
       </c>
       <c r="I61" t="n">
-        <v>157.4671666666667</v>
+        <v>71.36836788962513</v>
       </c>
       <c r="J61" t="n">
-        <v>73.20566666666667</v>
+        <v>27.16466666666667</v>
       </c>
       <c r="K61" t="n">
-        <v>130.8016666666666</v>
+        <v>39.36333333333333</v>
       </c>
       <c r="L61" t="n">
-        <v>17313.23833333333</v>
+        <v>3616.548333333334</v>
       </c>
     </row>
     <row r="62">
@@ -3152,31 +3152,31 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>10.16666666666667</v>
+        <v>2</v>
       </c>
       <c r="E62" t="n">
-        <v>30.5</v>
+        <v>21.5</v>
       </c>
       <c r="F62" t="n">
-        <v>20.33333333333333</v>
+        <v>19.5</v>
       </c>
       <c r="G62" t="n">
-        <v>178.8333333333333</v>
+        <v>81.33333333333333</v>
       </c>
       <c r="H62" t="n">
-        <v>179.1908333333333</v>
+        <v>79.31954722984386</v>
       </c>
       <c r="I62" t="n">
-        <v>152.6141666666666</v>
+        <v>70.70978119662193</v>
       </c>
       <c r="J62" t="n">
-        <v>68.94916666666667</v>
+        <v>26.805</v>
       </c>
       <c r="K62" t="n">
-        <v>117.4841666666667</v>
+        <v>36.675</v>
       </c>
       <c r="L62" t="n">
-        <v>16586.2925</v>
+        <v>3543.125833333334</v>
       </c>
     </row>
     <row r="63">
@@ -3196,31 +3196,31 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>10.26666666666667</v>
+        <v>2</v>
       </c>
       <c r="E63" t="n">
-        <v>30.93333333333333</v>
+        <v>21.6</v>
       </c>
       <c r="F63" t="n">
-        <v>20.66666666666667</v>
+        <v>19.6</v>
       </c>
       <c r="G63" t="n">
-        <v>177.2</v>
+        <v>79.46666666666667</v>
       </c>
       <c r="H63" t="n">
-        <v>177.1566666666667</v>
+        <v>76.76665114205389</v>
       </c>
       <c r="I63" t="n">
-        <v>156.702</v>
+        <v>68.43064816145905</v>
       </c>
       <c r="J63" t="n">
-        <v>69.85599999999999</v>
+        <v>26.75666666666666</v>
       </c>
       <c r="K63" t="n">
-        <v>122.938</v>
+        <v>39.37066666666666</v>
       </c>
       <c r="L63" t="n">
-        <v>16552.332</v>
+        <v>3621.497333333333</v>
       </c>
     </row>
     <row r="64">
@@ -3240,31 +3240,31 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E64" t="n">
-        <v>29</v>
+        <v>22.2</v>
       </c>
       <c r="F64" t="n">
-        <v>19</v>
+        <v>20.2</v>
       </c>
       <c r="G64" t="n">
-        <v>177.4666666666667</v>
+        <v>79.85000000000001</v>
       </c>
       <c r="H64" t="n">
-        <v>177.9221666666666</v>
+        <v>78.66913822921286</v>
       </c>
       <c r="I64" t="n">
-        <v>149.9783333333333</v>
+        <v>70.56072097701217</v>
       </c>
       <c r="J64" t="n">
-        <v>69.31983333333334</v>
+        <v>26.57083333333334</v>
       </c>
       <c r="K64" t="n">
-        <v>126.5948333333333</v>
+        <v>37.986</v>
       </c>
       <c r="L64" t="n">
-        <v>16975.94366666667</v>
+        <v>3516.0165</v>
       </c>
     </row>
     <row r="65">
@@ -3284,31 +3284,31 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>10.4</v>
+        <v>2</v>
       </c>
       <c r="E65" t="n">
-        <v>30.8</v>
+        <v>23.13333333333334</v>
       </c>
       <c r="F65" t="n">
-        <v>20.4</v>
+        <v>21.13333333333334</v>
       </c>
       <c r="G65" t="n">
-        <v>175.1</v>
+        <v>80.39999999999999</v>
       </c>
       <c r="H65" t="n">
-        <v>175.2615</v>
+        <v>77.11152692516653</v>
       </c>
       <c r="I65" t="n">
-        <v>158.0936666666667</v>
+        <v>71.0771882252003</v>
       </c>
       <c r="J65" t="n">
-        <v>67.2435</v>
+        <v>26.78983333333333</v>
       </c>
       <c r="K65" t="n">
-        <v>117.4796666666667</v>
+        <v>36.69216666666667</v>
       </c>
       <c r="L65" t="n">
-        <v>15773.64083333333</v>
+        <v>3458.7005</v>
       </c>
     </row>
     <row r="66">
@@ -3328,31 +3328,31 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>10.16666666666667</v>
+        <v>2</v>
       </c>
       <c r="E66" t="n">
-        <v>31.93333333333333</v>
+        <v>19.86666666666667</v>
       </c>
       <c r="F66" t="n">
-        <v>21.76666666666667</v>
+        <v>17.86666666666667</v>
       </c>
       <c r="G66" t="n">
-        <v>181.0333333333333</v>
+        <v>82.3</v>
       </c>
       <c r="H66" t="n">
-        <v>180.5231666666666</v>
+        <v>79.92414069210695</v>
       </c>
       <c r="I66" t="n">
-        <v>154.8748333333333</v>
+        <v>70.94910584287184</v>
       </c>
       <c r="J66" t="n">
-        <v>70.49866666666667</v>
+        <v>27.35233333333333</v>
       </c>
       <c r="K66" t="n">
-        <v>115.2646666666667</v>
+        <v>39.30583333333333</v>
       </c>
       <c r="L66" t="n">
-        <v>16438.19133333333</v>
+        <v>3727.332666666667</v>
       </c>
     </row>
     <row r="67">
@@ -3372,31 +3372,31 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E67" t="n">
-        <v>31.76666666666667</v>
+        <v>21.03333333333333</v>
       </c>
       <c r="F67" t="n">
-        <v>21.76666666666667</v>
+        <v>19.03333333333333</v>
       </c>
       <c r="G67" t="n">
-        <v>182.5666666666667</v>
+        <v>80.98333333333333</v>
       </c>
       <c r="H67" t="n">
-        <v>181.756</v>
+        <v>77.56666873279346</v>
       </c>
       <c r="I67" t="n">
-        <v>158.362</v>
+        <v>70.65116978032809</v>
       </c>
       <c r="J67" t="n">
-        <v>71.57350000000001</v>
+        <v>27.45366666666666</v>
       </c>
       <c r="K67" t="n">
-        <v>119.8245</v>
+        <v>40.48983333333333</v>
       </c>
       <c r="L67" t="n">
-        <v>17104.75683333333</v>
+        <v>3711.784166666666</v>
       </c>
     </row>
     <row r="68">
@@ -3416,31 +3416,31 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>10.26666666666667</v>
+        <v>2</v>
       </c>
       <c r="E68" t="n">
-        <v>29.73333333333333</v>
+        <v>24.3</v>
       </c>
       <c r="F68" t="n">
-        <v>19.46666666666667</v>
+        <v>22.3</v>
       </c>
       <c r="G68" t="n">
-        <v>174.4666666666667</v>
+        <v>77.98333333333333</v>
       </c>
       <c r="H68" t="n">
-        <v>174.7585</v>
+        <v>75.55410925023875</v>
       </c>
       <c r="I68" t="n">
-        <v>150.7978333333333</v>
+        <v>70.44368373505968</v>
       </c>
       <c r="J68" t="n">
-        <v>66.03733333333334</v>
+        <v>26.3605</v>
       </c>
       <c r="K68" t="n">
-        <v>108.116</v>
+        <v>38.04983333333333</v>
       </c>
       <c r="L68" t="n">
-        <v>15276.7295</v>
+        <v>3306.247833333333</v>
       </c>
     </row>
     <row r="69">
@@ -3460,31 +3460,31 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>9.266666666666667</v>
+        <v>2</v>
       </c>
       <c r="E69" t="n">
-        <v>30.4</v>
+        <v>31.43333333333333</v>
       </c>
       <c r="F69" t="n">
-        <v>21.13333333333333</v>
+        <v>29.43333333333333</v>
       </c>
       <c r="G69" t="n">
-        <v>144.5166666666667</v>
+        <v>60.45</v>
       </c>
       <c r="H69" t="n">
-        <v>144.8001666666667</v>
+        <v>59.35089637398121</v>
       </c>
       <c r="I69" t="n">
-        <v>129.1891666666667</v>
+        <v>57.39652515311019</v>
       </c>
       <c r="J69" t="n">
-        <v>53.90083333333334</v>
+        <v>19.29366666666667</v>
       </c>
       <c r="K69" t="n">
-        <v>127.4826666666667</v>
+        <v>22.49733333333333</v>
       </c>
       <c r="L69" t="n">
-        <v>13220.12483333333</v>
+        <v>1915.662833333333</v>
       </c>
     </row>
     <row r="70">
@@ -3504,31 +3504,31 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>10.13333333333333</v>
+        <v>2</v>
       </c>
       <c r="E70" t="n">
-        <v>27.2</v>
+        <v>20.66666666666667</v>
       </c>
       <c r="F70" t="n">
-        <v>17.06666666666667</v>
+        <v>18.66666666666667</v>
       </c>
       <c r="G70" t="n">
-        <v>132.2833333333333</v>
+        <v>71.68333333333334</v>
       </c>
       <c r="H70" t="n">
-        <v>132.5151666666667</v>
+        <v>69.02646326899907</v>
       </c>
       <c r="I70" t="n">
-        <v>121.8573333333333</v>
+        <v>64.81943895550347</v>
       </c>
       <c r="J70" t="n">
-        <v>48.60166666666667</v>
+        <v>22.75933333333333</v>
       </c>
       <c r="K70" t="n">
-        <v>99.2355</v>
+        <v>35.12483333333333</v>
       </c>
       <c r="L70" t="n">
-        <v>11461.109</v>
+        <v>2854.642333333333</v>
       </c>
     </row>
     <row r="71">
@@ -3548,31 +3548,31 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>10.48888888888889</v>
+        <v>2</v>
       </c>
       <c r="E71" t="n">
-        <v>27.33333333333333</v>
+        <v>24.26666666666667</v>
       </c>
       <c r="F71" t="n">
-        <v>16.84444444444444</v>
+        <v>22.26666666666667</v>
       </c>
       <c r="G71" t="n">
-        <v>110.2666666666667</v>
+        <v>57.9111111111111</v>
       </c>
       <c r="H71" t="n">
-        <v>110.4355555555555</v>
+        <v>56.055991873925</v>
       </c>
       <c r="I71" t="n">
-        <v>101.5671111111111</v>
+        <v>54.71452312104089</v>
       </c>
       <c r="J71" t="n">
-        <v>37.70066666666667</v>
+        <v>17.92288888888889</v>
       </c>
       <c r="K71" t="n">
-        <v>95.49399999999999</v>
+        <v>29.29933333333333</v>
       </c>
       <c r="L71" t="n">
-        <v>8186.059777777778</v>
+        <v>2193.454222222222</v>
       </c>
     </row>
     <row r="72">
@@ -3592,31 +3592,31 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>10.63333333333333</v>
+        <v>2</v>
       </c>
       <c r="E72" t="n">
-        <v>30</v>
+        <v>20.88888888888889</v>
       </c>
       <c r="F72" t="n">
-        <v>19.36666666666667</v>
+        <v>18.88888888888889</v>
       </c>
       <c r="G72" t="n">
-        <v>115.0166666666667</v>
+        <v>62.54444444444444</v>
       </c>
       <c r="H72" t="n">
-        <v>114.9086666666667</v>
+        <v>61.62135440775844</v>
       </c>
       <c r="I72" t="n">
-        <v>103.5738333333333</v>
+        <v>57.15808554771505</v>
       </c>
       <c r="J72" t="n">
-        <v>39.28033333333334</v>
+        <v>19.91183333333333</v>
       </c>
       <c r="K72" t="n">
-        <v>104.4635</v>
+        <v>37.37327777777778</v>
       </c>
       <c r="L72" t="n">
-        <v>8583.036833333334</v>
+        <v>2599.274722222222</v>
       </c>
     </row>
     <row r="73">
@@ -3636,31 +3636,31 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>10.26666666666667</v>
+        <v>2</v>
       </c>
       <c r="E73" t="n">
-        <v>28</v>
+        <v>20.93333333333333</v>
       </c>
       <c r="F73" t="n">
-        <v>17.73333333333333</v>
+        <v>18.93333333333333</v>
       </c>
       <c r="G73" t="n">
-        <v>135.5666666666667</v>
+        <v>68.53333333333333</v>
       </c>
       <c r="H73" t="n">
-        <v>135.6791666666667</v>
+        <v>66.42214097068572</v>
       </c>
       <c r="I73" t="n">
-        <v>121.5333333333333</v>
+        <v>62.11630600265687</v>
       </c>
       <c r="J73" t="n">
-        <v>47.60466666666667</v>
+        <v>21.63233333333333</v>
       </c>
       <c r="K73" t="n">
-        <v>96.60416666666667</v>
+        <v>35.24483333333333</v>
       </c>
       <c r="L73" t="n">
-        <v>10473.38233333333</v>
+        <v>2787.589333333333</v>
       </c>
     </row>
     <row r="74">
@@ -3680,31 +3680,31 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>10.16666666666667</v>
+        <v>2</v>
       </c>
       <c r="E74" t="n">
-        <v>28.7</v>
+        <v>26.53333333333333</v>
       </c>
       <c r="F74" t="n">
-        <v>18.53333333333333</v>
+        <v>24.53333333333333</v>
       </c>
       <c r="G74" t="n">
-        <v>127.0333333333333</v>
+        <v>60.15</v>
       </c>
       <c r="H74" t="n">
-        <v>127.2453333333333</v>
+        <v>59.58655089832959</v>
       </c>
       <c r="I74" t="n">
-        <v>115.6936666666667</v>
+        <v>56.68854672823742</v>
       </c>
       <c r="J74" t="n">
-        <v>43.76366666666667</v>
+        <v>19.03633333333334</v>
       </c>
       <c r="K74" t="n">
-        <v>99.64366666666666</v>
+        <v>29.41866666666667</v>
       </c>
       <c r="L74" t="n">
-        <v>9692.556333333334</v>
+        <v>2173.453</v>
       </c>
     </row>
     <row r="75">
@@ -3724,31 +3724,31 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>10.5</v>
+        <v>2</v>
       </c>
       <c r="E75" t="n">
-        <v>27.2</v>
+        <v>18.93333333333333</v>
       </c>
       <c r="F75" t="n">
-        <v>16.7</v>
+        <v>16.93333333333333</v>
       </c>
       <c r="G75" t="n">
-        <v>133.3666666666667</v>
+        <v>69.75</v>
       </c>
       <c r="H75" t="n">
-        <v>133.683</v>
+        <v>67.96498247054319</v>
       </c>
       <c r="I75" t="n">
-        <v>126.1001666666667</v>
+        <v>63.03764416908248</v>
       </c>
       <c r="J75" t="n">
-        <v>46.20316666666667</v>
+        <v>21.92083333333333</v>
       </c>
       <c r="K75" t="n">
-        <v>87.73066666666666</v>
+        <v>34.01816666666667</v>
       </c>
       <c r="L75" t="n">
-        <v>9957.5615</v>
+        <v>2879.937666666667</v>
       </c>
     </row>
     <row r="76">
@@ -3768,31 +3768,31 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>10.96666666666667</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="E76" t="n">
-        <v>28.06666666666667</v>
+        <v>23.86666666666666</v>
       </c>
       <c r="F76" t="n">
-        <v>17.1</v>
+        <v>21.7</v>
       </c>
       <c r="G76" t="n">
-        <v>116.6</v>
+        <v>58.53333333333333</v>
       </c>
       <c r="H76" t="n">
-        <v>117.0331666666667</v>
+        <v>57.00309150386254</v>
       </c>
       <c r="I76" t="n">
-        <v>106.4758333333333</v>
+        <v>55.11503947211997</v>
       </c>
       <c r="J76" t="n">
-        <v>39.33383333333333</v>
+        <v>18.45366666666667</v>
       </c>
       <c r="K76" t="n">
-        <v>86.9055</v>
+        <v>29.103</v>
       </c>
       <c r="L76" t="n">
-        <v>8058.2</v>
+        <v>2216.711666666667</v>
       </c>
     </row>
     <row r="77">
@@ -3812,31 +3812,31 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>10.66666666666667</v>
+        <v>2</v>
       </c>
       <c r="E77" t="n">
-        <v>30.9</v>
+        <v>25.26666666666667</v>
       </c>
       <c r="F77" t="n">
-        <v>20.23333333333333</v>
+        <v>23.26666666666667</v>
       </c>
       <c r="G77" t="n">
-        <v>111.65</v>
+        <v>55.11666666666667</v>
       </c>
       <c r="H77" t="n">
-        <v>111.768</v>
+        <v>52.97367000361578</v>
       </c>
       <c r="I77" t="n">
-        <v>104.414</v>
+        <v>49.04131414135795</v>
       </c>
       <c r="J77" t="n">
-        <v>39.02683333333334</v>
+        <v>17.43583333333333</v>
       </c>
       <c r="K77" t="n">
-        <v>91.70650000000001</v>
+        <v>29.968</v>
       </c>
       <c r="L77" t="n">
-        <v>8402.587333333333</v>
+        <v>1981.3385</v>
       </c>
     </row>
     <row r="78">
@@ -3856,31 +3856,31 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>11.26666666666667</v>
+        <v>2</v>
       </c>
       <c r="E78" t="n">
-        <v>29.9</v>
+        <v>22.56666666666667</v>
       </c>
       <c r="F78" t="n">
-        <v>18.63333333333334</v>
+        <v>20.56666666666667</v>
       </c>
       <c r="G78" t="n">
-        <v>118.9833333333333</v>
+        <v>60.48333333333333</v>
       </c>
       <c r="H78" t="n">
-        <v>118.9988333333333</v>
+        <v>58.15483363535318</v>
       </c>
       <c r="I78" t="n">
-        <v>109.0895</v>
+        <v>54.35035909692161</v>
       </c>
       <c r="J78" t="n">
-        <v>41.40383333333333</v>
+        <v>19.4455</v>
       </c>
       <c r="K78" t="n">
-        <v>94.81849999999999</v>
+        <v>35.30633333333333</v>
       </c>
       <c r="L78" t="n">
-        <v>9005.830833333333</v>
+        <v>2508.3215</v>
       </c>
     </row>
     <row r="79">
@@ -3900,31 +3900,31 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>10.86666666666667</v>
+        <v>2</v>
       </c>
       <c r="E79" t="n">
-        <v>26.8</v>
+        <v>22.1</v>
       </c>
       <c r="F79" t="n">
-        <v>15.93333333333333</v>
+        <v>20.1</v>
       </c>
       <c r="G79" t="n">
-        <v>102.95</v>
+        <v>53.51666666666667</v>
       </c>
       <c r="H79" t="n">
-        <v>103.2435</v>
+        <v>52.41648792551927</v>
       </c>
       <c r="I79" t="n">
-        <v>94.62516666666666</v>
+        <v>49.70013831692535</v>
       </c>
       <c r="J79" t="n">
-        <v>36.82400000000001</v>
+        <v>16.8435</v>
       </c>
       <c r="K79" t="n">
-        <v>106.6635</v>
+        <v>33.34933333333333</v>
       </c>
       <c r="L79" t="n">
-        <v>9153.603500000001</v>
+        <v>2071.287</v>
       </c>
     </row>
     <row r="80">
@@ -3944,31 +3944,31 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>11.56666666666667</v>
+        <v>2</v>
       </c>
       <c r="E80" t="n">
-        <v>29.98888888888889</v>
+        <v>27.36666666666666</v>
       </c>
       <c r="F80" t="n">
-        <v>18.42222222222222</v>
+        <v>25.36666666666666</v>
       </c>
       <c r="G80" t="n">
-        <v>108.8777777777778</v>
+        <v>52.7</v>
       </c>
       <c r="H80" t="n">
-        <v>109.1549444444444</v>
+        <v>51.31019285765792</v>
       </c>
       <c r="I80" t="n">
-        <v>101.5617222222222</v>
+        <v>50.01853813021984</v>
       </c>
       <c r="J80" t="n">
-        <v>37.78677777777778</v>
+        <v>16.60766666666667</v>
       </c>
       <c r="K80" t="n">
-        <v>102.8367222222222</v>
+        <v>27.19488888888889</v>
       </c>
       <c r="L80" t="n">
-        <v>8446.468055555555</v>
+        <v>1795.862833333333</v>
       </c>
     </row>
     <row r="81">
@@ -3988,31 +3988,31 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>10.93333333333333</v>
+        <v>2</v>
       </c>
       <c r="E81" t="n">
-        <v>27.7</v>
+        <v>23</v>
       </c>
       <c r="F81" t="n">
-        <v>16.76666666666667</v>
+        <v>21</v>
       </c>
       <c r="G81" t="n">
-        <v>125.7</v>
+        <v>68</v>
       </c>
       <c r="H81" t="n">
-        <v>126.0215</v>
+        <v>65.3186979316705</v>
       </c>
       <c r="I81" t="n">
-        <v>117.5661666666667</v>
+        <v>61.17973243854885</v>
       </c>
       <c r="J81" t="n">
-        <v>43.3305</v>
+        <v>21.5005</v>
       </c>
       <c r="K81" t="n">
-        <v>93.78800000000001</v>
+        <v>34.39566666666667</v>
       </c>
       <c r="L81" t="n">
-        <v>9930.993833333334</v>
+        <v>2779.012666666667</v>
       </c>
     </row>
     <row r="82">
@@ -4032,31 +4032,31 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>10.8</v>
+        <v>2</v>
       </c>
       <c r="E82" t="n">
-        <v>28.43333333333333</v>
+        <v>24.26666666666667</v>
       </c>
       <c r="F82" t="n">
-        <v>17.63333333333333</v>
+        <v>22.26666666666667</v>
       </c>
       <c r="G82" t="n">
-        <v>115.05</v>
+        <v>56.35</v>
       </c>
       <c r="H82" t="n">
-        <v>115.17</v>
+        <v>54.73281326342117</v>
       </c>
       <c r="I82" t="n">
-        <v>104.7865</v>
+        <v>51.11821305416195</v>
       </c>
       <c r="J82" t="n">
-        <v>40.18</v>
+        <v>18.115</v>
       </c>
       <c r="K82" t="n">
-        <v>113.9301666666667</v>
+        <v>32.768</v>
       </c>
       <c r="L82" t="n">
-        <v>9057.355333333333</v>
+        <v>2177.319333333333</v>
       </c>
     </row>
     <row r="83">
@@ -4076,31 +4076,31 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>10.56666666666667</v>
+        <v>2</v>
       </c>
       <c r="E83" t="n">
-        <v>28.56666666666667</v>
+        <v>25.53333333333333</v>
       </c>
       <c r="F83" t="n">
-        <v>18</v>
+        <v>23.53333333333333</v>
       </c>
       <c r="G83" t="n">
-        <v>118.2833333333333</v>
+        <v>61.9</v>
       </c>
       <c r="H83" t="n">
-        <v>118.6356666666667</v>
+        <v>59.96353627992578</v>
       </c>
       <c r="I83" t="n">
-        <v>108.4978333333333</v>
+        <v>56.84167115292117</v>
       </c>
       <c r="J83" t="n">
-        <v>37.71933333333333</v>
+        <v>19.2595</v>
       </c>
       <c r="K83" t="n">
-        <v>80.85816666666666</v>
+        <v>-126788.3926666667</v>
       </c>
       <c r="L83" t="n">
-        <v>7220.7835</v>
+        <v>2282.429</v>
       </c>
     </row>
     <row r="84">
@@ -4120,31 +4120,31 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>10.66666666666667</v>
+        <v>2</v>
       </c>
       <c r="E84" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F84" t="n">
-        <v>15.33333333333333</v>
+        <v>22</v>
       </c>
       <c r="G84" t="n">
-        <v>126.9333333333333</v>
+        <v>64.2</v>
       </c>
       <c r="H84" t="n">
-        <v>127.1453333333333</v>
+        <v>61.83464937782679</v>
       </c>
       <c r="I84" t="n">
-        <v>117.196</v>
+        <v>58.89906483830288</v>
       </c>
       <c r="J84" t="n">
-        <v>43.54066666666666</v>
+        <v>20.18133333333333</v>
       </c>
       <c r="K84" t="n">
-        <v>90.54933333333332</v>
+        <v>37.982</v>
       </c>
       <c r="L84" t="n">
-        <v>9912.729999999998</v>
+        <v>2539.41</v>
       </c>
     </row>
     <row r="85">
@@ -4164,31 +4164,31 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>11.06666666666667</v>
+        <v>2</v>
       </c>
       <c r="E85" t="n">
-        <v>30.3</v>
+        <v>26.16666666666667</v>
       </c>
       <c r="F85" t="n">
-        <v>19.23333333333333</v>
+        <v>24.16666666666667</v>
       </c>
       <c r="G85" t="n">
-        <v>114.2833333333333</v>
+        <v>54.56666666666666</v>
       </c>
       <c r="H85" t="n">
-        <v>114.4956666666667</v>
+        <v>52.35977482089839</v>
       </c>
       <c r="I85" t="n">
-        <v>105.7601666666666</v>
+        <v>48.67316143943572</v>
       </c>
       <c r="J85" t="n">
-        <v>40.74016666666667</v>
+        <v>17.56283333333333</v>
       </c>
       <c r="K85" t="n">
-        <v>117.4501666666667</v>
+        <v>29.8405</v>
       </c>
       <c r="L85" t="n">
-        <v>9730.3935</v>
+        <v>1988.5615</v>
       </c>
     </row>
     <row r="86">
@@ -4208,31 +4208,31 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>7.366666666666667</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="E86" t="n">
-        <v>29.68888888888889</v>
+        <v>27.05555555555556</v>
       </c>
       <c r="F86" t="n">
-        <v>22.32222222222222</v>
+        <v>24.88888888888889</v>
       </c>
       <c r="G86" t="n">
-        <v>87.81111111111112</v>
+        <v>41.90555555555556</v>
       </c>
       <c r="H86" t="n">
-        <v>87.95844444444442</v>
+        <v>41.14130545101904</v>
       </c>
       <c r="I86" t="n">
-        <v>79.46533333333333</v>
+        <v>37.4716258766584</v>
       </c>
       <c r="J86" t="n">
-        <v>30.98288888888889</v>
+        <v>13.03705555555555</v>
       </c>
       <c r="K86" t="n">
-        <v>117.7585555555556</v>
+        <v>24.96911111111111</v>
       </c>
       <c r="L86" t="n">
-        <v>7638.298444444445</v>
+        <v>1527.517444444444</v>
       </c>
     </row>
     <row r="87">
@@ -4252,31 +4252,31 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>10.16666666666667</v>
+        <v>2</v>
       </c>
       <c r="E87" t="n">
-        <v>31.6</v>
+        <v>27.4</v>
       </c>
       <c r="F87" t="n">
-        <v>21.43333333333333</v>
+        <v>25.4</v>
       </c>
       <c r="G87" t="n">
-        <v>112.8833333333333</v>
+        <v>47.4</v>
       </c>
       <c r="H87" t="n">
-        <v>112.3258333333333</v>
+        <v>46.92798443784317</v>
       </c>
       <c r="I87" t="n">
-        <v>102.0211666666667</v>
+        <v>45.61395482597632</v>
       </c>
       <c r="J87" t="n">
-        <v>45.9755</v>
+        <v>15.39416666666667</v>
       </c>
       <c r="K87" t="n">
-        <v>143.99</v>
+        <v>27.79033333333333</v>
       </c>
       <c r="L87" t="n">
-        <v>11681.01566666667</v>
+        <v>1822.603833333333</v>
       </c>
     </row>
     <row r="88">
@@ -4296,31 +4296,31 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>10.66666666666667</v>
+        <v>2</v>
       </c>
       <c r="E88" t="n">
-        <v>31.83333333333333</v>
+        <v>27.8</v>
       </c>
       <c r="F88" t="n">
-        <v>21.16666666666667</v>
+        <v>25.8</v>
       </c>
       <c r="G88" t="n">
-        <v>106.1166666666667</v>
+        <v>42.85</v>
       </c>
       <c r="H88" t="n">
-        <v>105.212</v>
+        <v>42.12955740612863</v>
       </c>
       <c r="I88" t="n">
-        <v>97.0125</v>
+        <v>40.93650910180641</v>
       </c>
       <c r="J88" t="n">
-        <v>43.22483333333333</v>
+        <v>14.05416666666667</v>
       </c>
       <c r="K88" t="n">
-        <v>142.0723333333333</v>
+        <v>28.94833333333333</v>
       </c>
       <c r="L88" t="n">
-        <v>10936.513</v>
+        <v>1673.443833333333</v>
       </c>
     </row>
     <row r="89">
@@ -4340,31 +4340,31 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>10.16666666666667</v>
+        <v>2</v>
       </c>
       <c r="E89" t="n">
-        <v>31.86666666666666</v>
+        <v>27.23333333333333</v>
       </c>
       <c r="F89" t="n">
-        <v>21.7</v>
+        <v>25.23333333333333</v>
       </c>
       <c r="G89" t="n">
-        <v>117.3833333333333</v>
+        <v>48.01666666666667</v>
       </c>
       <c r="H89" t="n">
-        <v>115.8581666666667</v>
+        <v>47.47126967508503</v>
       </c>
       <c r="I89" t="n">
-        <v>107.0335</v>
+        <v>46.3521798930671</v>
       </c>
       <c r="J89" t="n">
-        <v>48.0785</v>
+        <v>15.96</v>
       </c>
       <c r="K89" t="n">
-        <v>152.9241666666667</v>
+        <v>31.63366666666667</v>
       </c>
       <c r="L89" t="n">
-        <v>12358.376</v>
+        <v>1936.378166666667</v>
       </c>
     </row>
     <row r="90">
@@ -4384,31 +4384,31 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>10.33333333333333</v>
+        <v>2</v>
       </c>
       <c r="E90" t="n">
-        <v>29.06666666666667</v>
+        <v>24.73333333333333</v>
       </c>
       <c r="F90" t="n">
-        <v>18.73333333333333</v>
+        <v>22.73333333333333</v>
       </c>
       <c r="G90" t="n">
-        <v>110.6833333333333</v>
+        <v>46.25</v>
       </c>
       <c r="H90" t="n">
-        <v>111.0075</v>
+        <v>45.32450223969855</v>
       </c>
       <c r="I90" t="n">
-        <v>97.92883333333333</v>
+        <v>42.79865269600483</v>
       </c>
       <c r="J90" t="n">
-        <v>44.94266666666667</v>
+        <v>15.5335</v>
       </c>
       <c r="K90" t="n">
-        <v>137.8481666666667</v>
+        <v>33.77083333333334</v>
       </c>
       <c r="L90" t="n">
-        <v>11430.44066666667</v>
+        <v>1957.886</v>
       </c>
     </row>
     <row r="91">
@@ -4428,31 +4428,31 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>10.53333333333333</v>
+        <v>2</v>
       </c>
       <c r="E91" t="n">
-        <v>30</v>
+        <v>28.46666666666667</v>
       </c>
       <c r="F91" t="n">
-        <v>19.46666666666667</v>
+        <v>26.46666666666667</v>
       </c>
       <c r="G91" t="n">
-        <v>112</v>
+        <v>45.86666666666667</v>
       </c>
       <c r="H91" t="n">
-        <v>112.3271666666667</v>
+        <v>45.3295572502293</v>
       </c>
       <c r="I91" t="n">
-        <v>106.1796666666667</v>
+        <v>44.36749589222101</v>
       </c>
       <c r="J91" t="n">
-        <v>44.16650000000001</v>
+        <v>15.04783333333333</v>
       </c>
       <c r="K91" t="n">
-        <v>135.9393333333333</v>
+        <v>27.11166666666666</v>
       </c>
       <c r="L91" t="n">
-        <v>11159.82416666667</v>
+        <v>1625.9235</v>
       </c>
     </row>
     <row r="92">
@@ -4472,31 +4472,31 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>10.66666666666667</v>
+        <v>2</v>
       </c>
       <c r="E92" t="n">
-        <v>31.3</v>
+        <v>26.53333333333333</v>
       </c>
       <c r="F92" t="n">
-        <v>20.63333333333333</v>
+        <v>24.53333333333333</v>
       </c>
       <c r="G92" t="n">
-        <v>109.95</v>
+        <v>45.83333333333334</v>
       </c>
       <c r="H92" t="n">
-        <v>109.9665</v>
+        <v>45.18807369950073</v>
       </c>
       <c r="I92" t="n">
-        <v>100.2551666666667</v>
+        <v>44.00267088546648</v>
       </c>
       <c r="J92" t="n">
-        <v>44.84616666666667</v>
+        <v>14.8245</v>
       </c>
       <c r="K92" t="n">
-        <v>137.9931666666667</v>
+        <v>29.74133333333333</v>
       </c>
       <c r="L92" t="n">
-        <v>11326.7255</v>
+        <v>1823.981666666667</v>
       </c>
     </row>
     <row r="93">
@@ -4516,31 +4516,31 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>10.26666666666667</v>
+        <v>2</v>
       </c>
       <c r="E93" t="n">
-        <v>30.43333333333333</v>
+        <v>29.33333333333333</v>
       </c>
       <c r="F93" t="n">
-        <v>20.16666666666667</v>
+        <v>27.33333333333333</v>
       </c>
       <c r="G93" t="n">
-        <v>102.6166666666667</v>
+        <v>42.7</v>
       </c>
       <c r="H93" t="n">
-        <v>102.8413333333333</v>
+        <v>42.36508293038484</v>
       </c>
       <c r="I93" t="n">
-        <v>93.94933333333334</v>
+        <v>40.04755291943449</v>
       </c>
       <c r="J93" t="n">
-        <v>40.81016666666667</v>
+        <v>13.89016666666667</v>
       </c>
       <c r="K93" t="n">
-        <v>139.9143333333333</v>
+        <v>26.72916666666667</v>
       </c>
       <c r="L93" t="n">
-        <v>10337.1405</v>
+        <v>1522.600666666666</v>
       </c>
     </row>
     <row r="94">
@@ -4560,31 +4560,31 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>10.8</v>
+        <v>2</v>
       </c>
       <c r="E94" t="n">
-        <v>31.73333333333333</v>
+        <v>28.93333333333333</v>
       </c>
       <c r="F94" t="n">
-        <v>20.93333333333333</v>
+        <v>26.93333333333333</v>
       </c>
       <c r="G94" t="n">
-        <v>102.7333333333333</v>
+        <v>42.46666666666667</v>
       </c>
       <c r="H94" t="n">
-        <v>102.5053333333333</v>
+        <v>41.90372639488658</v>
       </c>
       <c r="I94" t="n">
-        <v>94.682</v>
+        <v>41.05926527640194</v>
       </c>
       <c r="J94" t="n">
-        <v>41.10933333333333</v>
+        <v>13.62466666666667</v>
       </c>
       <c r="K94" t="n">
-        <v>139.3986666666667</v>
+        <v>28.04933333333333</v>
       </c>
       <c r="L94" t="n">
-        <v>10359.218</v>
+        <v>1604.393333333333</v>
       </c>
     </row>
     <row r="95">
@@ -4604,31 +4604,31 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>10.96666666666667</v>
+        <v>2</v>
       </c>
       <c r="E95" t="n">
-        <v>30.26666666666667</v>
+        <v>29.3</v>
       </c>
       <c r="F95" t="n">
-        <v>19.3</v>
+        <v>27.3</v>
       </c>
       <c r="G95" t="n">
-        <v>99.45</v>
+        <v>41.5</v>
       </c>
       <c r="H95" t="n">
-        <v>99.58183333333334</v>
+        <v>40.71978925046619</v>
       </c>
       <c r="I95" t="n">
-        <v>90.02666666666666</v>
+        <v>39.51289772603908</v>
       </c>
       <c r="J95" t="n">
-        <v>39.4785</v>
+        <v>13.258</v>
       </c>
       <c r="K95" t="n">
-        <v>133.9608333333333</v>
+        <v>24.566</v>
       </c>
       <c r="L95" t="n">
-        <v>10134.0795</v>
+        <v>1389.657166666667</v>
       </c>
     </row>
     <row r="96">
@@ -4648,31 +4648,31 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>10.93333333333333</v>
+        <v>2</v>
       </c>
       <c r="E96" t="n">
-        <v>31.6</v>
+        <v>24.1</v>
       </c>
       <c r="F96" t="n">
-        <v>20.66666666666667</v>
+        <v>22.1</v>
       </c>
       <c r="G96" t="n">
-        <v>107.2333333333333</v>
+        <v>43.5</v>
       </c>
       <c r="H96" t="n">
-        <v>104.5346666666667</v>
+        <v>42.51831282142552</v>
       </c>
       <c r="I96" t="n">
-        <v>98.22500000000001</v>
+        <v>40.64519480370762</v>
       </c>
       <c r="J96" t="n">
-        <v>43.08066666666667</v>
+        <v>14.65616666666667</v>
       </c>
       <c r="K96" t="n">
-        <v>140.8443333333333</v>
+        <v>34.49016666666667</v>
       </c>
       <c r="L96" t="n">
-        <v>10939.91983333333</v>
+        <v>2003.311833333333</v>
       </c>
     </row>
     <row r="97">
@@ -4692,31 +4692,31 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>10.5</v>
+        <v>2</v>
       </c>
       <c r="E97" t="n">
-        <v>31.76666666666667</v>
+        <v>27.8</v>
       </c>
       <c r="F97" t="n">
-        <v>21.26666666666667</v>
+        <v>25.8</v>
       </c>
       <c r="G97" t="n">
-        <v>99.70555555555556</v>
+        <v>41.46666666666667</v>
       </c>
       <c r="H97" t="n">
-        <v>99.85955555555556</v>
+        <v>40.99787502038855</v>
       </c>
       <c r="I97" t="n">
-        <v>90.71249999999999</v>
+        <v>40.09132813181654</v>
       </c>
       <c r="J97" t="n">
-        <v>39.79283333333333</v>
+        <v>13.30816666666667</v>
       </c>
       <c r="K97" t="n">
-        <v>133.2564444444444</v>
+        <v>27.88477777777778</v>
       </c>
       <c r="L97" t="n">
-        <v>9958.477277777778</v>
+        <v>1647.409444444444</v>
       </c>
     </row>
     <row r="98">
@@ -4736,31 +4736,31 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>10.66666666666667</v>
+        <v>2</v>
       </c>
       <c r="E98" t="n">
-        <v>30</v>
+        <v>28.33333333333333</v>
       </c>
       <c r="F98" t="n">
-        <v>19.33333333333333</v>
+        <v>26.33333333333333</v>
       </c>
       <c r="G98" t="n">
-        <v>109.5833333333333</v>
+        <v>45.16666666666666</v>
       </c>
       <c r="H98" t="n">
-        <v>109.8841666666667</v>
+        <v>44.75009159552517</v>
       </c>
       <c r="I98" t="n">
-        <v>98.90166666666669</v>
+        <v>42.95721369518867</v>
       </c>
       <c r="J98" t="n">
-        <v>43.6675</v>
+        <v>14.84416666666667</v>
       </c>
       <c r="K98" t="n">
-        <v>137.4608333333333</v>
+        <v>30.85083333333333</v>
       </c>
       <c r="L98" t="n">
-        <v>11150.91666666667</v>
+        <v>1696.2425</v>
       </c>
     </row>
     <row r="99">
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>10.43333333333333</v>
+        <v>2</v>
       </c>
       <c r="E99" t="n">
-        <v>30.16666666666667</v>
+        <v>30.1</v>
       </c>
       <c r="F99" t="n">
-        <v>19.73333333333333</v>
+        <v>28.1</v>
       </c>
       <c r="G99" t="n">
-        <v>101.4833333333333</v>
+        <v>41.23333333333333</v>
       </c>
       <c r="H99" t="n">
-        <v>101.7296666666667</v>
+        <v>40.0135996099614</v>
       </c>
       <c r="I99" t="n">
-        <v>93.79883333333333</v>
+        <v>39.60912395422269</v>
       </c>
       <c r="J99" t="n">
-        <v>40.2165</v>
+        <v>13.49966666666667</v>
       </c>
       <c r="K99" t="n">
-        <v>135.8126666666667</v>
+        <v>28.01283333333333</v>
       </c>
       <c r="L99" t="n">
-        <v>10196.1155</v>
+        <v>1524.866666666667</v>
       </c>
     </row>
     <row r="100">
@@ -4824,31 +4824,31 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>10.66666666666667</v>
+        <v>2</v>
       </c>
       <c r="E100" t="n">
-        <v>30</v>
+        <v>31.2</v>
       </c>
       <c r="F100" t="n">
-        <v>19.33333333333333</v>
+        <v>29.2</v>
       </c>
       <c r="G100" t="n">
-        <v>103.9666666666667</v>
+        <v>41.91666666666666</v>
       </c>
       <c r="H100" t="n">
-        <v>104.1433333333333</v>
+        <v>40.98424187912538</v>
       </c>
       <c r="I100" t="n">
-        <v>96.22966666666667</v>
+        <v>39.5184858911814</v>
       </c>
       <c r="J100" t="n">
-        <v>41.52383333333333</v>
+        <v>13.62983333333333</v>
       </c>
       <c r="K100" t="n">
-        <v>140.6843333333333</v>
+        <v>24.61733333333333</v>
       </c>
       <c r="L100" t="n">
-        <v>10623.79283333333</v>
+        <v>1417.9485</v>
       </c>
     </row>
     <row r="101">
@@ -4868,31 +4868,31 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>10.44444444444444</v>
+        <v>2.266666666666667</v>
       </c>
       <c r="E101" t="n">
-        <v>30.13333333333334</v>
+        <v>30.66666666666667</v>
       </c>
       <c r="F101" t="n">
-        <v>19.68888888888889</v>
+        <v>28.4</v>
       </c>
       <c r="G101" t="n">
-        <v>98.48888888888889</v>
+        <v>40.51111111111111</v>
       </c>
       <c r="H101" t="n">
-        <v>98.83955555555555</v>
+        <v>40.35744514626162</v>
       </c>
       <c r="I101" t="n">
-        <v>85.83088888888891</v>
+        <v>39.88438139437692</v>
       </c>
       <c r="J101" t="n">
-        <v>38.77333333333333</v>
+        <v>12.87955555555556</v>
       </c>
       <c r="K101" t="n">
-        <v>137.7808888888889</v>
+        <v>24.67266666666667</v>
       </c>
       <c r="L101" t="n">
-        <v>9977.551555555556</v>
+        <v>1387.026222222222</v>
       </c>
     </row>
     <row r="102">
@@ -4912,31 +4912,31 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>10.53333333333333</v>
+        <v>2</v>
       </c>
       <c r="E102" t="n">
-        <v>30</v>
+        <v>28.7</v>
       </c>
       <c r="F102" t="n">
-        <v>19.46666666666667</v>
+        <v>26.7</v>
       </c>
       <c r="G102" t="n">
-        <v>102.4666666666667</v>
+        <v>42.3</v>
       </c>
       <c r="H102" t="n">
-        <v>102.696</v>
+        <v>41.90557110700588</v>
       </c>
       <c r="I102" t="n">
-        <v>92.38016666666668</v>
+        <v>40.46047066530835</v>
       </c>
       <c r="J102" t="n">
-        <v>40.17083333333333</v>
+        <v>13.5465</v>
       </c>
       <c r="K102" t="n">
-        <v>131.7828333333333</v>
+        <v>26.2575</v>
       </c>
       <c r="L102" t="n">
-        <v>10017.76166666667</v>
+        <v>1503.813</v>
       </c>
     </row>
     <row r="103">
@@ -4956,31 +4956,31 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>8.733333333333333</v>
+        <v>2</v>
       </c>
       <c r="E103" t="n">
-        <v>30.13333333333334</v>
+        <v>31.2</v>
       </c>
       <c r="F103" t="n">
-        <v>21.4</v>
+        <v>29.2</v>
       </c>
       <c r="G103" t="n">
-        <v>73.8</v>
+        <v>32.13333333333333</v>
       </c>
       <c r="H103" t="n">
-        <v>73.67733333333332</v>
+        <v>31.8428958228686</v>
       </c>
       <c r="I103" t="n">
-        <v>66.98199999999999</v>
+        <v>31.34001887254644</v>
       </c>
       <c r="J103" t="n">
-        <v>28.06333333333333</v>
+        <v>9.163666666666666</v>
       </c>
       <c r="K103" t="n">
-        <v>150.39</v>
+        <v>12.78066666666667</v>
       </c>
       <c r="L103" t="n">
-        <v>7265.493333333335</v>
+        <v>831.1963333333334</v>
       </c>
     </row>
   </sheetData>

--- a/[3] Test Input/RESULTS_MTT_MERGED_DATE.xlsx
+++ b/[3] Test Input/RESULTS_MTT_MERGED_DATE.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L103"/>
+  <dimension ref="A1:J103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,40 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>RMS</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>tau</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>AUC</t>
         </is>
@@ -512,30 +502,24 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>26.6</v>
       </c>
       <c r="E2" t="n">
-        <v>26.6</v>
+        <v>31.13333333333334</v>
       </c>
       <c r="F2" t="n">
-        <v>24.6</v>
+        <v>30.29275272247831</v>
       </c>
       <c r="G2" t="n">
-        <v>31.13333333333334</v>
+        <v>28.43195225688973</v>
       </c>
       <c r="H2" t="n">
-        <v>30.29275272247831</v>
+        <v>10.02266666666667</v>
       </c>
       <c r="I2" t="n">
-        <v>28.43195225688973</v>
+        <v>23.60016666666667</v>
       </c>
       <c r="J2" t="n">
-        <v>10.02266666666667</v>
-      </c>
-      <c r="K2" t="n">
-        <v>23.60016666666667</v>
-      </c>
-      <c r="L2" t="n">
         <v>1245.02</v>
       </c>
     </row>
@@ -556,30 +540,24 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>29.15555555555556</v>
       </c>
       <c r="E3" t="n">
-        <v>29.15555555555556</v>
+        <v>31.71111111111111</v>
       </c>
       <c r="F3" t="n">
-        <v>27.15555555555556</v>
+        <v>31.19623534062059</v>
       </c>
       <c r="G3" t="n">
-        <v>31.71111111111111</v>
+        <v>29.3445666322599</v>
       </c>
       <c r="H3" t="n">
-        <v>31.19623534062059</v>
+        <v>10.28555555555556</v>
       </c>
       <c r="I3" t="n">
-        <v>29.3445666322599</v>
+        <v>25.45911111111111</v>
       </c>
       <c r="J3" t="n">
-        <v>10.28555555555556</v>
-      </c>
-      <c r="K3" t="n">
-        <v>25.45911111111111</v>
-      </c>
-      <c r="L3" t="n">
         <v>1210.07</v>
       </c>
     </row>
@@ -600,30 +578,24 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>28.66666666666667</v>
       </c>
       <c r="E4" t="n">
-        <v>28.66666666666667</v>
+        <v>33.33333333333334</v>
       </c>
       <c r="F4" t="n">
-        <v>26.66666666666667</v>
+        <v>32.03999476587148</v>
       </c>
       <c r="G4" t="n">
-        <v>33.33333333333334</v>
+        <v>29.60943792949716</v>
       </c>
       <c r="H4" t="n">
-        <v>32.03999476587148</v>
+        <v>10.94666666666667</v>
       </c>
       <c r="I4" t="n">
-        <v>29.60943792949716</v>
+        <v>26.254</v>
       </c>
       <c r="J4" t="n">
-        <v>10.94666666666667</v>
-      </c>
-      <c r="K4" t="n">
-        <v>26.254</v>
-      </c>
-      <c r="L4" t="n">
         <v>1233.417333333333</v>
       </c>
     </row>
@@ -644,30 +616,24 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>29.46666666666667</v>
       </c>
       <c r="E5" t="n">
-        <v>29.46666666666667</v>
+        <v>33.46666666666667</v>
       </c>
       <c r="F5" t="n">
-        <v>27.46666666666667</v>
+        <v>32.4307029330715</v>
       </c>
       <c r="G5" t="n">
-        <v>33.46666666666667</v>
+        <v>29.81742175491021</v>
       </c>
       <c r="H5" t="n">
-        <v>32.4307029330715</v>
+        <v>10.99533333333333</v>
       </c>
       <c r="I5" t="n">
-        <v>29.81742175491021</v>
+        <v>28.0975</v>
       </c>
       <c r="J5" t="n">
-        <v>10.99533333333333</v>
-      </c>
-      <c r="K5" t="n">
-        <v>28.0975</v>
-      </c>
-      <c r="L5" t="n">
         <v>1246.010666666667</v>
       </c>
     </row>
@@ -688,30 +654,24 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>30.53333333333333</v>
       </c>
       <c r="E6" t="n">
-        <v>30.53333333333333</v>
+        <v>32.73333333333333</v>
       </c>
       <c r="F6" t="n">
-        <v>28.53333333333333</v>
+        <v>32.57028225084435</v>
       </c>
       <c r="G6" t="n">
-        <v>32.73333333333333</v>
+        <v>30.15209737976659</v>
       </c>
       <c r="H6" t="n">
-        <v>32.57028225084435</v>
+        <v>10.34533333333333</v>
       </c>
       <c r="I6" t="n">
-        <v>30.15209737976659</v>
+        <v>22.80333333333333</v>
       </c>
       <c r="J6" t="n">
-        <v>10.34533333333333</v>
-      </c>
-      <c r="K6" t="n">
-        <v>22.80333333333333</v>
-      </c>
-      <c r="L6" t="n">
         <v>1119.82</v>
       </c>
     </row>
@@ -732,30 +692,24 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>25.7</v>
       </c>
       <c r="E7" t="n">
-        <v>25.7</v>
+        <v>31.58333333333333</v>
       </c>
       <c r="F7" t="n">
-        <v>23.7</v>
+        <v>30.35581527075303</v>
       </c>
       <c r="G7" t="n">
-        <v>31.58333333333333</v>
+        <v>28.70739790948832</v>
       </c>
       <c r="H7" t="n">
-        <v>30.35581527075303</v>
+        <v>10.37483333333333</v>
       </c>
       <c r="I7" t="n">
-        <v>28.70739790948832</v>
+        <v>28.0915</v>
       </c>
       <c r="J7" t="n">
-        <v>10.37483333333333</v>
-      </c>
-      <c r="K7" t="n">
-        <v>28.0915</v>
-      </c>
-      <c r="L7" t="n">
         <v>1244.103666666667</v>
       </c>
     </row>
@@ -776,30 +730,24 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="E8" t="n">
-        <v>32</v>
+        <v>27.25</v>
       </c>
       <c r="F8" t="n">
-        <v>30</v>
+        <v>26.34290385835919</v>
       </c>
       <c r="G8" t="n">
-        <v>27.25</v>
+        <v>24.08797963996862</v>
       </c>
       <c r="H8" t="n">
-        <v>26.34290385835919</v>
+        <v>8.530833333333334</v>
       </c>
       <c r="I8" t="n">
-        <v>24.08797963996862</v>
+        <v>18.01583333333333</v>
       </c>
       <c r="J8" t="n">
-        <v>8.530833333333334</v>
-      </c>
-      <c r="K8" t="n">
-        <v>18.01583333333333</v>
-      </c>
-      <c r="L8" t="n">
         <v>903.7288333333332</v>
       </c>
     </row>
@@ -820,30 +768,24 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>32.16666666666666</v>
       </c>
       <c r="E9" t="n">
-        <v>32.16666666666666</v>
+        <v>23.66666666666667</v>
       </c>
       <c r="F9" t="n">
-        <v>30.16666666666667</v>
+        <v>23.13080513976111</v>
       </c>
       <c r="G9" t="n">
-        <v>23.66666666666667</v>
+        <v>22.01720956758423</v>
       </c>
       <c r="H9" t="n">
-        <v>23.13080513976111</v>
+        <v>7.192333333333333</v>
       </c>
       <c r="I9" t="n">
-        <v>22.01720956758423</v>
+        <v>16.016</v>
       </c>
       <c r="J9" t="n">
-        <v>7.192333333333333</v>
-      </c>
-      <c r="K9" t="n">
-        <v>16.016</v>
-      </c>
-      <c r="L9" t="n">
         <v>879.5341666666667</v>
       </c>
     </row>
@@ -864,30 +806,24 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>29.6</v>
       </c>
       <c r="E10" t="n">
-        <v>29.6</v>
+        <v>24</v>
       </c>
       <c r="F10" t="n">
-        <v>27.6</v>
+        <v>23.77836461955152</v>
       </c>
       <c r="G10" t="n">
-        <v>24</v>
+        <v>22.05022289311534</v>
       </c>
       <c r="H10" t="n">
-        <v>23.77836461955152</v>
+        <v>7.442</v>
       </c>
       <c r="I10" t="n">
-        <v>22.05022289311534</v>
+        <v>20.17666666666667</v>
       </c>
       <c r="J10" t="n">
-        <v>7.442</v>
-      </c>
-      <c r="K10" t="n">
-        <v>20.17666666666667</v>
-      </c>
-      <c r="L10" t="n">
         <v>909.1833333333333</v>
       </c>
     </row>
@@ -908,30 +844,24 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>30.66666666666667</v>
       </c>
       <c r="E11" t="n">
-        <v>30.66666666666667</v>
+        <v>26.63333333333334</v>
       </c>
       <c r="F11" t="n">
-        <v>28.66666666666667</v>
+        <v>26.5457361772733</v>
       </c>
       <c r="G11" t="n">
-        <v>26.63333333333334</v>
+        <v>25.15741190664255</v>
       </c>
       <c r="H11" t="n">
-        <v>26.5457361772733</v>
+        <v>8.1975</v>
       </c>
       <c r="I11" t="n">
-        <v>25.15741190664255</v>
+        <v>19.76316666666667</v>
       </c>
       <c r="J11" t="n">
-        <v>8.1975</v>
-      </c>
-      <c r="K11" t="n">
-        <v>19.76316666666667</v>
-      </c>
-      <c r="L11" t="n">
         <v>913.1138333333333</v>
       </c>
     </row>
@@ -952,30 +882,24 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2.133333333333333</v>
+        <v>30.93333333333333</v>
       </c>
       <c r="E12" t="n">
-        <v>30.93333333333333</v>
+        <v>25.08888888888889</v>
       </c>
       <c r="F12" t="n">
-        <v>28.8</v>
+        <v>24.4352139609091</v>
       </c>
       <c r="G12" t="n">
-        <v>25.08888888888889</v>
+        <v>22.70899258399875</v>
       </c>
       <c r="H12" t="n">
-        <v>24.4352139609091</v>
+        <v>7.663999999999999</v>
       </c>
       <c r="I12" t="n">
-        <v>22.70899258399875</v>
+        <v>20.35622222222223</v>
       </c>
       <c r="J12" t="n">
-        <v>7.663999999999999</v>
-      </c>
-      <c r="K12" t="n">
-        <v>20.35622222222223</v>
-      </c>
-      <c r="L12" t="n">
         <v>909.2613333333334</v>
       </c>
     </row>
@@ -996,30 +920,24 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>32.53333333333333</v>
       </c>
       <c r="E13" t="n">
-        <v>32.53333333333333</v>
+        <v>24.04444444444444</v>
       </c>
       <c r="F13" t="n">
-        <v>30.53333333333333</v>
+        <v>23.80324147033262</v>
       </c>
       <c r="G13" t="n">
-        <v>24.04444444444444</v>
+        <v>21.94543985825279</v>
       </c>
       <c r="H13" t="n">
-        <v>23.80324147033262</v>
+        <v>7.567777777777778</v>
       </c>
       <c r="I13" t="n">
-        <v>21.94543985825279</v>
+        <v>18.46711111111111</v>
       </c>
       <c r="J13" t="n">
-        <v>7.567777777777778</v>
-      </c>
-      <c r="K13" t="n">
-        <v>18.46711111111111</v>
-      </c>
-      <c r="L13" t="n">
         <v>884.1873333333333</v>
       </c>
     </row>
@@ -1040,30 +958,24 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="E14" t="n">
-        <v>32</v>
+        <v>29.21666666666667</v>
       </c>
       <c r="F14" t="n">
-        <v>30</v>
+        <v>28.41784236690033</v>
       </c>
       <c r="G14" t="n">
-        <v>29.21666666666667</v>
+        <v>24.94757445555236</v>
       </c>
       <c r="H14" t="n">
-        <v>28.41784236690033</v>
+        <v>9.283333333333333</v>
       </c>
       <c r="I14" t="n">
-        <v>24.94757445555236</v>
+        <v>21.27966666666667</v>
       </c>
       <c r="J14" t="n">
-        <v>9.283333333333333</v>
-      </c>
-      <c r="K14" t="n">
-        <v>21.27966666666667</v>
-      </c>
-      <c r="L14" t="n">
         <v>969.1013333333334</v>
       </c>
     </row>
@@ -1084,30 +996,24 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>29.9</v>
       </c>
       <c r="E15" t="n">
-        <v>29.9</v>
+        <v>30.9</v>
       </c>
       <c r="F15" t="n">
-        <v>27.9</v>
+        <v>29.61478887794275</v>
       </c>
       <c r="G15" t="n">
-        <v>30.9</v>
+        <v>27.61222533723567</v>
       </c>
       <c r="H15" t="n">
-        <v>29.61478887794275</v>
+        <v>9.690222222222223</v>
       </c>
       <c r="I15" t="n">
-        <v>27.61222533723567</v>
+        <v>22.10605555555556</v>
       </c>
       <c r="J15" t="n">
-        <v>9.690222222222223</v>
-      </c>
-      <c r="K15" t="n">
-        <v>22.10605555555556</v>
-      </c>
-      <c r="L15" t="n">
         <v>1132.255111111111</v>
       </c>
     </row>
@@ -1128,30 +1034,24 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>30.04444444444444</v>
       </c>
       <c r="E16" t="n">
-        <v>30.04444444444444</v>
+        <v>24.42777777777778</v>
       </c>
       <c r="F16" t="n">
-        <v>28.04444444444444</v>
+        <v>24.06418201606895</v>
       </c>
       <c r="G16" t="n">
-        <v>24.42777777777778</v>
+        <v>22.1030256950372</v>
       </c>
       <c r="H16" t="n">
-        <v>24.06418201606895</v>
+        <v>7.70011111111111</v>
       </c>
       <c r="I16" t="n">
-        <v>22.1030256950372</v>
+        <v>22.42383333333333</v>
       </c>
       <c r="J16" t="n">
-        <v>7.70011111111111</v>
-      </c>
-      <c r="K16" t="n">
-        <v>22.42383333333333</v>
-      </c>
-      <c r="L16" t="n">
         <v>993.8810555555556</v>
       </c>
     </row>
@@ -1172,30 +1072,24 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>31.06666666666667</v>
       </c>
       <c r="E17" t="n">
-        <v>31.06666666666667</v>
+        <v>26.4</v>
       </c>
       <c r="F17" t="n">
-        <v>29.06666666666667</v>
+        <v>25.91287969036331</v>
       </c>
       <c r="G17" t="n">
-        <v>26.4</v>
+        <v>24.00365140276805</v>
       </c>
       <c r="H17" t="n">
-        <v>25.91287969036331</v>
+        <v>8.07</v>
       </c>
       <c r="I17" t="n">
-        <v>24.00365140276805</v>
+        <v>20.28466666666667</v>
       </c>
       <c r="J17" t="n">
-        <v>8.07</v>
-      </c>
-      <c r="K17" t="n">
-        <v>20.28466666666667</v>
-      </c>
-      <c r="L17" t="n">
         <v>934.4475555555556</v>
       </c>
     </row>
@@ -1216,30 +1110,24 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2</v>
+        <v>31.86666666666666</v>
       </c>
       <c r="E18" t="n">
-        <v>31.86666666666666</v>
+        <v>22.26666666666667</v>
       </c>
       <c r="F18" t="n">
-        <v>29.86666666666666</v>
+        <v>22.23605250362956</v>
       </c>
       <c r="G18" t="n">
-        <v>22.26666666666667</v>
+        <v>21.47328918608059</v>
       </c>
       <c r="H18" t="n">
-        <v>22.23605250362956</v>
+        <v>6.507666666666666</v>
       </c>
       <c r="I18" t="n">
-        <v>21.47328918608059</v>
+        <v>13.46833333333333</v>
       </c>
       <c r="J18" t="n">
-        <v>6.507666666666666</v>
-      </c>
-      <c r="K18" t="n">
-        <v>13.46833333333333</v>
-      </c>
-      <c r="L18" t="n">
         <v>666.3136666666666</v>
       </c>
     </row>
@@ -1260,30 +1148,24 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>2</v>
+        <v>28.53333333333333</v>
       </c>
       <c r="E19" t="n">
-        <v>28.53333333333333</v>
+        <v>41.33333333333334</v>
       </c>
       <c r="F19" t="n">
-        <v>26.53333333333333</v>
+        <v>40.87845291321089</v>
       </c>
       <c r="G19" t="n">
-        <v>41.33333333333334</v>
+        <v>39.58613619825278</v>
       </c>
       <c r="H19" t="n">
-        <v>40.87845291321089</v>
+        <v>13.40466666666667</v>
       </c>
       <c r="I19" t="n">
-        <v>39.58613619825278</v>
+        <v>27.402</v>
       </c>
       <c r="J19" t="n">
-        <v>13.40466666666667</v>
-      </c>
-      <c r="K19" t="n">
-        <v>27.402</v>
-      </c>
-      <c r="L19" t="n">
         <v>1477.728666666667</v>
       </c>
     </row>
@@ -1304,30 +1186,24 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2</v>
+        <v>26.9</v>
       </c>
       <c r="E20" t="n">
-        <v>26.9</v>
+        <v>41.16666666666666</v>
       </c>
       <c r="F20" t="n">
-        <v>24.9</v>
+        <v>40.49305352136972</v>
       </c>
       <c r="G20" t="n">
-        <v>41.16666666666666</v>
+        <v>38.59022420787371</v>
       </c>
       <c r="H20" t="n">
-        <v>40.49305352136972</v>
+        <v>13.67116666666666</v>
       </c>
       <c r="I20" t="n">
-        <v>38.59022420787371</v>
+        <v>30.0005</v>
       </c>
       <c r="J20" t="n">
-        <v>13.67116666666666</v>
-      </c>
-      <c r="K20" t="n">
-        <v>30.0005</v>
-      </c>
-      <c r="L20" t="n">
         <v>1609.039833333333</v>
       </c>
     </row>
@@ -1348,30 +1224,24 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>2</v>
+        <v>28.16666666666667</v>
       </c>
       <c r="E21" t="n">
-        <v>28.16666666666667</v>
+        <v>42.16666666666666</v>
       </c>
       <c r="F21" t="n">
-        <v>26.16666666666667</v>
+        <v>41.12356858856445</v>
       </c>
       <c r="G21" t="n">
-        <v>42.16666666666666</v>
+        <v>38.62876351869128</v>
       </c>
       <c r="H21" t="n">
-        <v>41.12356858856445</v>
+        <v>14.1775</v>
       </c>
       <c r="I21" t="n">
-        <v>38.62876351869128</v>
+        <v>29.5075</v>
       </c>
       <c r="J21" t="n">
-        <v>14.1775</v>
-      </c>
-      <c r="K21" t="n">
-        <v>29.5075</v>
-      </c>
-      <c r="L21" t="n">
         <v>1634.346666666667</v>
       </c>
     </row>
@@ -1392,30 +1262,24 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>2</v>
+        <v>28.4</v>
       </c>
       <c r="E22" t="n">
-        <v>28.4</v>
+        <v>48.03333333333333</v>
       </c>
       <c r="F22" t="n">
-        <v>26.4</v>
+        <v>47.22016812870672</v>
       </c>
       <c r="G22" t="n">
-        <v>48.03333333333333</v>
+        <v>46.25966507258651</v>
       </c>
       <c r="H22" t="n">
-        <v>47.22016812870672</v>
+        <v>15.85883333333333</v>
       </c>
       <c r="I22" t="n">
-        <v>46.25966507258651</v>
+        <v>30.23233333333333</v>
       </c>
       <c r="J22" t="n">
-        <v>15.85883333333333</v>
-      </c>
-      <c r="K22" t="n">
-        <v>30.23233333333333</v>
-      </c>
-      <c r="L22" t="n">
         <v>1921.428</v>
       </c>
     </row>
@@ -1436,30 +1300,24 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>2</v>
+        <v>26.53333333333333</v>
       </c>
       <c r="E23" t="n">
-        <v>26.53333333333333</v>
+        <v>41.93333333333333</v>
       </c>
       <c r="F23" t="n">
-        <v>24.53333333333333</v>
+        <v>41.47726651542062</v>
       </c>
       <c r="G23" t="n">
-        <v>41.93333333333333</v>
+        <v>39.89162267020546</v>
       </c>
       <c r="H23" t="n">
-        <v>41.47726651542062</v>
+        <v>14.38</v>
       </c>
       <c r="I23" t="n">
-        <v>39.89162267020546</v>
+        <v>31.94933333333333</v>
       </c>
       <c r="J23" t="n">
-        <v>14.38</v>
-      </c>
-      <c r="K23" t="n">
-        <v>31.94933333333333</v>
-      </c>
-      <c r="L23" t="n">
         <v>1806.83</v>
       </c>
     </row>
@@ -1480,30 +1338,24 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>2</v>
+        <v>30.26666666666667</v>
       </c>
       <c r="E24" t="n">
-        <v>30.26666666666667</v>
+        <v>34.8</v>
       </c>
       <c r="F24" t="n">
-        <v>28.26666666666667</v>
+        <v>33.97252702246527</v>
       </c>
       <c r="G24" t="n">
-        <v>34.8</v>
+        <v>32.82711268287716</v>
       </c>
       <c r="H24" t="n">
-        <v>33.97252702246527</v>
+        <v>11.28</v>
       </c>
       <c r="I24" t="n">
-        <v>32.82711268287716</v>
+        <v>29.66333333333333</v>
       </c>
       <c r="J24" t="n">
-        <v>11.28</v>
-      </c>
-      <c r="K24" t="n">
-        <v>29.66333333333333</v>
-      </c>
-      <c r="L24" t="n">
         <v>1329.719333333333</v>
       </c>
     </row>
@@ -1524,30 +1376,24 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>2</v>
+        <v>29.06666666666667</v>
       </c>
       <c r="E25" t="n">
-        <v>29.06666666666667</v>
+        <v>37.33333333333334</v>
       </c>
       <c r="F25" t="n">
-        <v>27.06666666666667</v>
+        <v>37.07532744961493</v>
       </c>
       <c r="G25" t="n">
-        <v>37.33333333333334</v>
+        <v>35.94921066307917</v>
       </c>
       <c r="H25" t="n">
-        <v>37.07532744961493</v>
+        <v>12.00233333333333</v>
       </c>
       <c r="I25" t="n">
-        <v>35.94921066307917</v>
+        <v>27.32083333333334</v>
       </c>
       <c r="J25" t="n">
-        <v>12.00233333333333</v>
-      </c>
-      <c r="K25" t="n">
-        <v>27.32083333333334</v>
-      </c>
-      <c r="L25" t="n">
         <v>1316.207333333333</v>
       </c>
     </row>
@@ -1568,30 +1414,24 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>2</v>
+        <v>29.9</v>
       </c>
       <c r="E26" t="n">
-        <v>29.9</v>
+        <v>39.75</v>
       </c>
       <c r="F26" t="n">
-        <v>27.9</v>
+        <v>39.3967775281548</v>
       </c>
       <c r="G26" t="n">
-        <v>39.75</v>
+        <v>37.33235087777216</v>
       </c>
       <c r="H26" t="n">
-        <v>39.3967775281548</v>
+        <v>12.67116666666667</v>
       </c>
       <c r="I26" t="n">
-        <v>37.33235087777216</v>
+        <v>25.7315</v>
       </c>
       <c r="J26" t="n">
-        <v>12.67116666666667</v>
-      </c>
-      <c r="K26" t="n">
-        <v>25.7315</v>
-      </c>
-      <c r="L26" t="n">
         <v>1424.270666666667</v>
       </c>
     </row>
@@ -1612,30 +1452,24 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>2.666666666666667</v>
+        <v>29.46666666666667</v>
       </c>
       <c r="E27" t="n">
-        <v>29.46666666666667</v>
+        <v>37.28333333333333</v>
       </c>
       <c r="F27" t="n">
-        <v>26.8</v>
+        <v>36.50913015204793</v>
       </c>
       <c r="G27" t="n">
-        <v>37.28333333333333</v>
+        <v>35.18310468415702</v>
       </c>
       <c r="H27" t="n">
-        <v>36.50913015204793</v>
+        <v>12.36816666666667</v>
       </c>
       <c r="I27" t="n">
-        <v>35.18310468415702</v>
+        <v>27.4535</v>
       </c>
       <c r="J27" t="n">
-        <v>12.36816666666667</v>
-      </c>
-      <c r="K27" t="n">
-        <v>27.4535</v>
-      </c>
-      <c r="L27" t="n">
         <v>1522.314</v>
       </c>
     </row>
@@ -1656,30 +1490,24 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>2</v>
+        <v>31.36666666666666</v>
       </c>
       <c r="E28" t="n">
-        <v>31.36666666666666</v>
+        <v>35.7</v>
       </c>
       <c r="F28" t="n">
-        <v>29.36666666666666</v>
+        <v>35.59741948614823</v>
       </c>
       <c r="G28" t="n">
-        <v>35.7</v>
+        <v>34.72901612068031</v>
       </c>
       <c r="H28" t="n">
-        <v>35.59741948614823</v>
+        <v>11.00716666666666</v>
       </c>
       <c r="I28" t="n">
-        <v>34.72901612068031</v>
+        <v>19.55333333333333</v>
       </c>
       <c r="J28" t="n">
-        <v>11.00716666666666</v>
-      </c>
-      <c r="K28" t="n">
-        <v>19.55333333333333</v>
-      </c>
-      <c r="L28" t="n">
         <v>1163.5565</v>
       </c>
     </row>
@@ -1700,30 +1528,24 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>2</v>
+        <v>28.6</v>
       </c>
       <c r="E29" t="n">
-        <v>28.6</v>
+        <v>41.5</v>
       </c>
       <c r="F29" t="n">
-        <v>26.6</v>
+        <v>41.09868748203535</v>
       </c>
       <c r="G29" t="n">
-        <v>41.5</v>
+        <v>38.3087284838719</v>
       </c>
       <c r="H29" t="n">
-        <v>41.09868748203535</v>
+        <v>13.255</v>
       </c>
       <c r="I29" t="n">
-        <v>38.3087284838719</v>
+        <v>30.94766666666666</v>
       </c>
       <c r="J29" t="n">
-        <v>13.255</v>
-      </c>
-      <c r="K29" t="n">
-        <v>30.94766666666666</v>
-      </c>
-      <c r="L29" t="n">
         <v>1593.982</v>
       </c>
     </row>
@@ -1744,30 +1566,24 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>2</v>
+        <v>28.53333333333333</v>
       </c>
       <c r="E30" t="n">
-        <v>28.53333333333333</v>
+        <v>36.06666666666667</v>
       </c>
       <c r="F30" t="n">
-        <v>26.53333333333333</v>
+        <v>34.77574752491721</v>
       </c>
       <c r="G30" t="n">
-        <v>36.06666666666667</v>
+        <v>32.80832522446712</v>
       </c>
       <c r="H30" t="n">
-        <v>34.77574752491721</v>
+        <v>11.71933333333333</v>
       </c>
       <c r="I30" t="n">
-        <v>32.80832522446712</v>
+        <v>27.99666666666667</v>
       </c>
       <c r="J30" t="n">
-        <v>11.71933333333333</v>
-      </c>
-      <c r="K30" t="n">
-        <v>27.99666666666667</v>
-      </c>
-      <c r="L30" t="n">
         <v>1418.318666666667</v>
       </c>
     </row>
@@ -1788,30 +1604,24 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>2</v>
+        <v>29.11111111111111</v>
       </c>
       <c r="E31" t="n">
-        <v>29.11111111111111</v>
+        <v>37.75</v>
       </c>
       <c r="F31" t="n">
-        <v>27.11111111111111</v>
+        <v>37.15524325595333</v>
       </c>
       <c r="G31" t="n">
-        <v>37.75</v>
+        <v>36.20114692113864</v>
       </c>
       <c r="H31" t="n">
-        <v>37.15524325595333</v>
+        <v>12.33361111111111</v>
       </c>
       <c r="I31" t="n">
-        <v>36.20114692113864</v>
+        <v>30.00416666666667</v>
       </c>
       <c r="J31" t="n">
-        <v>12.33361111111111</v>
-      </c>
-      <c r="K31" t="n">
-        <v>30.00416666666667</v>
-      </c>
-      <c r="L31" t="n">
         <v>1413.636111111111</v>
       </c>
     </row>
@@ -1832,30 +1642,24 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>2</v>
+        <v>30.83333333333333</v>
       </c>
       <c r="E32" t="n">
-        <v>30.83333333333333</v>
+        <v>39.86666666666667</v>
       </c>
       <c r="F32" t="n">
-        <v>28.83333333333333</v>
+        <v>39.05661896652227</v>
       </c>
       <c r="G32" t="n">
-        <v>39.86666666666667</v>
+        <v>36.81559220257041</v>
       </c>
       <c r="H32" t="n">
-        <v>39.05661896652227</v>
+        <v>13.138</v>
       </c>
       <c r="I32" t="n">
-        <v>36.81559220257041</v>
+        <v>26.49916666666667</v>
       </c>
       <c r="J32" t="n">
-        <v>13.138</v>
-      </c>
-      <c r="K32" t="n">
-        <v>26.49916666666667</v>
-      </c>
-      <c r="L32" t="n">
         <v>1459.802</v>
       </c>
     </row>
@@ -1876,30 +1680,24 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>2</v>
+        <v>28.97777777777778</v>
       </c>
       <c r="E33" t="n">
-        <v>28.97777777777778</v>
+        <v>35.98888888888889</v>
       </c>
       <c r="F33" t="n">
-        <v>26.97777777777778</v>
+        <v>35.39068938418899</v>
       </c>
       <c r="G33" t="n">
-        <v>35.98888888888889</v>
+        <v>33.58654720368305</v>
       </c>
       <c r="H33" t="n">
-        <v>35.39068938418899</v>
+        <v>11.47266666666667</v>
       </c>
       <c r="I33" t="n">
-        <v>33.58654720368305</v>
+        <v>24.58011111111111</v>
       </c>
       <c r="J33" t="n">
-        <v>11.47266666666667</v>
-      </c>
-      <c r="K33" t="n">
-        <v>24.58011111111111</v>
-      </c>
-      <c r="L33" t="n">
         <v>1290.746666666667</v>
       </c>
     </row>
@@ -1920,30 +1718,24 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>2</v>
+        <v>29.83333333333333</v>
       </c>
       <c r="E34" t="n">
-        <v>29.83333333333333</v>
+        <v>36.91666666666666</v>
       </c>
       <c r="F34" t="n">
-        <v>27.83333333333333</v>
+        <v>36.1832999372674</v>
       </c>
       <c r="G34" t="n">
-        <v>36.91666666666666</v>
+        <v>35.14950421690934</v>
       </c>
       <c r="H34" t="n">
-        <v>36.1832999372674</v>
+        <v>11.64333333333333</v>
       </c>
       <c r="I34" t="n">
-        <v>35.14950421690934</v>
+        <v>25.9875</v>
       </c>
       <c r="J34" t="n">
-        <v>11.64333333333333</v>
-      </c>
-      <c r="K34" t="n">
-        <v>25.9875</v>
-      </c>
-      <c r="L34" t="n">
         <v>1291.9225</v>
       </c>
     </row>
@@ -1964,30 +1756,24 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2</v>
+        <v>30.5</v>
       </c>
       <c r="E35" t="n">
-        <v>30.5</v>
+        <v>29.06666666666667</v>
       </c>
       <c r="F35" t="n">
-        <v>28.5</v>
+        <v>28.78553146717693</v>
       </c>
       <c r="G35" t="n">
-        <v>29.06666666666667</v>
+        <v>28.17586142493009</v>
       </c>
       <c r="H35" t="n">
-        <v>28.78553146717693</v>
+        <v>8.880333333333333</v>
       </c>
       <c r="I35" t="n">
-        <v>28.17586142493009</v>
+        <v>18.57283333333333</v>
       </c>
       <c r="J35" t="n">
-        <v>8.880333333333333</v>
-      </c>
-      <c r="K35" t="n">
-        <v>18.57283333333333</v>
-      </c>
-      <c r="L35" t="n">
         <v>963.4423333333333</v>
       </c>
     </row>
@@ -2008,30 +1794,24 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>2.133333333333333</v>
+        <v>22.93333333333333</v>
       </c>
       <c r="E36" t="n">
-        <v>22.93333333333333</v>
+        <v>97.45</v>
       </c>
       <c r="F36" t="n">
-        <v>20.8</v>
+        <v>95.68463194852977</v>
       </c>
       <c r="G36" t="n">
-        <v>97.45</v>
+        <v>90.85468445941832</v>
       </c>
       <c r="H36" t="n">
-        <v>95.68463194852977</v>
+        <v>31.63633333333333</v>
       </c>
       <c r="I36" t="n">
-        <v>90.85468445941832</v>
+        <v>37.29683333333333</v>
       </c>
       <c r="J36" t="n">
-        <v>31.63633333333333</v>
-      </c>
-      <c r="K36" t="n">
-        <v>37.29683333333333</v>
-      </c>
-      <c r="L36" t="n">
         <v>4436.382833333333</v>
       </c>
     </row>
@@ -2052,30 +1832,24 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>2</v>
+        <v>24.86666666666666</v>
       </c>
       <c r="E37" t="n">
-        <v>24.86666666666666</v>
+        <v>84.78333333333333</v>
       </c>
       <c r="F37" t="n">
-        <v>22.86666666666666</v>
+        <v>80.41468571904333</v>
       </c>
       <c r="G37" t="n">
-        <v>84.78333333333333</v>
+        <v>74.41630058127164</v>
       </c>
       <c r="H37" t="n">
-        <v>80.41468571904333</v>
+        <v>27.66933333333334</v>
       </c>
       <c r="I37" t="n">
-        <v>74.41630058127164</v>
+        <v>30.86133333333333</v>
       </c>
       <c r="J37" t="n">
-        <v>27.66933333333334</v>
-      </c>
-      <c r="K37" t="n">
-        <v>30.86133333333333</v>
-      </c>
-      <c r="L37" t="n">
         <v>3439.843833333333</v>
       </c>
     </row>
@@ -2096,30 +1870,24 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>2</v>
+        <v>23.03333333333333</v>
       </c>
       <c r="E38" t="n">
-        <v>23.03333333333333</v>
+        <v>78.38888888888889</v>
       </c>
       <c r="F38" t="n">
-        <v>21.03333333333333</v>
+        <v>74.42953504376288</v>
       </c>
       <c r="G38" t="n">
-        <v>78.38888888888889</v>
+        <v>70.16694540254235</v>
       </c>
       <c r="H38" t="n">
-        <v>74.42953504376288</v>
+        <v>25.24494444444445</v>
       </c>
       <c r="I38" t="n">
-        <v>70.16694540254235</v>
+        <v>31.40683333333333</v>
       </c>
       <c r="J38" t="n">
-        <v>25.24494444444445</v>
-      </c>
-      <c r="K38" t="n">
-        <v>31.40683333333333</v>
-      </c>
-      <c r="L38" t="n">
         <v>3503.658388888889</v>
       </c>
     </row>
@@ -2140,30 +1908,24 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>2.8</v>
+        <v>25.7</v>
       </c>
       <c r="E39" t="n">
-        <v>25.7</v>
+        <v>83</v>
       </c>
       <c r="F39" t="n">
-        <v>22.9</v>
+        <v>79.20192992067423</v>
       </c>
       <c r="G39" t="n">
-        <v>83</v>
+        <v>77.64824869455431</v>
       </c>
       <c r="H39" t="n">
-        <v>79.20192992067423</v>
+        <v>27.27483333333333</v>
       </c>
       <c r="I39" t="n">
-        <v>77.64824869455431</v>
+        <v>33.35366666666667</v>
       </c>
       <c r="J39" t="n">
-        <v>27.27483333333333</v>
-      </c>
-      <c r="K39" t="n">
-        <v>33.35366666666667</v>
-      </c>
-      <c r="L39" t="n">
         <v>3812.379666666666</v>
       </c>
     </row>
@@ -2184,30 +1946,24 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>2</v>
+        <v>23.4</v>
       </c>
       <c r="E40" t="n">
-        <v>23.4</v>
+        <v>88.45</v>
       </c>
       <c r="F40" t="n">
-        <v>21.4</v>
+        <v>85.61435936496696</v>
       </c>
       <c r="G40" t="n">
-        <v>88.45</v>
+        <v>79.60626106957503</v>
       </c>
       <c r="H40" t="n">
-        <v>85.61435936496696</v>
+        <v>28.86333333333333</v>
       </c>
       <c r="I40" t="n">
-        <v>79.60626106957503</v>
+        <v>35.79816666666667</v>
       </c>
       <c r="J40" t="n">
-        <v>28.86333333333333</v>
-      </c>
-      <c r="K40" t="n">
-        <v>35.79816666666667</v>
-      </c>
-      <c r="L40" t="n">
         <v>3811.084333333334</v>
       </c>
     </row>
@@ -2228,30 +1984,24 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>2</v>
+        <v>21.76666666666667</v>
       </c>
       <c r="E41" t="n">
-        <v>21.76666666666667</v>
+        <v>91.64999999999999</v>
       </c>
       <c r="F41" t="n">
-        <v>19.76666666666667</v>
+        <v>88.63128484647042</v>
       </c>
       <c r="G41" t="n">
-        <v>91.64999999999999</v>
+        <v>85.88371164316588</v>
       </c>
       <c r="H41" t="n">
-        <v>88.63128484647042</v>
+        <v>30.09633333333333</v>
       </c>
       <c r="I41" t="n">
-        <v>85.88371164316588</v>
+        <v>40.09416666666667</v>
       </c>
       <c r="J41" t="n">
-        <v>30.09633333333333</v>
-      </c>
-      <c r="K41" t="n">
-        <v>40.09416666666667</v>
-      </c>
-      <c r="L41" t="n">
         <v>4366.657</v>
       </c>
     </row>
@@ -2272,30 +2022,24 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>2</v>
+        <v>29.8</v>
       </c>
       <c r="E42" t="n">
-        <v>29.8</v>
+        <v>63.58333333333334</v>
       </c>
       <c r="F42" t="n">
-        <v>27.8</v>
+        <v>62.05620849565557</v>
       </c>
       <c r="G42" t="n">
-        <v>63.58333333333334</v>
+        <v>57.32807691594338</v>
       </c>
       <c r="H42" t="n">
-        <v>62.05620849565557</v>
+        <v>21.11383333333334</v>
       </c>
       <c r="I42" t="n">
-        <v>57.32807691594338</v>
+        <v>35.7765</v>
       </c>
       <c r="J42" t="n">
-        <v>21.11383333333334</v>
-      </c>
-      <c r="K42" t="n">
-        <v>35.7765</v>
-      </c>
-      <c r="L42" t="n">
         <v>2876.293666666667</v>
       </c>
     </row>
@@ -2316,30 +2060,24 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>2</v>
+        <v>28.76666666666667</v>
       </c>
       <c r="E43" t="n">
-        <v>28.76666666666667</v>
+        <v>67.5</v>
       </c>
       <c r="F43" t="n">
-        <v>26.76666666666667</v>
+        <v>65.00381755274279</v>
       </c>
       <c r="G43" t="n">
-        <v>67.5</v>
+        <v>62.25805444217852</v>
       </c>
       <c r="H43" t="n">
-        <v>65.00381755274279</v>
+        <v>22.2685</v>
       </c>
       <c r="I43" t="n">
-        <v>62.25805444217852</v>
+        <v>28.74866666666667</v>
       </c>
       <c r="J43" t="n">
-        <v>22.2685</v>
-      </c>
-      <c r="K43" t="n">
-        <v>28.74866666666667</v>
-      </c>
-      <c r="L43" t="n">
         <v>2832.712333333333</v>
       </c>
     </row>
@@ -2360,30 +2098,24 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>2</v>
+        <v>27.33333333333333</v>
       </c>
       <c r="E44" t="n">
-        <v>27.33333333333333</v>
+        <v>70.60000000000001</v>
       </c>
       <c r="F44" t="n">
-        <v>25.33333333333333</v>
+        <v>68.58956146112423</v>
       </c>
       <c r="G44" t="n">
-        <v>70.60000000000001</v>
+        <v>64.03754441900804</v>
       </c>
       <c r="H44" t="n">
-        <v>68.58956146112423</v>
+        <v>23.18866666666667</v>
       </c>
       <c r="I44" t="n">
-        <v>64.03754441900804</v>
+        <v>30.72933333333333</v>
       </c>
       <c r="J44" t="n">
-        <v>23.18866666666667</v>
-      </c>
-      <c r="K44" t="n">
-        <v>30.72933333333333</v>
-      </c>
-      <c r="L44" t="n">
         <v>3030.095333333333</v>
       </c>
     </row>
@@ -2404,30 +2136,24 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>2.266666666666667</v>
+        <v>24.13333333333334</v>
       </c>
       <c r="E45" t="n">
-        <v>24.13333333333334</v>
+        <v>75.35000000000001</v>
       </c>
       <c r="F45" t="n">
-        <v>21.86666666666666</v>
+        <v>73.48879803214156</v>
       </c>
       <c r="G45" t="n">
-        <v>75.35000000000001</v>
+        <v>67.88043579982315</v>
       </c>
       <c r="H45" t="n">
-        <v>73.48879803214156</v>
+        <v>24.18333333333334</v>
       </c>
       <c r="I45" t="n">
-        <v>67.88043579982315</v>
+        <v>384803.8405</v>
       </c>
       <c r="J45" t="n">
-        <v>24.18333333333334</v>
-      </c>
-      <c r="K45" t="n">
-        <v>384803.8405</v>
-      </c>
-      <c r="L45" t="n">
         <v>3464.701</v>
       </c>
     </row>
@@ -2448,30 +2174,24 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>2</v>
+        <v>27.88888888888889</v>
       </c>
       <c r="E46" t="n">
-        <v>27.88888888888889</v>
+        <v>78.27777777777779</v>
       </c>
       <c r="F46" t="n">
-        <v>25.88888888888889</v>
+        <v>75.47044673871167</v>
       </c>
       <c r="G46" t="n">
-        <v>78.27777777777779</v>
+        <v>71.41330525786113</v>
       </c>
       <c r="H46" t="n">
-        <v>75.47044673871167</v>
+        <v>25.43944444444444</v>
       </c>
       <c r="I46" t="n">
-        <v>71.41330525786113</v>
+        <v>28.87</v>
       </c>
       <c r="J46" t="n">
-        <v>25.43944444444444</v>
-      </c>
-      <c r="K46" t="n">
-        <v>28.87</v>
-      </c>
-      <c r="L46" t="n">
         <v>3154.207222222222</v>
       </c>
     </row>
@@ -2492,30 +2212,24 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2.333333333333333</v>
+        <v>23.76666666666667</v>
       </c>
       <c r="E47" t="n">
-        <v>23.76666666666667</v>
+        <v>68.28333333333333</v>
       </c>
       <c r="F47" t="n">
-        <v>21.43333333333333</v>
+        <v>66.20071390092795</v>
       </c>
       <c r="G47" t="n">
-        <v>68.28333333333333</v>
+        <v>64.61021778624438</v>
       </c>
       <c r="H47" t="n">
-        <v>66.20071390092795</v>
+        <v>22.19683333333333</v>
       </c>
       <c r="I47" t="n">
-        <v>64.61021778624438</v>
+        <v>33.84466666666667</v>
       </c>
       <c r="J47" t="n">
-        <v>22.19683333333333</v>
-      </c>
-      <c r="K47" t="n">
-        <v>33.84466666666667</v>
-      </c>
-      <c r="L47" t="n">
         <v>3184.694666666666</v>
       </c>
     </row>
@@ -2536,30 +2250,24 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>2.266666666666667</v>
+        <v>27.13333333333334</v>
       </c>
       <c r="E48" t="n">
-        <v>27.13333333333334</v>
+        <v>75.53333333333333</v>
       </c>
       <c r="F48" t="n">
-        <v>24.86666666666666</v>
+        <v>73.28149075286022</v>
       </c>
       <c r="G48" t="n">
-        <v>75.53333333333333</v>
+        <v>66.56392042677477</v>
       </c>
       <c r="H48" t="n">
-        <v>73.28149075286022</v>
+        <v>23.46866666666667</v>
       </c>
       <c r="I48" t="n">
-        <v>66.56392042677477</v>
+        <v>28.968</v>
       </c>
       <c r="J48" t="n">
-        <v>23.46866666666667</v>
-      </c>
-      <c r="K48" t="n">
-        <v>28.968</v>
-      </c>
-      <c r="L48" t="n">
         <v>3098.326666666666</v>
       </c>
     </row>
@@ -2580,30 +2288,24 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2</v>
+        <v>26.26666666666667</v>
       </c>
       <c r="E49" t="n">
-        <v>26.26666666666667</v>
+        <v>73.71111111111112</v>
       </c>
       <c r="F49" t="n">
-        <v>24.26666666666667</v>
+        <v>72.25816875611567</v>
       </c>
       <c r="G49" t="n">
-        <v>73.71111111111112</v>
+        <v>66.665087923828</v>
       </c>
       <c r="H49" t="n">
-        <v>72.25816875611567</v>
+        <v>23.92688888888889</v>
       </c>
       <c r="I49" t="n">
-        <v>66.665087923828</v>
+        <v>27.448</v>
       </c>
       <c r="J49" t="n">
-        <v>23.92688888888889</v>
-      </c>
-      <c r="K49" t="n">
-        <v>27.448</v>
-      </c>
-      <c r="L49" t="n">
         <v>3089.345777777778</v>
       </c>
     </row>
@@ -2624,30 +2326,24 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>2.266666666666667</v>
+        <v>26.76666666666667</v>
       </c>
       <c r="E50" t="n">
-        <v>26.76666666666667</v>
+        <v>76.83333333333333</v>
       </c>
       <c r="F50" t="n">
-        <v>24.5</v>
+        <v>73.51336328892212</v>
       </c>
       <c r="G50" t="n">
-        <v>76.83333333333333</v>
+        <v>68.66128402564367</v>
       </c>
       <c r="H50" t="n">
-        <v>73.51336328892212</v>
+        <v>25.013</v>
       </c>
       <c r="I50" t="n">
-        <v>68.66128402564367</v>
+        <v>53.28300000000001</v>
       </c>
       <c r="J50" t="n">
-        <v>25.013</v>
-      </c>
-      <c r="K50" t="n">
-        <v>53.28300000000001</v>
-      </c>
-      <c r="L50" t="n">
         <v>3560.214833333333</v>
       </c>
     </row>
@@ -2668,30 +2364,24 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>2.166666666666667</v>
+        <v>21.5</v>
       </c>
       <c r="E51" t="n">
-        <v>21.5</v>
+        <v>74.5</v>
       </c>
       <c r="F51" t="n">
-        <v>19.33333333333333</v>
+        <v>71.25363106462747</v>
       </c>
       <c r="G51" t="n">
-        <v>74.5</v>
+        <v>67.90288030742759</v>
       </c>
       <c r="H51" t="n">
-        <v>71.25363106462747</v>
+        <v>24.90333333333334</v>
       </c>
       <c r="I51" t="n">
-        <v>67.90288030742759</v>
+        <v>35.88833333333334</v>
       </c>
       <c r="J51" t="n">
-        <v>24.90333333333334</v>
-      </c>
-      <c r="K51" t="n">
-        <v>35.88833333333334</v>
-      </c>
-      <c r="L51" t="n">
         <v>3602.333333333333</v>
       </c>
     </row>
@@ -2712,30 +2402,24 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>2</v>
+        <v>22.65555555555556</v>
       </c>
       <c r="E52" t="n">
-        <v>22.65555555555556</v>
+        <v>76.28888888888889</v>
       </c>
       <c r="F52" t="n">
-        <v>20.65555555555556</v>
+        <v>74.8658606152989</v>
       </c>
       <c r="G52" t="n">
-        <v>76.28888888888889</v>
+        <v>68.75061373911301</v>
       </c>
       <c r="H52" t="n">
-        <v>74.8658606152989</v>
+        <v>25.0705</v>
       </c>
       <c r="I52" t="n">
-        <v>68.75061373911301</v>
+        <v>34.41661111111111</v>
       </c>
       <c r="J52" t="n">
-        <v>25.0705</v>
-      </c>
-      <c r="K52" t="n">
-        <v>34.41661111111111</v>
-      </c>
-      <c r="L52" t="n">
         <v>3118.456388888888</v>
       </c>
     </row>
@@ -2756,30 +2440,24 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>2</v>
+        <v>20.33333333333333</v>
       </c>
       <c r="E53" t="n">
-        <v>20.33333333333333</v>
+        <v>85.91666666666667</v>
       </c>
       <c r="F53" t="n">
-        <v>18.33333333333333</v>
+        <v>82.1412081036876</v>
       </c>
       <c r="G53" t="n">
-        <v>85.91666666666667</v>
+        <v>75.94681134175984</v>
       </c>
       <c r="H53" t="n">
-        <v>82.1412081036876</v>
+        <v>28.51138888888889</v>
       </c>
       <c r="I53" t="n">
-        <v>75.94681134175984</v>
+        <v>39.38166666666667</v>
       </c>
       <c r="J53" t="n">
-        <v>28.51138888888889</v>
-      </c>
-      <c r="K53" t="n">
-        <v>39.38166666666667</v>
-      </c>
-      <c r="L53" t="n">
         <v>3833.923888888889</v>
       </c>
     </row>
@@ -2800,30 +2478,24 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>2</v>
+        <v>20.66666666666667</v>
       </c>
       <c r="E54" t="n">
-        <v>20.66666666666667</v>
+        <v>83.39999999999999</v>
       </c>
       <c r="F54" t="n">
-        <v>18.66666666666667</v>
+        <v>80.13674174796149</v>
       </c>
       <c r="G54" t="n">
-        <v>83.39999999999999</v>
+        <v>74.48754570551556</v>
       </c>
       <c r="H54" t="n">
-        <v>80.13674174796149</v>
+        <v>28.23866666666667</v>
       </c>
       <c r="I54" t="n">
-        <v>74.48754570551556</v>
+        <v>45.90816666666667</v>
       </c>
       <c r="J54" t="n">
-        <v>28.23866666666667</v>
-      </c>
-      <c r="K54" t="n">
-        <v>45.90816666666667</v>
-      </c>
-      <c r="L54" t="n">
         <v>4114.227</v>
       </c>
     </row>
@@ -2844,30 +2516,24 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>2</v>
+        <v>22.13333333333334</v>
       </c>
       <c r="E55" t="n">
-        <v>22.13333333333334</v>
+        <v>84.21111111111111</v>
       </c>
       <c r="F55" t="n">
-        <v>20.13333333333333</v>
+        <v>79.95610749567169</v>
       </c>
       <c r="G55" t="n">
-        <v>84.21111111111111</v>
+        <v>73.04941295567585</v>
       </c>
       <c r="H55" t="n">
-        <v>79.95610749567169</v>
+        <v>27.27555555555556</v>
       </c>
       <c r="I55" t="n">
-        <v>73.04941295567585</v>
+        <v>33.61644444444445</v>
       </c>
       <c r="J55" t="n">
-        <v>27.27555555555556</v>
-      </c>
-      <c r="K55" t="n">
-        <v>33.61644444444445</v>
-      </c>
-      <c r="L55" t="n">
         <v>3517.207555555556</v>
       </c>
     </row>
@@ -2888,30 +2554,24 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>2</v>
+        <v>22.13333333333334</v>
       </c>
       <c r="E56" t="n">
-        <v>22.13333333333334</v>
+        <v>87.5</v>
       </c>
       <c r="F56" t="n">
-        <v>20.13333333333334</v>
+        <v>84.30952800062131</v>
       </c>
       <c r="G56" t="n">
-        <v>87.5</v>
+        <v>74.99820485822273</v>
       </c>
       <c r="H56" t="n">
-        <v>84.30952800062131</v>
+        <v>29.66033333333333</v>
       </c>
       <c r="I56" t="n">
-        <v>74.99820485822273</v>
+        <v>40.5705</v>
       </c>
       <c r="J56" t="n">
-        <v>29.66033333333333</v>
-      </c>
-      <c r="K56" t="n">
-        <v>40.5705</v>
-      </c>
-      <c r="L56" t="n">
         <v>4040.397333333333</v>
       </c>
     </row>
@@ -2932,30 +2592,24 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>2</v>
+        <v>18.8</v>
       </c>
       <c r="E57" t="n">
-        <v>18.8</v>
+        <v>80.78333333333333</v>
       </c>
       <c r="F57" t="n">
-        <v>16.8</v>
+        <v>78.33786751170642</v>
       </c>
       <c r="G57" t="n">
-        <v>80.78333333333333</v>
+        <v>71.64922545405928</v>
       </c>
       <c r="H57" t="n">
-        <v>78.33786751170642</v>
+        <v>27.91066666666667</v>
       </c>
       <c r="I57" t="n">
-        <v>71.64922545405928</v>
+        <v>44.62933333333334</v>
       </c>
       <c r="J57" t="n">
-        <v>27.91066666666667</v>
-      </c>
-      <c r="K57" t="n">
-        <v>44.62933333333334</v>
-      </c>
-      <c r="L57" t="n">
         <v>3994.671166666667</v>
       </c>
     </row>
@@ -2976,30 +2630,24 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>2</v>
+        <v>22.83333333333333</v>
       </c>
       <c r="E58" t="n">
-        <v>22.83333333333333</v>
+        <v>90.48333333333333</v>
       </c>
       <c r="F58" t="n">
-        <v>20.83333333333333</v>
+        <v>86.09464444706852</v>
       </c>
       <c r="G58" t="n">
-        <v>90.48333333333333</v>
+        <v>82.31950813146027</v>
       </c>
       <c r="H58" t="n">
-        <v>86.09464444706852</v>
+        <v>29.818</v>
       </c>
       <c r="I58" t="n">
-        <v>82.31950813146027</v>
+        <v>34.10283333333333</v>
       </c>
       <c r="J58" t="n">
-        <v>29.818</v>
-      </c>
-      <c r="K58" t="n">
-        <v>34.10283333333333</v>
-      </c>
-      <c r="L58" t="n">
         <v>3700.337333333333</v>
       </c>
     </row>
@@ -3020,30 +2668,24 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>2</v>
+        <v>20.8</v>
       </c>
       <c r="E59" t="n">
-        <v>20.8</v>
+        <v>79.75</v>
       </c>
       <c r="F59" t="n">
-        <v>18.8</v>
+        <v>76.59891241199078</v>
       </c>
       <c r="G59" t="n">
-        <v>79.75</v>
+        <v>71.81820459905536</v>
       </c>
       <c r="H59" t="n">
-        <v>76.59891241199078</v>
+        <v>26.655</v>
       </c>
       <c r="I59" t="n">
-        <v>71.81820459905536</v>
+        <v>37.254</v>
       </c>
       <c r="J59" t="n">
-        <v>26.655</v>
-      </c>
-      <c r="K59" t="n">
-        <v>37.254</v>
-      </c>
-      <c r="L59" t="n">
         <v>3512.362</v>
       </c>
     </row>
@@ -3064,30 +2706,24 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2</v>
+        <v>18.8</v>
       </c>
       <c r="E60" t="n">
-        <v>18.8</v>
+        <v>80.18333333333334</v>
       </c>
       <c r="F60" t="n">
-        <v>16.8</v>
+        <v>76.83931588122198</v>
       </c>
       <c r="G60" t="n">
-        <v>80.18333333333334</v>
+        <v>69.04325251487468</v>
       </c>
       <c r="H60" t="n">
-        <v>76.83931588122198</v>
+        <v>26.96233333333333</v>
       </c>
       <c r="I60" t="n">
-        <v>69.04325251487468</v>
+        <v>40.87833333333333</v>
       </c>
       <c r="J60" t="n">
-        <v>26.96233333333333</v>
-      </c>
-      <c r="K60" t="n">
-        <v>40.87833333333333</v>
-      </c>
-      <c r="L60" t="n">
         <v>3776.039166666667</v>
       </c>
     </row>
@@ -3108,30 +2744,24 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>2</v>
+        <v>22.53333333333333</v>
       </c>
       <c r="E61" t="n">
-        <v>22.53333333333333</v>
+        <v>79.63333333333333</v>
       </c>
       <c r="F61" t="n">
-        <v>20.53333333333333</v>
+        <v>76.90545061748166</v>
       </c>
       <c r="G61" t="n">
-        <v>79.63333333333333</v>
+        <v>71.36836788962513</v>
       </c>
       <c r="H61" t="n">
-        <v>76.90545061748166</v>
+        <v>27.16466666666667</v>
       </c>
       <c r="I61" t="n">
-        <v>71.36836788962513</v>
+        <v>39.36333333333333</v>
       </c>
       <c r="J61" t="n">
-        <v>27.16466666666667</v>
-      </c>
-      <c r="K61" t="n">
-        <v>39.36333333333333</v>
-      </c>
-      <c r="L61" t="n">
         <v>3616.548333333334</v>
       </c>
     </row>
@@ -3152,30 +2782,24 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>2</v>
+        <v>21.5</v>
       </c>
       <c r="E62" t="n">
-        <v>21.5</v>
+        <v>81.33333333333333</v>
       </c>
       <c r="F62" t="n">
-        <v>19.5</v>
+        <v>79.31954722984386</v>
       </c>
       <c r="G62" t="n">
-        <v>81.33333333333333</v>
+        <v>70.70978119662193</v>
       </c>
       <c r="H62" t="n">
-        <v>79.31954722984386</v>
+        <v>26.805</v>
       </c>
       <c r="I62" t="n">
-        <v>70.70978119662193</v>
+        <v>36.675</v>
       </c>
       <c r="J62" t="n">
-        <v>26.805</v>
-      </c>
-      <c r="K62" t="n">
-        <v>36.675</v>
-      </c>
-      <c r="L62" t="n">
         <v>3543.125833333334</v>
       </c>
     </row>
@@ -3196,30 +2820,24 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>2</v>
+        <v>21.6</v>
       </c>
       <c r="E63" t="n">
-        <v>21.6</v>
+        <v>79.46666666666667</v>
       </c>
       <c r="F63" t="n">
-        <v>19.6</v>
+        <v>76.76665114205389</v>
       </c>
       <c r="G63" t="n">
-        <v>79.46666666666667</v>
+        <v>68.43064816145905</v>
       </c>
       <c r="H63" t="n">
-        <v>76.76665114205389</v>
+        <v>26.75666666666666</v>
       </c>
       <c r="I63" t="n">
-        <v>68.43064816145905</v>
+        <v>39.37066666666666</v>
       </c>
       <c r="J63" t="n">
-        <v>26.75666666666666</v>
-      </c>
-      <c r="K63" t="n">
-        <v>39.37066666666666</v>
-      </c>
-      <c r="L63" t="n">
         <v>3621.497333333333</v>
       </c>
     </row>
@@ -3240,30 +2858,24 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>2</v>
+        <v>22.2</v>
       </c>
       <c r="E64" t="n">
-        <v>22.2</v>
+        <v>79.85000000000001</v>
       </c>
       <c r="F64" t="n">
-        <v>20.2</v>
+        <v>78.66913822921286</v>
       </c>
       <c r="G64" t="n">
-        <v>79.85000000000001</v>
+        <v>70.56072097701217</v>
       </c>
       <c r="H64" t="n">
-        <v>78.66913822921286</v>
+        <v>26.57083333333334</v>
       </c>
       <c r="I64" t="n">
-        <v>70.56072097701217</v>
+        <v>37.986</v>
       </c>
       <c r="J64" t="n">
-        <v>26.57083333333334</v>
-      </c>
-      <c r="K64" t="n">
-        <v>37.986</v>
-      </c>
-      <c r="L64" t="n">
         <v>3516.0165</v>
       </c>
     </row>
@@ -3284,30 +2896,24 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>2</v>
+        <v>23.13333333333334</v>
       </c>
       <c r="E65" t="n">
-        <v>23.13333333333334</v>
+        <v>80.39999999999999</v>
       </c>
       <c r="F65" t="n">
-        <v>21.13333333333334</v>
+        <v>77.11152692516653</v>
       </c>
       <c r="G65" t="n">
-        <v>80.39999999999999</v>
+        <v>71.0771882252003</v>
       </c>
       <c r="H65" t="n">
-        <v>77.11152692516653</v>
+        <v>26.78983333333333</v>
       </c>
       <c r="I65" t="n">
-        <v>71.0771882252003</v>
+        <v>36.69216666666667</v>
       </c>
       <c r="J65" t="n">
-        <v>26.78983333333333</v>
-      </c>
-      <c r="K65" t="n">
-        <v>36.69216666666667</v>
-      </c>
-      <c r="L65" t="n">
         <v>3458.7005</v>
       </c>
     </row>
@@ -3328,30 +2934,24 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>2</v>
+        <v>19.86666666666667</v>
       </c>
       <c r="E66" t="n">
-        <v>19.86666666666667</v>
+        <v>82.3</v>
       </c>
       <c r="F66" t="n">
-        <v>17.86666666666667</v>
+        <v>79.92414069210695</v>
       </c>
       <c r="G66" t="n">
-        <v>82.3</v>
+        <v>70.94910584287184</v>
       </c>
       <c r="H66" t="n">
-        <v>79.92414069210695</v>
+        <v>27.35233333333333</v>
       </c>
       <c r="I66" t="n">
-        <v>70.94910584287184</v>
+        <v>39.30583333333333</v>
       </c>
       <c r="J66" t="n">
-        <v>27.35233333333333</v>
-      </c>
-      <c r="K66" t="n">
-        <v>39.30583333333333</v>
-      </c>
-      <c r="L66" t="n">
         <v>3727.332666666667</v>
       </c>
     </row>
@@ -3372,30 +2972,24 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>2</v>
+        <v>21.03333333333333</v>
       </c>
       <c r="E67" t="n">
-        <v>21.03333333333333</v>
+        <v>80.98333333333333</v>
       </c>
       <c r="F67" t="n">
-        <v>19.03333333333333</v>
+        <v>77.56666873279346</v>
       </c>
       <c r="G67" t="n">
-        <v>80.98333333333333</v>
+        <v>70.65116978032809</v>
       </c>
       <c r="H67" t="n">
-        <v>77.56666873279346</v>
+        <v>27.45366666666666</v>
       </c>
       <c r="I67" t="n">
-        <v>70.65116978032809</v>
+        <v>40.48983333333333</v>
       </c>
       <c r="J67" t="n">
-        <v>27.45366666666666</v>
-      </c>
-      <c r="K67" t="n">
-        <v>40.48983333333333</v>
-      </c>
-      <c r="L67" t="n">
         <v>3711.784166666666</v>
       </c>
     </row>
@@ -3416,30 +3010,24 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>2</v>
+        <v>24.3</v>
       </c>
       <c r="E68" t="n">
-        <v>24.3</v>
+        <v>77.98333333333333</v>
       </c>
       <c r="F68" t="n">
-        <v>22.3</v>
+        <v>75.55410925023875</v>
       </c>
       <c r="G68" t="n">
-        <v>77.98333333333333</v>
+        <v>70.44368373505968</v>
       </c>
       <c r="H68" t="n">
-        <v>75.55410925023875</v>
+        <v>26.3605</v>
       </c>
       <c r="I68" t="n">
-        <v>70.44368373505968</v>
+        <v>38.04983333333333</v>
       </c>
       <c r="J68" t="n">
-        <v>26.3605</v>
-      </c>
-      <c r="K68" t="n">
-        <v>38.04983333333333</v>
-      </c>
-      <c r="L68" t="n">
         <v>3306.247833333333</v>
       </c>
     </row>
@@ -3460,30 +3048,24 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>2</v>
+        <v>31.43333333333333</v>
       </c>
       <c r="E69" t="n">
-        <v>31.43333333333333</v>
+        <v>60.45</v>
       </c>
       <c r="F69" t="n">
-        <v>29.43333333333333</v>
+        <v>59.35089637398121</v>
       </c>
       <c r="G69" t="n">
-        <v>60.45</v>
+        <v>57.39652515311019</v>
       </c>
       <c r="H69" t="n">
-        <v>59.35089637398121</v>
+        <v>19.29366666666667</v>
       </c>
       <c r="I69" t="n">
-        <v>57.39652515311019</v>
+        <v>22.49733333333333</v>
       </c>
       <c r="J69" t="n">
-        <v>19.29366666666667</v>
-      </c>
-      <c r="K69" t="n">
-        <v>22.49733333333333</v>
-      </c>
-      <c r="L69" t="n">
         <v>1915.662833333333</v>
       </c>
     </row>
@@ -3504,30 +3086,24 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>2</v>
+        <v>20.66666666666667</v>
       </c>
       <c r="E70" t="n">
-        <v>20.66666666666667</v>
+        <v>71.68333333333334</v>
       </c>
       <c r="F70" t="n">
-        <v>18.66666666666667</v>
+        <v>69.02646326899907</v>
       </c>
       <c r="G70" t="n">
-        <v>71.68333333333334</v>
+        <v>64.81943895550347</v>
       </c>
       <c r="H70" t="n">
-        <v>69.02646326899907</v>
+        <v>22.75933333333333</v>
       </c>
       <c r="I70" t="n">
-        <v>64.81943895550347</v>
+        <v>35.12483333333333</v>
       </c>
       <c r="J70" t="n">
-        <v>22.75933333333333</v>
-      </c>
-      <c r="K70" t="n">
-        <v>35.12483333333333</v>
-      </c>
-      <c r="L70" t="n">
         <v>2854.642333333333</v>
       </c>
     </row>
@@ -3548,30 +3124,24 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>2</v>
+        <v>24.26666666666667</v>
       </c>
       <c r="E71" t="n">
-        <v>24.26666666666667</v>
+        <v>57.9111111111111</v>
       </c>
       <c r="F71" t="n">
-        <v>22.26666666666667</v>
+        <v>56.055991873925</v>
       </c>
       <c r="G71" t="n">
-        <v>57.9111111111111</v>
+        <v>54.71452312104089</v>
       </c>
       <c r="H71" t="n">
-        <v>56.055991873925</v>
+        <v>17.92288888888889</v>
       </c>
       <c r="I71" t="n">
-        <v>54.71452312104089</v>
+        <v>29.29933333333333</v>
       </c>
       <c r="J71" t="n">
-        <v>17.92288888888889</v>
-      </c>
-      <c r="K71" t="n">
-        <v>29.29933333333333</v>
-      </c>
-      <c r="L71" t="n">
         <v>2193.454222222222</v>
       </c>
     </row>
@@ -3592,30 +3162,24 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>2</v>
+        <v>20.88888888888889</v>
       </c>
       <c r="E72" t="n">
-        <v>20.88888888888889</v>
+        <v>62.54444444444444</v>
       </c>
       <c r="F72" t="n">
-        <v>18.88888888888889</v>
+        <v>61.62135440775844</v>
       </c>
       <c r="G72" t="n">
-        <v>62.54444444444444</v>
+        <v>57.15808554771505</v>
       </c>
       <c r="H72" t="n">
-        <v>61.62135440775844</v>
+        <v>19.91183333333333</v>
       </c>
       <c r="I72" t="n">
-        <v>57.15808554771505</v>
+        <v>37.37327777777778</v>
       </c>
       <c r="J72" t="n">
-        <v>19.91183333333333</v>
-      </c>
-      <c r="K72" t="n">
-        <v>37.37327777777778</v>
-      </c>
-      <c r="L72" t="n">
         <v>2599.274722222222</v>
       </c>
     </row>
@@ -3636,30 +3200,24 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>2</v>
+        <v>20.93333333333333</v>
       </c>
       <c r="E73" t="n">
-        <v>20.93333333333333</v>
+        <v>68.53333333333333</v>
       </c>
       <c r="F73" t="n">
-        <v>18.93333333333333</v>
+        <v>66.42214097068572</v>
       </c>
       <c r="G73" t="n">
-        <v>68.53333333333333</v>
+        <v>62.11630600265687</v>
       </c>
       <c r="H73" t="n">
-        <v>66.42214097068572</v>
+        <v>21.63233333333333</v>
       </c>
       <c r="I73" t="n">
-        <v>62.11630600265687</v>
+        <v>35.24483333333333</v>
       </c>
       <c r="J73" t="n">
-        <v>21.63233333333333</v>
-      </c>
-      <c r="K73" t="n">
-        <v>35.24483333333333</v>
-      </c>
-      <c r="L73" t="n">
         <v>2787.589333333333</v>
       </c>
     </row>
@@ -3680,30 +3238,24 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>2</v>
+        <v>26.53333333333333</v>
       </c>
       <c r="E74" t="n">
-        <v>26.53333333333333</v>
+        <v>60.15</v>
       </c>
       <c r="F74" t="n">
-        <v>24.53333333333333</v>
+        <v>59.58655089832959</v>
       </c>
       <c r="G74" t="n">
-        <v>60.15</v>
+        <v>56.68854672823742</v>
       </c>
       <c r="H74" t="n">
-        <v>59.58655089832959</v>
+        <v>19.03633333333334</v>
       </c>
       <c r="I74" t="n">
-        <v>56.68854672823742</v>
+        <v>29.41866666666667</v>
       </c>
       <c r="J74" t="n">
-        <v>19.03633333333334</v>
-      </c>
-      <c r="K74" t="n">
-        <v>29.41866666666667</v>
-      </c>
-      <c r="L74" t="n">
         <v>2173.453</v>
       </c>
     </row>
@@ -3724,30 +3276,24 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>2</v>
+        <v>18.93333333333333</v>
       </c>
       <c r="E75" t="n">
-        <v>18.93333333333333</v>
+        <v>69.75</v>
       </c>
       <c r="F75" t="n">
-        <v>16.93333333333333</v>
+        <v>67.96498247054319</v>
       </c>
       <c r="G75" t="n">
-        <v>69.75</v>
+        <v>63.03764416908248</v>
       </c>
       <c r="H75" t="n">
-        <v>67.96498247054319</v>
+        <v>21.92083333333333</v>
       </c>
       <c r="I75" t="n">
-        <v>63.03764416908248</v>
+        <v>34.01816666666667</v>
       </c>
       <c r="J75" t="n">
-        <v>21.92083333333333</v>
-      </c>
-      <c r="K75" t="n">
-        <v>34.01816666666667</v>
-      </c>
-      <c r="L75" t="n">
         <v>2879.937666666667</v>
       </c>
     </row>
@@ -3768,30 +3314,24 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>2.166666666666667</v>
+        <v>23.86666666666666</v>
       </c>
       <c r="E76" t="n">
-        <v>23.86666666666666</v>
+        <v>58.53333333333333</v>
       </c>
       <c r="F76" t="n">
-        <v>21.7</v>
+        <v>57.00309150386254</v>
       </c>
       <c r="G76" t="n">
-        <v>58.53333333333333</v>
+        <v>55.11503947211997</v>
       </c>
       <c r="H76" t="n">
-        <v>57.00309150386254</v>
+        <v>18.45366666666667</v>
       </c>
       <c r="I76" t="n">
-        <v>55.11503947211997</v>
+        <v>29.103</v>
       </c>
       <c r="J76" t="n">
-        <v>18.45366666666667</v>
-      </c>
-      <c r="K76" t="n">
-        <v>29.103</v>
-      </c>
-      <c r="L76" t="n">
         <v>2216.711666666667</v>
       </c>
     </row>
@@ -3812,30 +3352,24 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>2</v>
+        <v>25.26666666666667</v>
       </c>
       <c r="E77" t="n">
-        <v>25.26666666666667</v>
+        <v>55.11666666666667</v>
       </c>
       <c r="F77" t="n">
-        <v>23.26666666666667</v>
+        <v>52.97367000361578</v>
       </c>
       <c r="G77" t="n">
-        <v>55.11666666666667</v>
+        <v>49.04131414135795</v>
       </c>
       <c r="H77" t="n">
-        <v>52.97367000361578</v>
+        <v>17.43583333333333</v>
       </c>
       <c r="I77" t="n">
-        <v>49.04131414135795</v>
+        <v>29.968</v>
       </c>
       <c r="J77" t="n">
-        <v>17.43583333333333</v>
-      </c>
-      <c r="K77" t="n">
-        <v>29.968</v>
-      </c>
-      <c r="L77" t="n">
         <v>1981.3385</v>
       </c>
     </row>
@@ -3856,30 +3390,24 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>2</v>
+        <v>22.56666666666667</v>
       </c>
       <c r="E78" t="n">
-        <v>22.56666666666667</v>
+        <v>60.48333333333333</v>
       </c>
       <c r="F78" t="n">
-        <v>20.56666666666667</v>
+        <v>58.15483363535318</v>
       </c>
       <c r="G78" t="n">
-        <v>60.48333333333333</v>
+        <v>54.35035909692161</v>
       </c>
       <c r="H78" t="n">
-        <v>58.15483363535318</v>
+        <v>19.4455</v>
       </c>
       <c r="I78" t="n">
-        <v>54.35035909692161</v>
+        <v>35.30633333333333</v>
       </c>
       <c r="J78" t="n">
-        <v>19.4455</v>
-      </c>
-      <c r="K78" t="n">
-        <v>35.30633333333333</v>
-      </c>
-      <c r="L78" t="n">
         <v>2508.3215</v>
       </c>
     </row>
@@ -3900,30 +3428,24 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>2</v>
+        <v>22.1</v>
       </c>
       <c r="E79" t="n">
-        <v>22.1</v>
+        <v>53.51666666666667</v>
       </c>
       <c r="F79" t="n">
-        <v>20.1</v>
+        <v>52.41648792551927</v>
       </c>
       <c r="G79" t="n">
-        <v>53.51666666666667</v>
+        <v>49.70013831692535</v>
       </c>
       <c r="H79" t="n">
-        <v>52.41648792551927</v>
+        <v>16.8435</v>
       </c>
       <c r="I79" t="n">
-        <v>49.70013831692535</v>
+        <v>33.34933333333333</v>
       </c>
       <c r="J79" t="n">
-        <v>16.8435</v>
-      </c>
-      <c r="K79" t="n">
-        <v>33.34933333333333</v>
-      </c>
-      <c r="L79" t="n">
         <v>2071.287</v>
       </c>
     </row>
@@ -3944,30 +3466,24 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2</v>
+        <v>27.36666666666666</v>
       </c>
       <c r="E80" t="n">
-        <v>27.36666666666666</v>
+        <v>52.7</v>
       </c>
       <c r="F80" t="n">
-        <v>25.36666666666666</v>
+        <v>51.31019285765792</v>
       </c>
       <c r="G80" t="n">
-        <v>52.7</v>
+        <v>50.01853813021984</v>
       </c>
       <c r="H80" t="n">
-        <v>51.31019285765792</v>
+        <v>16.60766666666667</v>
       </c>
       <c r="I80" t="n">
-        <v>50.01853813021984</v>
+        <v>27.19488888888889</v>
       </c>
       <c r="J80" t="n">
-        <v>16.60766666666667</v>
-      </c>
-      <c r="K80" t="n">
-        <v>27.19488888888889</v>
-      </c>
-      <c r="L80" t="n">
         <v>1795.862833333333</v>
       </c>
     </row>
@@ -3988,30 +3504,24 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="E81" t="n">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="F81" t="n">
-        <v>21</v>
+        <v>65.3186979316705</v>
       </c>
       <c r="G81" t="n">
-        <v>68</v>
+        <v>61.17973243854885</v>
       </c>
       <c r="H81" t="n">
-        <v>65.3186979316705</v>
+        <v>21.5005</v>
       </c>
       <c r="I81" t="n">
-        <v>61.17973243854885</v>
+        <v>34.39566666666667</v>
       </c>
       <c r="J81" t="n">
-        <v>21.5005</v>
-      </c>
-      <c r="K81" t="n">
-        <v>34.39566666666667</v>
-      </c>
-      <c r="L81" t="n">
         <v>2779.012666666667</v>
       </c>
     </row>
@@ -4032,30 +3542,24 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>2</v>
+        <v>24.26666666666667</v>
       </c>
       <c r="E82" t="n">
-        <v>24.26666666666667</v>
+        <v>56.35</v>
       </c>
       <c r="F82" t="n">
-        <v>22.26666666666667</v>
+        <v>54.73281326342117</v>
       </c>
       <c r="G82" t="n">
-        <v>56.35</v>
+        <v>51.11821305416195</v>
       </c>
       <c r="H82" t="n">
-        <v>54.73281326342117</v>
+        <v>18.115</v>
       </c>
       <c r="I82" t="n">
-        <v>51.11821305416195</v>
+        <v>32.768</v>
       </c>
       <c r="J82" t="n">
-        <v>18.115</v>
-      </c>
-      <c r="K82" t="n">
-        <v>32.768</v>
-      </c>
-      <c r="L82" t="n">
         <v>2177.319333333333</v>
       </c>
     </row>
@@ -4076,30 +3580,24 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>2</v>
+        <v>25.53333333333333</v>
       </c>
       <c r="E83" t="n">
-        <v>25.53333333333333</v>
+        <v>61.9</v>
       </c>
       <c r="F83" t="n">
-        <v>23.53333333333333</v>
+        <v>59.96353627992578</v>
       </c>
       <c r="G83" t="n">
-        <v>61.9</v>
+        <v>56.84167115292117</v>
       </c>
       <c r="H83" t="n">
-        <v>59.96353627992578</v>
+        <v>19.2595</v>
       </c>
       <c r="I83" t="n">
-        <v>56.84167115292117</v>
+        <v>-126788.3926666667</v>
       </c>
       <c r="J83" t="n">
-        <v>19.2595</v>
-      </c>
-      <c r="K83" t="n">
-        <v>-126788.3926666667</v>
-      </c>
-      <c r="L83" t="n">
         <v>2282.429</v>
       </c>
     </row>
@@ -4120,30 +3618,24 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="E84" t="n">
-        <v>24</v>
+        <v>64.2</v>
       </c>
       <c r="F84" t="n">
-        <v>22</v>
+        <v>61.83464937782679</v>
       </c>
       <c r="G84" t="n">
-        <v>64.2</v>
+        <v>58.89906483830288</v>
       </c>
       <c r="H84" t="n">
-        <v>61.83464937782679</v>
+        <v>20.18133333333333</v>
       </c>
       <c r="I84" t="n">
-        <v>58.89906483830288</v>
+        <v>37.982</v>
       </c>
       <c r="J84" t="n">
-        <v>20.18133333333333</v>
-      </c>
-      <c r="K84" t="n">
-        <v>37.982</v>
-      </c>
-      <c r="L84" t="n">
         <v>2539.41</v>
       </c>
     </row>
@@ -4164,30 +3656,24 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>2</v>
+        <v>26.16666666666667</v>
       </c>
       <c r="E85" t="n">
-        <v>26.16666666666667</v>
+        <v>54.56666666666666</v>
       </c>
       <c r="F85" t="n">
-        <v>24.16666666666667</v>
+        <v>52.35977482089839</v>
       </c>
       <c r="G85" t="n">
-        <v>54.56666666666666</v>
+        <v>48.67316143943572</v>
       </c>
       <c r="H85" t="n">
-        <v>52.35977482089839</v>
+        <v>17.56283333333333</v>
       </c>
       <c r="I85" t="n">
-        <v>48.67316143943572</v>
+        <v>29.8405</v>
       </c>
       <c r="J85" t="n">
-        <v>17.56283333333333</v>
-      </c>
-      <c r="K85" t="n">
-        <v>29.8405</v>
-      </c>
-      <c r="L85" t="n">
         <v>1988.5615</v>
       </c>
     </row>
@@ -4208,30 +3694,24 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>2.166666666666667</v>
+        <v>27.05555555555556</v>
       </c>
       <c r="E86" t="n">
-        <v>27.05555555555556</v>
+        <v>41.90555555555556</v>
       </c>
       <c r="F86" t="n">
-        <v>24.88888888888889</v>
+        <v>41.14130545101904</v>
       </c>
       <c r="G86" t="n">
-        <v>41.90555555555556</v>
+        <v>37.4716258766584</v>
       </c>
       <c r="H86" t="n">
-        <v>41.14130545101904</v>
+        <v>13.03705555555555</v>
       </c>
       <c r="I86" t="n">
-        <v>37.4716258766584</v>
+        <v>24.96911111111111</v>
       </c>
       <c r="J86" t="n">
-        <v>13.03705555555555</v>
-      </c>
-      <c r="K86" t="n">
-        <v>24.96911111111111</v>
-      </c>
-      <c r="L86" t="n">
         <v>1527.517444444444</v>
       </c>
     </row>
@@ -4252,30 +3732,24 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>2</v>
+        <v>27.4</v>
       </c>
       <c r="E87" t="n">
-        <v>27.4</v>
+        <v>47.4</v>
       </c>
       <c r="F87" t="n">
-        <v>25.4</v>
+        <v>46.92798443784317</v>
       </c>
       <c r="G87" t="n">
-        <v>47.4</v>
+        <v>45.61395482597632</v>
       </c>
       <c r="H87" t="n">
-        <v>46.92798443784317</v>
+        <v>15.39416666666667</v>
       </c>
       <c r="I87" t="n">
-        <v>45.61395482597632</v>
+        <v>27.79033333333333</v>
       </c>
       <c r="J87" t="n">
-        <v>15.39416666666667</v>
-      </c>
-      <c r="K87" t="n">
-        <v>27.79033333333333</v>
-      </c>
-      <c r="L87" t="n">
         <v>1822.603833333333</v>
       </c>
     </row>
@@ -4296,30 +3770,24 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>2</v>
+        <v>27.8</v>
       </c>
       <c r="E88" t="n">
-        <v>27.8</v>
+        <v>42.85</v>
       </c>
       <c r="F88" t="n">
-        <v>25.8</v>
+        <v>42.12955740612863</v>
       </c>
       <c r="G88" t="n">
-        <v>42.85</v>
+        <v>40.93650910180641</v>
       </c>
       <c r="H88" t="n">
-        <v>42.12955740612863</v>
+        <v>14.05416666666667</v>
       </c>
       <c r="I88" t="n">
-        <v>40.93650910180641</v>
+        <v>28.94833333333333</v>
       </c>
       <c r="J88" t="n">
-        <v>14.05416666666667</v>
-      </c>
-      <c r="K88" t="n">
-        <v>28.94833333333333</v>
-      </c>
-      <c r="L88" t="n">
         <v>1673.443833333333</v>
       </c>
     </row>
@@ -4340,30 +3808,24 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>2</v>
+        <v>27.23333333333333</v>
       </c>
       <c r="E89" t="n">
-        <v>27.23333333333333</v>
+        <v>48.01666666666667</v>
       </c>
       <c r="F89" t="n">
-        <v>25.23333333333333</v>
+        <v>47.47126967508503</v>
       </c>
       <c r="G89" t="n">
-        <v>48.01666666666667</v>
+        <v>46.3521798930671</v>
       </c>
       <c r="H89" t="n">
-        <v>47.47126967508503</v>
+        <v>15.96</v>
       </c>
       <c r="I89" t="n">
-        <v>46.3521798930671</v>
+        <v>31.63366666666667</v>
       </c>
       <c r="J89" t="n">
-        <v>15.96</v>
-      </c>
-      <c r="K89" t="n">
-        <v>31.63366666666667</v>
-      </c>
-      <c r="L89" t="n">
         <v>1936.378166666667</v>
       </c>
     </row>
@@ -4384,30 +3846,24 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>2</v>
+        <v>24.73333333333333</v>
       </c>
       <c r="E90" t="n">
-        <v>24.73333333333333</v>
+        <v>46.25</v>
       </c>
       <c r="F90" t="n">
-        <v>22.73333333333333</v>
+        <v>45.32450223969855</v>
       </c>
       <c r="G90" t="n">
-        <v>46.25</v>
+        <v>42.79865269600483</v>
       </c>
       <c r="H90" t="n">
-        <v>45.32450223969855</v>
+        <v>15.5335</v>
       </c>
       <c r="I90" t="n">
-        <v>42.79865269600483</v>
+        <v>33.77083333333334</v>
       </c>
       <c r="J90" t="n">
-        <v>15.5335</v>
-      </c>
-      <c r="K90" t="n">
-        <v>33.77083333333334</v>
-      </c>
-      <c r="L90" t="n">
         <v>1957.886</v>
       </c>
     </row>
@@ -4428,30 +3884,24 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>2</v>
+        <v>28.46666666666667</v>
       </c>
       <c r="E91" t="n">
-        <v>28.46666666666667</v>
+        <v>45.86666666666667</v>
       </c>
       <c r="F91" t="n">
-        <v>26.46666666666667</v>
+        <v>45.3295572502293</v>
       </c>
       <c r="G91" t="n">
-        <v>45.86666666666667</v>
+        <v>44.36749589222101</v>
       </c>
       <c r="H91" t="n">
-        <v>45.3295572502293</v>
+        <v>15.04783333333333</v>
       </c>
       <c r="I91" t="n">
-        <v>44.36749589222101</v>
+        <v>27.11166666666666</v>
       </c>
       <c r="J91" t="n">
-        <v>15.04783333333333</v>
-      </c>
-      <c r="K91" t="n">
-        <v>27.11166666666666</v>
-      </c>
-      <c r="L91" t="n">
         <v>1625.9235</v>
       </c>
     </row>
@@ -4472,30 +3922,24 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>2</v>
+        <v>26.53333333333333</v>
       </c>
       <c r="E92" t="n">
-        <v>26.53333333333333</v>
+        <v>45.83333333333334</v>
       </c>
       <c r="F92" t="n">
-        <v>24.53333333333333</v>
+        <v>45.18807369950073</v>
       </c>
       <c r="G92" t="n">
-        <v>45.83333333333334</v>
+        <v>44.00267088546648</v>
       </c>
       <c r="H92" t="n">
-        <v>45.18807369950073</v>
+        <v>14.8245</v>
       </c>
       <c r="I92" t="n">
-        <v>44.00267088546648</v>
+        <v>29.74133333333333</v>
       </c>
       <c r="J92" t="n">
-        <v>14.8245</v>
-      </c>
-      <c r="K92" t="n">
-        <v>29.74133333333333</v>
-      </c>
-      <c r="L92" t="n">
         <v>1823.981666666667</v>
       </c>
     </row>
@@ -4516,30 +3960,24 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2</v>
+        <v>29.33333333333333</v>
       </c>
       <c r="E93" t="n">
-        <v>29.33333333333333</v>
+        <v>42.7</v>
       </c>
       <c r="F93" t="n">
-        <v>27.33333333333333</v>
+        <v>42.36508293038484</v>
       </c>
       <c r="G93" t="n">
-        <v>42.7</v>
+        <v>40.04755291943449</v>
       </c>
       <c r="H93" t="n">
-        <v>42.36508293038484</v>
+        <v>13.89016666666667</v>
       </c>
       <c r="I93" t="n">
-        <v>40.04755291943449</v>
+        <v>26.72916666666667</v>
       </c>
       <c r="J93" t="n">
-        <v>13.89016666666667</v>
-      </c>
-      <c r="K93" t="n">
-        <v>26.72916666666667</v>
-      </c>
-      <c r="L93" t="n">
         <v>1522.600666666666</v>
       </c>
     </row>
@@ -4560,30 +3998,24 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>2</v>
+        <v>28.93333333333333</v>
       </c>
       <c r="E94" t="n">
-        <v>28.93333333333333</v>
+        <v>42.46666666666667</v>
       </c>
       <c r="F94" t="n">
-        <v>26.93333333333333</v>
+        <v>41.90372639488658</v>
       </c>
       <c r="G94" t="n">
-        <v>42.46666666666667</v>
+        <v>41.05926527640194</v>
       </c>
       <c r="H94" t="n">
-        <v>41.90372639488658</v>
+        <v>13.62466666666667</v>
       </c>
       <c r="I94" t="n">
-        <v>41.05926527640194</v>
+        <v>28.04933333333333</v>
       </c>
       <c r="J94" t="n">
-        <v>13.62466666666667</v>
-      </c>
-      <c r="K94" t="n">
-        <v>28.04933333333333</v>
-      </c>
-      <c r="L94" t="n">
         <v>1604.393333333333</v>
       </c>
     </row>
@@ -4604,30 +4036,24 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>2</v>
+        <v>29.3</v>
       </c>
       <c r="E95" t="n">
-        <v>29.3</v>
+        <v>41.5</v>
       </c>
       <c r="F95" t="n">
-        <v>27.3</v>
+        <v>40.71978925046619</v>
       </c>
       <c r="G95" t="n">
-        <v>41.5</v>
+        <v>39.51289772603908</v>
       </c>
       <c r="H95" t="n">
-        <v>40.71978925046619</v>
+        <v>13.258</v>
       </c>
       <c r="I95" t="n">
-        <v>39.51289772603908</v>
+        <v>24.566</v>
       </c>
       <c r="J95" t="n">
-        <v>13.258</v>
-      </c>
-      <c r="K95" t="n">
-        <v>24.566</v>
-      </c>
-      <c r="L95" t="n">
         <v>1389.657166666667</v>
       </c>
     </row>
@@ -4648,30 +4074,24 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>2</v>
+        <v>24.1</v>
       </c>
       <c r="E96" t="n">
-        <v>24.1</v>
+        <v>43.5</v>
       </c>
       <c r="F96" t="n">
-        <v>22.1</v>
+        <v>42.51831282142552</v>
       </c>
       <c r="G96" t="n">
-        <v>43.5</v>
+        <v>40.64519480370762</v>
       </c>
       <c r="H96" t="n">
-        <v>42.51831282142552</v>
+        <v>14.65616666666667</v>
       </c>
       <c r="I96" t="n">
-        <v>40.64519480370762</v>
+        <v>34.49016666666667</v>
       </c>
       <c r="J96" t="n">
-        <v>14.65616666666667</v>
-      </c>
-      <c r="K96" t="n">
-        <v>34.49016666666667</v>
-      </c>
-      <c r="L96" t="n">
         <v>2003.311833333333</v>
       </c>
     </row>
@@ -4692,30 +4112,24 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>2</v>
+        <v>27.8</v>
       </c>
       <c r="E97" t="n">
-        <v>27.8</v>
+        <v>41.46666666666667</v>
       </c>
       <c r="F97" t="n">
-        <v>25.8</v>
+        <v>40.99787502038855</v>
       </c>
       <c r="G97" t="n">
-        <v>41.46666666666667</v>
+        <v>40.09132813181654</v>
       </c>
       <c r="H97" t="n">
-        <v>40.99787502038855</v>
+        <v>13.30816666666667</v>
       </c>
       <c r="I97" t="n">
-        <v>40.09132813181654</v>
+        <v>27.88477777777778</v>
       </c>
       <c r="J97" t="n">
-        <v>13.30816666666667</v>
-      </c>
-      <c r="K97" t="n">
-        <v>27.88477777777778</v>
-      </c>
-      <c r="L97" t="n">
         <v>1647.409444444444</v>
       </c>
     </row>
@@ -4736,30 +4150,24 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>2</v>
+        <v>28.33333333333333</v>
       </c>
       <c r="E98" t="n">
-        <v>28.33333333333333</v>
+        <v>45.16666666666666</v>
       </c>
       <c r="F98" t="n">
-        <v>26.33333333333333</v>
+        <v>44.75009159552517</v>
       </c>
       <c r="G98" t="n">
-        <v>45.16666666666666</v>
+        <v>42.95721369518867</v>
       </c>
       <c r="H98" t="n">
-        <v>44.75009159552517</v>
+        <v>14.84416666666667</v>
       </c>
       <c r="I98" t="n">
-        <v>42.95721369518867</v>
+        <v>30.85083333333333</v>
       </c>
       <c r="J98" t="n">
-        <v>14.84416666666667</v>
-      </c>
-      <c r="K98" t="n">
-        <v>30.85083333333333</v>
-      </c>
-      <c r="L98" t="n">
         <v>1696.2425</v>
       </c>
     </row>
@@ -4780,30 +4188,24 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>2</v>
+        <v>30.1</v>
       </c>
       <c r="E99" t="n">
-        <v>30.1</v>
+        <v>41.23333333333333</v>
       </c>
       <c r="F99" t="n">
-        <v>28.1</v>
+        <v>40.0135996099614</v>
       </c>
       <c r="G99" t="n">
-        <v>41.23333333333333</v>
+        <v>39.60912395422269</v>
       </c>
       <c r="H99" t="n">
-        <v>40.0135996099614</v>
+        <v>13.49966666666667</v>
       </c>
       <c r="I99" t="n">
-        <v>39.60912395422269</v>
+        <v>28.01283333333333</v>
       </c>
       <c r="J99" t="n">
-        <v>13.49966666666667</v>
-      </c>
-      <c r="K99" t="n">
-        <v>28.01283333333333</v>
-      </c>
-      <c r="L99" t="n">
         <v>1524.866666666667</v>
       </c>
     </row>
@@ -4824,30 +4226,24 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>2</v>
+        <v>31.2</v>
       </c>
       <c r="E100" t="n">
-        <v>31.2</v>
+        <v>41.91666666666666</v>
       </c>
       <c r="F100" t="n">
-        <v>29.2</v>
+        <v>40.98424187912538</v>
       </c>
       <c r="G100" t="n">
-        <v>41.91666666666666</v>
+        <v>39.5184858911814</v>
       </c>
       <c r="H100" t="n">
-        <v>40.98424187912538</v>
+        <v>13.62983333333333</v>
       </c>
       <c r="I100" t="n">
-        <v>39.5184858911814</v>
+        <v>24.61733333333333</v>
       </c>
       <c r="J100" t="n">
-        <v>13.62983333333333</v>
-      </c>
-      <c r="K100" t="n">
-        <v>24.61733333333333</v>
-      </c>
-      <c r="L100" t="n">
         <v>1417.9485</v>
       </c>
     </row>
@@ -4868,30 +4264,24 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>2.266666666666667</v>
+        <v>30.66666666666667</v>
       </c>
       <c r="E101" t="n">
-        <v>30.66666666666667</v>
+        <v>40.51111111111111</v>
       </c>
       <c r="F101" t="n">
-        <v>28.4</v>
+        <v>40.35744514626162</v>
       </c>
       <c r="G101" t="n">
-        <v>40.51111111111111</v>
+        <v>39.88438139437692</v>
       </c>
       <c r="H101" t="n">
-        <v>40.35744514626162</v>
+        <v>12.87955555555556</v>
       </c>
       <c r="I101" t="n">
-        <v>39.88438139437692</v>
+        <v>24.67266666666667</v>
       </c>
       <c r="J101" t="n">
-        <v>12.87955555555556</v>
-      </c>
-      <c r="K101" t="n">
-        <v>24.67266666666667</v>
-      </c>
-      <c r="L101" t="n">
         <v>1387.026222222222</v>
       </c>
     </row>
@@ -4912,30 +4302,24 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>2</v>
+        <v>28.7</v>
       </c>
       <c r="E102" t="n">
-        <v>28.7</v>
+        <v>42.3</v>
       </c>
       <c r="F102" t="n">
-        <v>26.7</v>
+        <v>41.90557110700588</v>
       </c>
       <c r="G102" t="n">
-        <v>42.3</v>
+        <v>40.46047066530835</v>
       </c>
       <c r="H102" t="n">
-        <v>41.90557110700588</v>
+        <v>13.5465</v>
       </c>
       <c r="I102" t="n">
-        <v>40.46047066530835</v>
+        <v>26.2575</v>
       </c>
       <c r="J102" t="n">
-        <v>13.5465</v>
-      </c>
-      <c r="K102" t="n">
-        <v>26.2575</v>
-      </c>
-      <c r="L102" t="n">
         <v>1503.813</v>
       </c>
     </row>
@@ -4956,30 +4340,24 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>2</v>
+        <v>31.2</v>
       </c>
       <c r="E103" t="n">
-        <v>31.2</v>
+        <v>32.13333333333333</v>
       </c>
       <c r="F103" t="n">
-        <v>29.2</v>
+        <v>31.8428958228686</v>
       </c>
       <c r="G103" t="n">
-        <v>32.13333333333333</v>
+        <v>31.34001887254644</v>
       </c>
       <c r="H103" t="n">
-        <v>31.8428958228686</v>
+        <v>9.163666666666666</v>
       </c>
       <c r="I103" t="n">
-        <v>31.34001887254644</v>
+        <v>12.78066666666667</v>
       </c>
       <c r="J103" t="n">
-        <v>9.163666666666666</v>
-      </c>
-      <c r="K103" t="n">
-        <v>12.78066666666667</v>
-      </c>
-      <c r="L103" t="n">
         <v>831.1963333333334</v>
       </c>
     </row>

--- a/[3] Test Input/RESULTS_MTT_MERGED_DATE.xlsx
+++ b/[3] Test Input/RESULTS_MTT_MERGED_DATE.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J103"/>
+  <dimension ref="A1:I103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,11 +476,6 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>tau</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
           <t>AUC</t>
         </is>
       </c>
@@ -517,10 +512,7 @@
         <v>10.02266666666667</v>
       </c>
       <c r="I2" t="n">
-        <v>23.60016666666667</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1245.02</v>
+        <v>793.0246666666667</v>
       </c>
     </row>
     <row r="3">
@@ -555,10 +547,7 @@
         <v>10.28555555555556</v>
       </c>
       <c r="I3" t="n">
-        <v>25.45911111111111</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1210.07</v>
+        <v>779.2002222222222</v>
       </c>
     </row>
     <row r="4">
@@ -593,10 +582,7 @@
         <v>10.94666666666667</v>
       </c>
       <c r="I4" t="n">
-        <v>26.254</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1233.417333333333</v>
+        <v>812.5733333333333</v>
       </c>
     </row>
     <row r="5">
@@ -631,10 +617,7 @@
         <v>10.99533333333333</v>
       </c>
       <c r="I5" t="n">
-        <v>28.0975</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1246.010666666667</v>
+        <v>813.5198333333334</v>
       </c>
     </row>
     <row r="6">
@@ -669,10 +652,7 @@
         <v>10.34533333333333</v>
       </c>
       <c r="I6" t="n">
-        <v>22.80333333333333</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1119.82</v>
+        <v>705.6606666666667</v>
       </c>
     </row>
     <row r="7">
@@ -707,10 +687,7 @@
         <v>10.37483333333333</v>
       </c>
       <c r="I7" t="n">
-        <v>28.0915</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1244.103666666667</v>
+        <v>798.5096666666667</v>
       </c>
     </row>
     <row r="8">
@@ -745,10 +722,7 @@
         <v>8.530833333333334</v>
       </c>
       <c r="I8" t="n">
-        <v>18.01583333333333</v>
-      </c>
-      <c r="J8" t="n">
-        <v>903.7288333333332</v>
+        <v>585.8103333333333</v>
       </c>
     </row>
     <row r="9">
@@ -783,10 +757,7 @@
         <v>7.192333333333333</v>
       </c>
       <c r="I9" t="n">
-        <v>16.016</v>
-      </c>
-      <c r="J9" t="n">
-        <v>879.5341666666667</v>
+        <v>556.8953333333333</v>
       </c>
     </row>
     <row r="10">
@@ -821,10 +792,7 @@
         <v>7.442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.17666666666667</v>
-      </c>
-      <c r="J10" t="n">
-        <v>909.1833333333333</v>
+        <v>585.3706666666666</v>
       </c>
     </row>
     <row r="11">
@@ -859,10 +827,7 @@
         <v>8.1975</v>
       </c>
       <c r="I11" t="n">
-        <v>19.76316666666667</v>
-      </c>
-      <c r="J11" t="n">
-        <v>913.1138333333333</v>
+        <v>580.9415</v>
       </c>
     </row>
     <row r="12">
@@ -897,10 +862,7 @@
         <v>7.663999999999999</v>
       </c>
       <c r="I12" t="n">
-        <v>20.35622222222223</v>
-      </c>
-      <c r="J12" t="n">
-        <v>909.2613333333334</v>
+        <v>598.2139999999999</v>
       </c>
     </row>
     <row r="13">
@@ -935,10 +897,7 @@
         <v>7.567777777777778</v>
       </c>
       <c r="I13" t="n">
-        <v>18.46711111111111</v>
-      </c>
-      <c r="J13" t="n">
-        <v>884.1873333333333</v>
+        <v>602.7086666666665</v>
       </c>
     </row>
     <row r="14">
@@ -973,10 +932,7 @@
         <v>9.283333333333333</v>
       </c>
       <c r="I14" t="n">
-        <v>21.27966666666667</v>
-      </c>
-      <c r="J14" t="n">
-        <v>969.1013333333334</v>
+        <v>630.0323333333334</v>
       </c>
     </row>
     <row r="15">
@@ -1011,10 +967,7 @@
         <v>9.690222222222223</v>
       </c>
       <c r="I15" t="n">
-        <v>22.10605555555556</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1132.255111111111</v>
+        <v>730.9509999999999</v>
       </c>
     </row>
     <row r="16">
@@ -1049,10 +1002,7 @@
         <v>7.70011111111111</v>
       </c>
       <c r="I16" t="n">
-        <v>22.42383333333333</v>
-      </c>
-      <c r="J16" t="n">
-        <v>993.8810555555556</v>
+        <v>627.0068333333334</v>
       </c>
     </row>
     <row r="17">
@@ -1087,10 +1037,7 @@
         <v>8.07</v>
       </c>
       <c r="I17" t="n">
-        <v>20.28466666666667</v>
-      </c>
-      <c r="J17" t="n">
-        <v>934.4475555555556</v>
+        <v>616.0226666666666</v>
       </c>
     </row>
     <row r="18">
@@ -1125,10 +1072,7 @@
         <v>6.507666666666666</v>
       </c>
       <c r="I18" t="n">
-        <v>13.46833333333333</v>
-      </c>
-      <c r="J18" t="n">
-        <v>666.3136666666666</v>
+        <v>424.9056666666667</v>
       </c>
     </row>
     <row r="19">
@@ -1163,10 +1107,7 @@
         <v>13.40466666666667</v>
       </c>
       <c r="I19" t="n">
-        <v>27.402</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1477.728666666667</v>
+        <v>948.504</v>
       </c>
     </row>
     <row r="20">
@@ -1201,10 +1142,7 @@
         <v>13.67116666666666</v>
       </c>
       <c r="I20" t="n">
-        <v>30.0005</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1609.039833333333</v>
+        <v>1019.6175</v>
       </c>
     </row>
     <row r="21">
@@ -1239,10 +1177,7 @@
         <v>14.1775</v>
       </c>
       <c r="I21" t="n">
-        <v>29.5075</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1634.346666666667</v>
+        <v>1039.245</v>
       </c>
     </row>
     <row r="22">
@@ -1277,10 +1212,7 @@
         <v>15.85883333333333</v>
       </c>
       <c r="I22" t="n">
-        <v>30.23233333333333</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1921.428</v>
+        <v>1218.074166666667</v>
       </c>
     </row>
     <row r="23">
@@ -1315,10 +1247,7 @@
         <v>14.38</v>
       </c>
       <c r="I23" t="n">
-        <v>31.94933333333333</v>
-      </c>
-      <c r="J23" t="n">
-        <v>1806.83</v>
+        <v>1135.126</v>
       </c>
     </row>
     <row r="24">
@@ -1353,10 +1282,7 @@
         <v>11.28</v>
       </c>
       <c r="I24" t="n">
-        <v>29.66333333333333</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1329.719333333333</v>
+        <v>861.9399999999999</v>
       </c>
     </row>
     <row r="25">
@@ -1391,10 +1317,7 @@
         <v>12.00233333333333</v>
       </c>
       <c r="I25" t="n">
-        <v>27.32083333333334</v>
-      </c>
-      <c r="J25" t="n">
-        <v>1316.207333333333</v>
+        <v>830.9691666666666</v>
       </c>
     </row>
     <row r="26">
@@ -1429,10 +1352,7 @@
         <v>12.67116666666667</v>
       </c>
       <c r="I26" t="n">
-        <v>25.7315</v>
-      </c>
-      <c r="J26" t="n">
-        <v>1424.270666666667</v>
+        <v>891.9720000000001</v>
       </c>
     </row>
     <row r="27">
@@ -1467,10 +1387,7 @@
         <v>12.36816666666667</v>
       </c>
       <c r="I27" t="n">
-        <v>27.4535</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1522.314</v>
+        <v>955.4373333333333</v>
       </c>
     </row>
     <row r="28">
@@ -1505,10 +1422,7 @@
         <v>11.00716666666666</v>
       </c>
       <c r="I28" t="n">
-        <v>19.55333333333333</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1163.5565</v>
+        <v>714.8535000000001</v>
       </c>
     </row>
     <row r="29">
@@ -1543,10 +1457,7 @@
         <v>13.255</v>
       </c>
       <c r="I29" t="n">
-        <v>30.94766666666666</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1593.982</v>
+        <v>1008.737333333333</v>
       </c>
     </row>
     <row r="30">
@@ -1581,10 +1492,7 @@
         <v>11.71933333333333</v>
       </c>
       <c r="I30" t="n">
-        <v>27.99666666666667</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1418.318666666667</v>
+        <v>888.8993333333333</v>
       </c>
     </row>
     <row r="31">
@@ -1619,10 +1527,7 @@
         <v>12.33361111111111</v>
       </c>
       <c r="I31" t="n">
-        <v>30.00416666666667</v>
-      </c>
-      <c r="J31" t="n">
-        <v>1413.636111111111</v>
+        <v>883.6688888888889</v>
       </c>
     </row>
     <row r="32">
@@ -1657,10 +1562,7 @@
         <v>13.138</v>
       </c>
       <c r="I32" t="n">
-        <v>26.49916666666667</v>
-      </c>
-      <c r="J32" t="n">
-        <v>1459.802</v>
+        <v>937.4459999999999</v>
       </c>
     </row>
     <row r="33">
@@ -1695,10 +1597,7 @@
         <v>11.47266666666667</v>
       </c>
       <c r="I33" t="n">
-        <v>24.58011111111111</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1290.746666666667</v>
+        <v>847.3667777777778</v>
       </c>
     </row>
     <row r="34">
@@ -1733,10 +1632,7 @@
         <v>11.64333333333333</v>
       </c>
       <c r="I34" t="n">
-        <v>25.9875</v>
-      </c>
-      <c r="J34" t="n">
-        <v>1291.9225</v>
+        <v>835.1783333333333</v>
       </c>
     </row>
     <row r="35">
@@ -1771,10 +1667,7 @@
         <v>8.880333333333333</v>
       </c>
       <c r="I35" t="n">
-        <v>18.57283333333333</v>
-      </c>
-      <c r="J35" t="n">
-        <v>963.4423333333333</v>
+        <v>599.6086666666666</v>
       </c>
     </row>
     <row r="36">
@@ -1809,10 +1702,7 @@
         <v>31.63633333333333</v>
       </c>
       <c r="I36" t="n">
-        <v>37.29683333333333</v>
-      </c>
-      <c r="J36" t="n">
-        <v>4436.382833333333</v>
+        <v>2868.702666666666</v>
       </c>
     </row>
     <row r="37">
@@ -1847,10 +1737,7 @@
         <v>27.66933333333334</v>
       </c>
       <c r="I37" t="n">
-        <v>30.86133333333333</v>
-      </c>
-      <c r="J37" t="n">
-        <v>3439.843833333333</v>
+        <v>2305.5575</v>
       </c>
     </row>
     <row r="38">
@@ -1885,10 +1772,7 @@
         <v>25.24494444444445</v>
       </c>
       <c r="I38" t="n">
-        <v>31.40683333333333</v>
-      </c>
-      <c r="J38" t="n">
-        <v>3503.658388888889</v>
+        <v>2311.85</v>
       </c>
     </row>
     <row r="39">
@@ -1923,10 +1807,7 @@
         <v>27.27483333333333</v>
       </c>
       <c r="I39" t="n">
-        <v>33.35366666666667</v>
-      </c>
-      <c r="J39" t="n">
-        <v>3812.379666666666</v>
+        <v>2445.3675</v>
       </c>
     </row>
     <row r="40">
@@ -1961,10 +1842,7 @@
         <v>28.86333333333333</v>
       </c>
       <c r="I40" t="n">
-        <v>35.79816666666667</v>
-      </c>
-      <c r="J40" t="n">
-        <v>3811.084333333334</v>
+        <v>2526.939333333333</v>
       </c>
     </row>
     <row r="41">
@@ -1999,10 +1877,7 @@
         <v>30.09633333333333</v>
       </c>
       <c r="I41" t="n">
-        <v>40.09416666666667</v>
-      </c>
-      <c r="J41" t="n">
-        <v>4366.657</v>
+        <v>2794.202</v>
       </c>
     </row>
     <row r="42">
@@ -2037,10 +1912,7 @@
         <v>21.11383333333334</v>
       </c>
       <c r="I42" t="n">
-        <v>35.7765</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2876.293666666667</v>
+        <v>1923.6505</v>
       </c>
     </row>
     <row r="43">
@@ -2075,10 +1947,7 @@
         <v>22.2685</v>
       </c>
       <c r="I43" t="n">
-        <v>28.74866666666667</v>
-      </c>
-      <c r="J43" t="n">
-        <v>2832.712333333333</v>
+        <v>1865.1955</v>
       </c>
     </row>
     <row r="44">
@@ -2113,10 +1982,7 @@
         <v>23.18866666666667</v>
       </c>
       <c r="I44" t="n">
-        <v>30.72933333333333</v>
-      </c>
-      <c r="J44" t="n">
-        <v>3030.095333333333</v>
+        <v>1933.141333333333</v>
       </c>
     </row>
     <row r="45">
@@ -2151,10 +2017,7 @@
         <v>24.18333333333334</v>
       </c>
       <c r="I45" t="n">
-        <v>384803.8405</v>
-      </c>
-      <c r="J45" t="n">
-        <v>3464.701</v>
+        <v>2266.419333333333</v>
       </c>
     </row>
     <row r="46">
@@ -2189,10 +2052,7 @@
         <v>25.43944444444444</v>
       </c>
       <c r="I46" t="n">
-        <v>28.87</v>
-      </c>
-      <c r="J46" t="n">
-        <v>3154.207222222222</v>
+        <v>2015.238333333333</v>
       </c>
     </row>
     <row r="47">
@@ -2227,10 +2087,7 @@
         <v>22.19683333333333</v>
       </c>
       <c r="I47" t="n">
-        <v>33.84466666666667</v>
-      </c>
-      <c r="J47" t="n">
-        <v>3184.694666666666</v>
+        <v>2055.530333333334</v>
       </c>
     </row>
     <row r="48">
@@ -2265,10 +2122,7 @@
         <v>23.46866666666667</v>
       </c>
       <c r="I48" t="n">
-        <v>28.968</v>
-      </c>
-      <c r="J48" t="n">
-        <v>3098.326666666666</v>
+        <v>2023.458666666667</v>
       </c>
     </row>
     <row r="49">
@@ -2303,10 +2157,7 @@
         <v>23.92688888888889</v>
       </c>
       <c r="I49" t="n">
-        <v>27.448</v>
-      </c>
-      <c r="J49" t="n">
-        <v>3089.345777777778</v>
+        <v>2084.417111111111</v>
       </c>
     </row>
     <row r="50">
@@ -2341,10 +2192,7 @@
         <v>25.013</v>
       </c>
       <c r="I50" t="n">
-        <v>53.28300000000001</v>
-      </c>
-      <c r="J50" t="n">
-        <v>3560.214833333333</v>
+        <v>2254.177</v>
       </c>
     </row>
     <row r="51">
@@ -2379,10 +2227,7 @@
         <v>24.90333333333334</v>
       </c>
       <c r="I51" t="n">
-        <v>35.88833333333334</v>
-      </c>
-      <c r="J51" t="n">
-        <v>3602.333333333333</v>
+        <v>2299.774166666667</v>
       </c>
     </row>
     <row r="52">
@@ -2417,10 +2262,7 @@
         <v>25.0705</v>
       </c>
       <c r="I52" t="n">
-        <v>34.41661111111111</v>
-      </c>
-      <c r="J52" t="n">
-        <v>3118.456388888888</v>
+        <v>2070.358833333333</v>
       </c>
     </row>
     <row r="53">
@@ -2455,10 +2297,7 @@
         <v>28.51138888888889</v>
       </c>
       <c r="I53" t="n">
-        <v>39.38166666666667</v>
-      </c>
-      <c r="J53" t="n">
-        <v>3833.923888888889</v>
+        <v>2508.060833333333</v>
       </c>
     </row>
     <row r="54">
@@ -2493,10 +2332,7 @@
         <v>28.23866666666667</v>
       </c>
       <c r="I54" t="n">
-        <v>45.90816666666667</v>
-      </c>
-      <c r="J54" t="n">
-        <v>4114.227</v>
+        <v>2587.271</v>
       </c>
     </row>
     <row r="55">
@@ -2531,10 +2367,7 @@
         <v>27.27555555555556</v>
       </c>
       <c r="I55" t="n">
-        <v>33.61644444444445</v>
-      </c>
-      <c r="J55" t="n">
-        <v>3517.207555555556</v>
+        <v>2252.602111111111</v>
       </c>
     </row>
     <row r="56">
@@ -2569,10 +2402,7 @@
         <v>29.66033333333333</v>
       </c>
       <c r="I56" t="n">
-        <v>40.5705</v>
-      </c>
-      <c r="J56" t="n">
-        <v>4040.397333333333</v>
+        <v>2579.941166666667</v>
       </c>
     </row>
     <row r="57">
@@ -2607,10 +2437,7 @@
         <v>27.91066666666667</v>
       </c>
       <c r="I57" t="n">
-        <v>44.62933333333334</v>
-      </c>
-      <c r="J57" t="n">
-        <v>3994.671166666667</v>
+        <v>2530.8285</v>
       </c>
     </row>
     <row r="58">
@@ -2645,10 +2472,7 @@
         <v>29.818</v>
       </c>
       <c r="I58" t="n">
-        <v>34.10283333333333</v>
-      </c>
-      <c r="J58" t="n">
-        <v>3700.337333333333</v>
+        <v>2387.294</v>
       </c>
     </row>
     <row r="59">
@@ -2683,10 +2507,7 @@
         <v>26.655</v>
       </c>
       <c r="I59" t="n">
-        <v>37.254</v>
-      </c>
-      <c r="J59" t="n">
-        <v>3512.362</v>
+        <v>2292.602833333333</v>
       </c>
     </row>
     <row r="60">
@@ -2721,10 +2542,7 @@
         <v>26.96233333333333</v>
       </c>
       <c r="I60" t="n">
-        <v>40.87833333333333</v>
-      </c>
-      <c r="J60" t="n">
-        <v>3776.039166666667</v>
+        <v>2447.274</v>
       </c>
     </row>
     <row r="61">
@@ -2759,10 +2577,7 @@
         <v>27.16466666666667</v>
       </c>
       <c r="I61" t="n">
-        <v>39.36333333333333</v>
-      </c>
-      <c r="J61" t="n">
-        <v>3616.548333333334</v>
+        <v>2333.667166666667</v>
       </c>
     </row>
     <row r="62">
@@ -2797,10 +2612,7 @@
         <v>26.805</v>
       </c>
       <c r="I62" t="n">
-        <v>36.675</v>
-      </c>
-      <c r="J62" t="n">
-        <v>3543.125833333334</v>
+        <v>2293.9875</v>
       </c>
     </row>
     <row r="63">
@@ -2835,10 +2647,7 @@
         <v>26.75666666666666</v>
       </c>
       <c r="I63" t="n">
-        <v>39.37066666666666</v>
-      </c>
-      <c r="J63" t="n">
-        <v>3621.497333333333</v>
+        <v>2363.155333333334</v>
       </c>
     </row>
     <row r="64">
@@ -2873,10 +2682,7 @@
         <v>26.57083333333334</v>
       </c>
       <c r="I64" t="n">
-        <v>37.986</v>
-      </c>
-      <c r="J64" t="n">
-        <v>3516.0165</v>
+        <v>2290.923166666666</v>
       </c>
     </row>
     <row r="65">
@@ -2911,10 +2717,7 @@
         <v>26.78983333333333</v>
       </c>
       <c r="I65" t="n">
-        <v>36.69216666666667</v>
-      </c>
-      <c r="J65" t="n">
-        <v>3458.7005</v>
+        <v>2294.657833333333</v>
       </c>
     </row>
     <row r="66">
@@ -2949,10 +2752,7 @@
         <v>27.35233333333333</v>
       </c>
       <c r="I66" t="n">
-        <v>39.30583333333333</v>
-      </c>
-      <c r="J66" t="n">
-        <v>3727.332666666667</v>
+        <v>2386.86</v>
       </c>
     </row>
     <row r="67">
@@ -2987,10 +2787,7 @@
         <v>27.45366666666666</v>
       </c>
       <c r="I67" t="n">
-        <v>40.48983333333333</v>
-      </c>
-      <c r="J67" t="n">
-        <v>3711.784166666666</v>
+        <v>2417.343333333333</v>
       </c>
     </row>
     <row r="68">
@@ -3025,10 +2822,7 @@
         <v>26.3605</v>
       </c>
       <c r="I68" t="n">
-        <v>38.04983333333333</v>
-      </c>
-      <c r="J68" t="n">
-        <v>3306.247833333333</v>
+        <v>2120.756833333333</v>
       </c>
     </row>
     <row r="69">
@@ -3063,10 +2857,7 @@
         <v>19.29366666666667</v>
       </c>
       <c r="I69" t="n">
-        <v>22.49733333333333</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1915.662833333333</v>
+        <v>1228.993</v>
       </c>
     </row>
     <row r="70">
@@ -3101,10 +2892,7 @@
         <v>22.75933333333333</v>
       </c>
       <c r="I70" t="n">
-        <v>35.12483333333333</v>
-      </c>
-      <c r="J70" t="n">
-        <v>2854.642333333333</v>
+        <v>1913.433</v>
       </c>
     </row>
     <row r="71">
@@ -3139,10 +2927,7 @@
         <v>17.92288888888889</v>
       </c>
       <c r="I71" t="n">
-        <v>29.29933333333333</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2193.454222222222</v>
+        <v>1421.593555555555</v>
       </c>
     </row>
     <row r="72">
@@ -3177,10 +2962,7 @@
         <v>19.91183333333333</v>
       </c>
       <c r="I72" t="n">
-        <v>37.37327777777778</v>
-      </c>
-      <c r="J72" t="n">
-        <v>2599.274722222222</v>
+        <v>1727.787222222222</v>
       </c>
     </row>
     <row r="73">
@@ -3215,10 +2997,7 @@
         <v>21.63233333333333</v>
       </c>
       <c r="I73" t="n">
-        <v>35.24483333333333</v>
-      </c>
-      <c r="J73" t="n">
-        <v>2787.589333333333</v>
+        <v>1856.033166666666</v>
       </c>
     </row>
     <row r="74">
@@ -3253,10 +3032,7 @@
         <v>19.03633333333334</v>
       </c>
       <c r="I74" t="n">
-        <v>29.41866666666667</v>
-      </c>
-      <c r="J74" t="n">
-        <v>2173.453</v>
+        <v>1374.008</v>
       </c>
     </row>
     <row r="75">
@@ -3291,10 +3067,7 @@
         <v>21.92083333333333</v>
       </c>
       <c r="I75" t="n">
-        <v>34.01816666666667</v>
-      </c>
-      <c r="J75" t="n">
-        <v>2879.937666666667</v>
+        <v>1899.824333333333</v>
       </c>
     </row>
     <row r="76">
@@ -3329,10 +3102,7 @@
         <v>18.45366666666667</v>
       </c>
       <c r="I76" t="n">
-        <v>29.103</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2216.711666666667</v>
+        <v>1462.039166666667</v>
       </c>
     </row>
     <row r="77">
@@ -3367,10 +3137,7 @@
         <v>17.43583333333333</v>
       </c>
       <c r="I77" t="n">
-        <v>29.968</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1981.3385</v>
+        <v>1331.539833333333</v>
       </c>
     </row>
     <row r="78">
@@ -3405,10 +3172,7 @@
         <v>19.4455</v>
       </c>
       <c r="I78" t="n">
-        <v>35.30633333333333</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2508.3215</v>
+        <v>1665.420666666667</v>
       </c>
     </row>
     <row r="79">
@@ -3443,10 +3207,7 @@
         <v>16.8435</v>
       </c>
       <c r="I79" t="n">
-        <v>33.34933333333333</v>
-      </c>
-      <c r="J79" t="n">
-        <v>2071.287</v>
+        <v>1350.959833333333</v>
       </c>
     </row>
     <row r="80">
@@ -3481,10 +3242,7 @@
         <v>16.60766666666667</v>
       </c>
       <c r="I80" t="n">
-        <v>27.19488888888889</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1795.862833333333</v>
+        <v>1164.656555555556</v>
       </c>
     </row>
     <row r="81">
@@ -3519,10 +3277,7 @@
         <v>21.5005</v>
       </c>
       <c r="I81" t="n">
-        <v>34.39566666666667</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2779.012666666667</v>
+        <v>1842.612666666667</v>
       </c>
     </row>
     <row r="82">
@@ -3557,10 +3312,7 @@
         <v>18.115</v>
       </c>
       <c r="I82" t="n">
-        <v>32.768</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2177.319333333333</v>
+        <v>1457.023833333333</v>
       </c>
     </row>
     <row r="83">
@@ -3595,10 +3347,7 @@
         <v>19.2595</v>
       </c>
       <c r="I83" t="n">
-        <v>-126788.3926666667</v>
-      </c>
-      <c r="J83" t="n">
-        <v>2282.429</v>
+        <v>1507.995166666667</v>
       </c>
     </row>
     <row r="84">
@@ -3633,10 +3382,7 @@
         <v>20.18133333333333</v>
       </c>
       <c r="I84" t="n">
-        <v>37.982</v>
-      </c>
-      <c r="J84" t="n">
-        <v>2539.41</v>
+        <v>1615.191333333333</v>
       </c>
     </row>
     <row r="85">
@@ -3671,10 +3417,7 @@
         <v>17.56283333333333</v>
       </c>
       <c r="I85" t="n">
-        <v>29.8405</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1988.5615</v>
+        <v>1351.0545</v>
       </c>
     </row>
     <row r="86">
@@ -3709,10 +3452,7 @@
         <v>13.03705555555555</v>
       </c>
       <c r="I86" t="n">
-        <v>24.96911111111111</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1527.517444444444</v>
+        <v>975.1547222222222</v>
       </c>
     </row>
     <row r="87">
@@ -3747,10 +3487,7 @@
         <v>15.39416666666667</v>
       </c>
       <c r="I87" t="n">
-        <v>27.79033333333333</v>
-      </c>
-      <c r="J87" t="n">
-        <v>1822.603833333333</v>
+        <v>1147.891166666667</v>
       </c>
     </row>
     <row r="88">
@@ -3785,10 +3522,7 @@
         <v>14.05416666666667</v>
       </c>
       <c r="I88" t="n">
-        <v>28.94833333333333</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1673.443833333333</v>
+        <v>1040.951166666667</v>
       </c>
     </row>
     <row r="89">
@@ -3823,10 +3557,7 @@
         <v>15.96</v>
       </c>
       <c r="I89" t="n">
-        <v>31.63366666666667</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1936.378166666667</v>
+        <v>1235.616</v>
       </c>
     </row>
     <row r="90">
@@ -3861,10 +3592,7 @@
         <v>15.5335</v>
       </c>
       <c r="I90" t="n">
-        <v>33.77083333333334</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1957.886</v>
+        <v>1244.894666666667</v>
       </c>
     </row>
     <row r="91">
@@ -3899,10 +3627,7 @@
         <v>15.04783333333333</v>
       </c>
       <c r="I91" t="n">
-        <v>27.11166666666666</v>
-      </c>
-      <c r="J91" t="n">
-        <v>1625.9235</v>
+        <v>1033.6835</v>
       </c>
     </row>
     <row r="92">
@@ -3937,10 +3662,7 @@
         <v>14.8245</v>
       </c>
       <c r="I92" t="n">
-        <v>29.74133333333333</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1823.981666666667</v>
+        <v>1133.375166666667</v>
       </c>
     </row>
     <row r="93">
@@ -3975,10 +3697,7 @@
         <v>13.89016666666667</v>
       </c>
       <c r="I93" t="n">
-        <v>26.72916666666667</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1522.600666666666</v>
+        <v>988.8631666666666</v>
       </c>
     </row>
     <row r="94">
@@ -4013,10 +3732,7 @@
         <v>13.62466666666667</v>
       </c>
       <c r="I94" t="n">
-        <v>28.04933333333333</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1604.393333333333</v>
+        <v>993.7466666666668</v>
       </c>
     </row>
     <row r="95">
@@ -4051,10 +3767,7 @@
         <v>13.258</v>
       </c>
       <c r="I95" t="n">
-        <v>24.566</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1389.657166666667</v>
+        <v>894.8371666666666</v>
       </c>
     </row>
     <row r="96">
@@ -4089,10 +3802,7 @@
         <v>14.65616666666667</v>
       </c>
       <c r="I96" t="n">
-        <v>34.49016666666667</v>
-      </c>
-      <c r="J96" t="n">
-        <v>2003.311833333333</v>
+        <v>1250.324666666667</v>
       </c>
     </row>
     <row r="97">
@@ -4127,10 +3837,7 @@
         <v>13.30816666666667</v>
       </c>
       <c r="I97" t="n">
-        <v>27.88477777777778</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1647.409444444444</v>
+        <v>1013.380611111111</v>
       </c>
     </row>
     <row r="98">
@@ -4165,10 +3872,7 @@
         <v>14.84416666666667</v>
       </c>
       <c r="I98" t="n">
-        <v>30.85083333333333</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1696.2425</v>
+        <v>1075.9875</v>
       </c>
     </row>
     <row r="99">
@@ -4203,10 +3907,7 @@
         <v>13.49966666666667</v>
       </c>
       <c r="I99" t="n">
-        <v>28.01283333333333</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1524.866666666667</v>
+        <v>951.4846666666667</v>
       </c>
     </row>
     <row r="100">
@@ -4241,10 +3942,7 @@
         <v>13.62983333333333</v>
       </c>
       <c r="I100" t="n">
-        <v>24.61733333333333</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1417.9485</v>
+        <v>907.2975</v>
       </c>
     </row>
     <row r="101">
@@ -4279,10 +3977,7 @@
         <v>12.87955555555556</v>
       </c>
       <c r="I101" t="n">
-        <v>24.67266666666667</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1387.026222222222</v>
+        <v>858.7408888888889</v>
       </c>
     </row>
     <row r="102">
@@ -4317,10 +4012,7 @@
         <v>13.5465</v>
       </c>
       <c r="I102" t="n">
-        <v>26.2575</v>
-      </c>
-      <c r="J102" t="n">
-        <v>1503.813</v>
+        <v>949.1535</v>
       </c>
     </row>
     <row r="103">
@@ -4355,10 +4047,7 @@
         <v>9.163666666666666</v>
       </c>
       <c r="I103" t="n">
-        <v>12.78066666666667</v>
-      </c>
-      <c r="J103" t="n">
-        <v>831.1963333333334</v>
+        <v>554.178</v>
       </c>
     </row>
   </sheetData>
